--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -182,10 +182,22 @@
     <t>Mentor Meeting Report</t>
   </si>
   <si>
-    <t>URD - ver0.1</t>
-  </si>
-  <si>
-    <t>UC Description - ver0.1</t>
+    <t>UC Diagram</t>
+  </si>
+  <si>
+    <t>Use Case Diagram - v0.2</t>
+  </si>
+  <si>
+    <t>Use Case Diagram - v0.1</t>
+  </si>
+  <si>
+    <t>UC Description - v0.1</t>
+  </si>
+  <si>
+    <t>Initial Requirement</t>
+  </si>
+  <si>
+    <t>Định hình sơ bộ yêu cầu - ver0.5</t>
   </si>
 </sst>
 </file>
@@ -356,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -581,6 +593,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -599,27 +641,6 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -627,6 +648,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1019,7 +1043,7 @@
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="82">
+      <c r="B7" s="92">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1047,7 +1071,7 @@
     </row>
     <row r="8" spans="1:13" ht="13.5" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="83"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1073,7 +1097,7 @@
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1">
       <c r="A9" s="28"/>
-      <c r="B9" s="84"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1101,7 +1125,7 @@
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="82">
+      <c r="B10" s="92">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1129,7 +1153,7 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1">
       <c r="A11" s="28"/>
-      <c r="B11" s="83"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1155,7 +1179,7 @@
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1169,7 +1193,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>35</v>
@@ -1185,7 +1209,7 @@
       <c r="A13" s="28">
         <v>1</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="92">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1201,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>36</v>
@@ -1215,7 +1239,7 @@
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="83"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1229,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>43</v>
@@ -1243,7 +1267,7 @@
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="83"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1269,7 +1293,7 @@
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="83"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1292,7 +1316,7 @@
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1">
       <c r="A17" s="28"/>
-      <c r="B17" s="84"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1315,7 +1339,7 @@
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="82">
+      <c r="B18" s="92">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1340,7 +1364,7 @@
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="84"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1364,7 +1388,7 @@
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="29"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="92"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="44"/>
       <c r="E20" s="45"/>
       <c r="F20" s="46"/>
@@ -1376,10 +1400,10 @@
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="28"/>
-      <c r="B21" s="82">
+      <c r="B21" s="92">
         <v>41057</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="87" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="10">
@@ -1401,7 +1425,7 @@
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="28"/>
-      <c r="B22" s="83"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1424,7 +1448,7 @@
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="28"/>
-      <c r="B23" s="83"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1471,51 +1495,63 @@
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="30"/>
-      <c r="B25" s="47">
+      <c r="B25" s="92">
         <v>41059</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="83">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="83">
         <v>0.26319444444444445</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="84">
         <v>0</v>
       </c>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="91" t="s">
+      <c r="G25" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="30"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="83">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D26" s="83">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E26" s="84">
+        <v>1</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="30"/>
       <c r="B27" s="47"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="29"/>
@@ -2114,7 +2150,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B18:B19"/>
@@ -2128,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M63"/>
+  <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2143,7 +2180,7 @@
     <col min="5" max="5" width="9.140625" style="51"/>
     <col min="6" max="6" width="9.140625" style="49"/>
     <col min="7" max="7" width="19.7109375" style="49" customWidth="1"/>
-    <col min="8" max="8" width="22" style="49" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="49" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="49" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="49" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="49"/>
@@ -2224,7 +2261,7 @@
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="58"/>
-      <c r="B7" s="85">
+      <c r="B7" s="95">
         <v>41052</v>
       </c>
       <c r="C7" s="59">
@@ -2252,7 +2289,7 @@
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="58"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="59">
         <v>0.51041666666666663</v>
       </c>
@@ -2271,11 +2308,14 @@
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
+      <c r="L8" s="49" t="s">
+        <v>39</v>
+      </c>
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="58"/>
-      <c r="B9" s="86"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="59">
         <v>0.5625</v>
       </c>
@@ -2292,12 +2332,12 @@
         <v>21</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="61"/>
       <c r="L9" s="49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" s="57"/>
     </row>
@@ -2305,7 +2345,7 @@
       <c r="A10" s="58">
         <v>1</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="59">
         <v>0.59722222222222221</v>
       </c>
@@ -2327,7 +2367,7 @@
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
       <c r="L10" s="49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" s="57"/>
     </row>
@@ -2355,7 +2395,7 @@
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
       <c r="L11" s="49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M11" s="57"/>
     </row>
@@ -2364,7 +2404,7 @@
       <c r="B12" s="62">
         <v>41054</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="82" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="59">
@@ -2382,6 +2422,9 @@
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
+      <c r="L12" s="49" t="s">
+        <v>10</v>
+      </c>
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -2396,13 +2439,13 @@
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
       <c r="L13" s="49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="95">
+      <c r="B14" s="98">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -2423,14 +2466,11 @@
       <c r="H14" s="73"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
-      <c r="L14" s="49" t="s">
-        <v>11</v>
-      </c>
       <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="64"/>
-      <c r="B15" s="96"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -2454,7 +2494,7 @@
       <c r="A16" s="58">
         <v>2</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="59">
         <v>0.92708333333333337</v>
       </c>
@@ -2470,168 +2510,198 @@
       <c r="G16" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="61" t="s">
-        <v>54</v>
+      <c r="H16" s="88" t="s">
+        <v>56</v>
       </c>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="64"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="98">
+        <v>41059</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.46875</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1.75</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="H17" s="77"/>
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
     </row>
-    <row r="18" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A18" s="64"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="59">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D18" s="59">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="M19" s="57"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="M20" s="57"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="58">
-        <v>3</v>
-      </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="M21" s="57"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="M22" s="57"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="M23" s="57"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="62"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+    </row>
+    <row r="24" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A24" s="63"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
       <c r="F24" s="61"/>
       <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="M24" s="57"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="61"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="58">
-        <v>4</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
+      <c r="A27" s="58">
+        <v>3</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="M28" s="57"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="58"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="62"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -2657,111 +2727,111 @@
       <c r="M30" s="57"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="58">
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="58">
+        <v>4</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="64"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A34" s="63"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A35" s="58"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="M35" s="57"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A36" s="58"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="M36" s="57"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A37" s="58">
         <v>5</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="M34" s="57"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="58">
-        <v>6</v>
-      </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="M37" s="57"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="M38" s="57"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A39" s="58"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="62"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -2787,111 +2857,111 @@
       <c r="M40" s="57"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="58">
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A42" s="58">
+        <v>6</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A43" s="64"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A44" s="63"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A45" s="58"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="M45" s="57"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="58"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="M46" s="57"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A47" s="58">
         <v>7</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="M41" s="57"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="M42" s="57"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="M43" s="57"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="58"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="M44" s="57"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="58">
-        <v>8</v>
-      </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="M47" s="57"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="M48" s="57"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="58"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="62"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -2904,67 +2974,67 @@
       <c r="M49" s="57"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="61"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="M50" s="57"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="58">
-        <v>9</v>
-      </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
+      <c r="A52" s="58">
+        <v>8</v>
+      </c>
+      <c r="B52" s="69"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="58"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="M54" s="57"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="58"/>
@@ -2980,113 +3050,190 @@
       <c r="M55" s="57"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="58">
+      <c r="A56" s="64"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A57" s="58">
+        <v>9</v>
+      </c>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A58" s="64"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A59" s="63"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A60" s="58"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="M60" s="57"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A61" s="58"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="M61" s="57"/>
+    </row>
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A62" s="58">
         <v>10</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="M56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="58"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="M57" s="57"/>
-    </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="M58" s="57"/>
-    </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A59" s="58"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="M59" s="57"/>
-    </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-    </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="58">
+      <c r="B62" s="62"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="M62" s="57"/>
+    </row>
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A63" s="58"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="M63" s="57"/>
+    </row>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A64" s="63"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="M64" s="57"/>
+    </row>
+    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A65" s="58"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="M65" s="57"/>
+    </row>
+    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A66" s="64"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+    </row>
+    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A67" s="58">
         <v>11</v>
       </c>
-      <c r="B61" s="69"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-    </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A62" s="64"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-    </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+    </row>
+    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A68" s="64"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+    </row>
+    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A69" s="63"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>Week</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>Định hình sơ bộ yêu cầu - ver0.5</t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t>References ASP.Net &amp; WebMatrix</t>
+  </si>
+  <si>
+    <t>References DreamWeaver, ASP .Net, WebMatrix</t>
   </si>
 </sst>
 </file>
@@ -368,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -498,9 +507,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,6 +629,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -631,6 +646,15 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -648,9 +672,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -947,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M73"/>
+  <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1042,8 +1063,10 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="92">
+      <c r="A7" s="97">
+        <v>1</v>
+      </c>
+      <c r="B7" s="94">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1069,9 +1092,9 @@
       </c>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="93"/>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="98"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1095,9 +1118,9 @@
       </c>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="94"/>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="98"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1123,9 +1146,9 @@
       </c>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="92">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="94">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1151,9 +1174,9 @@
       </c>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="93"/>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="98"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1177,9 +1200,9 @@
       </c>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="94"/>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1206,10 +1229,8 @@
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="28">
-        <v>1</v>
-      </c>
-      <c r="B13" s="92">
+      <c r="A13" s="98"/>
+      <c r="B13" s="94">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1238,8 +1259,8 @@
       <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1266,8 +1287,8 @@
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1292,8 +1313,8 @@
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1315,8 +1336,8 @@
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1338,8 +1359,8 @@
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="92">
+      <c r="A18" s="98"/>
+      <c r="B18" s="94">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1363,8 +1384,8 @@
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1386,9 +1407,9 @@
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="86"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="44"/>
       <c r="E20" s="45"/>
       <c r="F20" s="46"/>
@@ -1399,11 +1420,13 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="92">
+      <c r="A21" s="97">
+        <v>2</v>
+      </c>
+      <c r="B21" s="94">
         <v>41057</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="86" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="10">
@@ -1424,8 +1447,8 @@
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1447,8 +1470,8 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1470,7 +1493,7 @@
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1494,206 +1517,275 @@
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="92">
+      <c r="A25" s="98"/>
+      <c r="B25" s="94">
         <v>41059</v>
       </c>
-      <c r="C25" s="83">
+      <c r="C25" s="82">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="82">
         <v>0.26319444444444445</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="83">
         <v>0</v>
       </c>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="85" t="s">
+      <c r="G25" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="83">
+      <c r="A26" s="98"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="82">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="82">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="83">
         <v>1</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="101" t="s">
+      <c r="G26" s="91" t="s">
         <v>57</v>
       </c>
       <c r="H26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="94">
+        <v>41060</v>
+      </c>
+      <c r="C27" s="82">
+        <v>0.40625</v>
+      </c>
+      <c r="D27" s="82">
+        <v>0.46875</v>
+      </c>
+      <c r="E27" s="83">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="82">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D28" s="82">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E28" s="83">
+        <v>0</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="M29" s="27"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="94">
+        <v>41062</v>
+      </c>
+      <c r="C29" s="82">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D29" s="82">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E29" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="M30" s="27"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="82">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D30" s="82">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E30" s="83">
+        <v>1</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="28">
+      <c r="A31" s="98"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="82">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D31" s="82">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E31" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+    </row>
+    <row r="32" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A32" s="98"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="82">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D32" s="82">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="E32" s="83">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="98"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="82">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D33" s="82">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E33" s="83">
+        <v>2.75</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A34" s="98"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A35" s="99"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="28">
         <v>3</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="M31" s="27"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="M32" s="27"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="M33" s="27"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="M34" s="27"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="28">
-        <v>4</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="M38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="28"/>
@@ -1709,7 +1801,7 @@
       <c r="M39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1722,9 +1814,7 @@
       <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="28">
-        <v>5</v>
-      </c>
+      <c r="A41" s="28"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1737,93 +1827,95 @@
       <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="M42" s="27"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="M43" s="27"/>
+      <c r="A43" s="28">
+        <v>4</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="M44" s="27"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="28">
-        <v>6</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="M46" s="27"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="M47" s="27"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
+      <c r="A48" s="28">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="28"/>
@@ -1839,7 +1931,7 @@
       <c r="M49" s="27"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1852,9 +1944,7 @@
       <c r="M50" s="27"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="28">
-        <v>7</v>
-      </c>
+      <c r="A51" s="28"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1867,93 +1957,95 @@
       <c r="M51" s="27"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="M52" s="27"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="M53" s="27"/>
+      <c r="A53" s="28">
+        <v>6</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="28"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="M54" s="27"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="28">
-        <v>8</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="30"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="M57" s="27"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
+      <c r="A58" s="28">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="M58" s="27"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="28"/>
@@ -1969,85 +2061,83 @@
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="M60" s="27"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="28">
-        <v>9</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="M61" s="27"/>
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A62" s="30"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
+      <c r="A63" s="28">
+        <v>8</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A64" s="28"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="M64" s="27"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A65" s="28"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="M65" s="27"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
     </row>
     <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A66" s="28">
-        <v>10</v>
-      </c>
+      <c r="A66" s="28"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2060,103 +2150,198 @@
       <c r="M66" s="27"/>
     </row>
     <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A67" s="28"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="M67" s="27"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="M68" s="27"/>
+      <c r="A68" s="28">
+        <v>9</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A69" s="28"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="M69" s="27"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A71" s="28">
+      <c r="A71" s="28"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="M71" s="27"/>
+    </row>
+    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A72" s="28"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="M72" s="27"/>
+    </row>
+    <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A73" s="28">
+        <v>10</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="M73" s="27"/>
+    </row>
+    <row r="74" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A74" s="28"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="M74" s="27"/>
+    </row>
+    <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A75" s="29"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="M75" s="27"/>
+    </row>
+    <row r="76" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A76" s="28"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="M76" s="27"/>
+    </row>
+    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A77" s="30"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A78" s="28">
         <v>11</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-    </row>
-    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-    </row>
-    <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+    </row>
+    <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A80" s="29"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="A21:A35"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2165,287 +2350,287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M69"/>
+  <dimension ref="A2:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="49"/>
-    <col min="3" max="3" width="10.7109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="49"/>
-    <col min="5" max="5" width="9.140625" style="51"/>
-    <col min="6" max="6" width="9.140625" style="49"/>
-    <col min="7" max="7" width="19.7109375" style="49" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="49"/>
-    <col min="12" max="12" width="26" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="7.42578125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="48"/>
+    <col min="3" max="3" width="10.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="48"/>
+    <col min="5" max="5" width="9.140625" style="50"/>
+    <col min="6" max="6" width="9.140625" style="48"/>
+    <col min="7" max="7" width="30.28515625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="48"/>
+    <col min="12" max="12" width="26" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="D3" s="50"/>
-      <c r="L3" s="52" t="s">
+      <c r="D3" s="49"/>
+      <c r="L3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="52">
         <v>41050</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" thickBot="1">
-      <c r="C5" s="54"/>
-      <c r="L5" s="50" t="s">
+      <c r="C5" s="53"/>
+      <c r="L5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="95">
+      <c r="A7" s="57"/>
+      <c r="B7" s="100">
         <v>41052</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="58">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="58">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="59">
         <v>2.5</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="L7" s="49" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="L7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="57"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="59">
+      <c r="A8" s="57"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="58">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="58">
         <v>0.51736111111111105</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="59">
         <v>0.25</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="L8" s="49" t="s">
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="L8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="57"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="59">
+      <c r="A9" s="57"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="58">
         <v>0.5625</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="58">
         <v>0.59722222222222221</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="59">
         <v>1</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="L9" s="49" t="s">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="L9" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="57"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="58">
+      <c r="A10" s="57">
         <v>1</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="59">
+      <c r="B10" s="102"/>
+      <c r="C10" s="58">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="58">
         <v>0.64236111111111105</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <v>1</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="L10" s="49" t="s">
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="L10" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="57"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="62">
+      <c r="A11" s="57"/>
+      <c r="B11" s="61">
         <v>41053</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>0.8125</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="58">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="59">
         <v>5.5</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="L11" s="49" t="s">
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="L11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="57"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="62">
+      <c r="A12" s="57"/>
+      <c r="B12" s="61">
         <v>41054</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="58">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="59">
         <v>4</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="L12" s="49" t="s">
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="L12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="57"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="L13" s="49" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="L13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="57"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="98">
+      <c r="A14" s="57"/>
+      <c r="B14" s="103">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -2463,14 +2648,14 @@
       <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="M14" s="57"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -2486,39 +2671,39 @@
       <c r="G15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:13" ht="39" thickBot="1">
-      <c r="A16" s="58">
+      <c r="A16" s="57">
         <v>2</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="59">
+      <c r="B16" s="105"/>
+      <c r="C16" s="58">
         <v>0.92708333333333337</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="58">
         <v>0.98333333333333339</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="59">
         <v>1.25</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="98">
+      <c r="A17" s="63"/>
+      <c r="B17" s="103">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -2536,35 +2721,35 @@
       <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="59">
+      <c r="A18" s="63"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="58">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="58">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="59">
         <v>0</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -2580,654 +2765,690 @@
       <c r="G19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+    </row>
+    <row r="20" spans="1:13" ht="39" thickBot="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="93">
+        <v>41061</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E20" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="76"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+    </row>
+    <row r="21" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A21" s="63"/>
+      <c r="B21" s="89">
+        <v>41063</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E21" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="76"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="33"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="64"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="89"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="33"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-    </row>
-    <row r="24" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
+      <c r="H23" s="76"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="63"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="M25" s="57"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+    </row>
+    <row r="25" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="M26" s="57"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="58">
+      <c r="A27" s="57"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="M27" s="56"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A28" s="57">
         <v>3</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="M27" s="57"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="M28" s="57"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="M29" s="57"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="M30" s="57"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="M30" s="56"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="58">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="57">
         <v>4</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="63"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="M35" s="57"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="M36" s="57"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="M36" s="56"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="58">
+      <c r="A37" s="57"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="M37" s="56"/>
+    </row>
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="57">
         <v>5</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="M37" s="57"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="M38" s="57"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="M39" s="57"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="M39" s="56"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="M40" s="57"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="M40" s="56"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="M41" s="56"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="58">
+      <c r="A42" s="63"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A43" s="57">
         <v>6</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="63"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="58"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="M45" s="57"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="58"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="M46" s="57"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="M46" s="56"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="58">
+      <c r="A47" s="57"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="M47" s="56"/>
+    </row>
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="57">
         <v>7</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="M47" s="57"/>
-    </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="58"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="M48" s="57"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="M49" s="57"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="M49" s="56"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="58"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="M50" s="57"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="M50" s="56"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="M51" s="56"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="58">
+      <c r="A52" s="63"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-    </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="63"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="M55" s="57"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="58">
+      <c r="A57" s="63"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A58" s="57">
         <v>9</v>
       </c>
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-    </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="63"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="58"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="M60" s="57"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="58"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="M61" s="57"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="M61" s="56"/>
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A62" s="58">
+      <c r="A62" s="57"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="M62" s="56"/>
+    </row>
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A63" s="57">
         <v>10</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="M62" s="57"/>
-    </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A63" s="58"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="M63" s="57"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="M63" s="56"/>
     </row>
     <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="M64" s="57"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="M64" s="56"/>
     </row>
     <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A65" s="58"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="M65" s="57"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="M65" s="56"/>
     </row>
     <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="M66" s="56"/>
     </row>
     <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A67" s="58">
+      <c r="A67" s="63"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+    </row>
+    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A68" s="57">
         <v>11</v>
       </c>
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-    </row>
-    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A68" s="64"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
     </row>
     <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A69" s="63"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="81"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+    </row>
+    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A70" s="62"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
   <si>
     <t>Week</t>
   </si>
@@ -970,7 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2855,12 +2855,24 @@
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="63"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="89">
+        <v>41064</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E23" s="33">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H23" s="76"/>
       <c r="I23" s="90"/>
       <c r="J23" s="90"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
   <si>
     <t>Week</t>
   </si>
@@ -207,16 +207,25 @@
   </si>
   <si>
     <t>References DreamWeaver, ASP .Net, WebMatrix</t>
+  </si>
+  <si>
+    <t>References ASP .Net &amp; MVC</t>
+  </si>
+  <si>
+    <t>References SAD &amp; SDS</t>
+  </si>
+  <si>
+    <t>Design GUI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -623,9 +632,6 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -654,6 +660,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,6 +695,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -758,6 +778,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -792,6 +813,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -967,14 +989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
@@ -991,19 +1013,19 @@
     <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" s="24"/>
       <c r="L3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1039,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26"/>
       <c r="L5" s="24" t="s">
         <v>13</v>
@@ -1026,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1">
+    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,11 +1084,11 @@
       </c>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A7" s="97">
+    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="96">
         <v>1</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="93">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1092,9 +1114,9 @@
       </c>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="98"/>
-      <c r="B8" s="95"/>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="97"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1118,9 +1140,9 @@
       </c>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="96"/>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1146,9 +1168,9 @@
       </c>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="94">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="93">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1174,9 +1196,9 @@
       </c>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95"/>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1200,9 +1222,9 @@
       </c>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="96"/>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="97"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1228,9 +1250,9 @@
       </c>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="94">
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="93">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1258,9 +1280,9 @@
       </c>
       <c r="M13" s="27"/>
     </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="95"/>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1286,9 +1308,9 @@
       </c>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="95"/>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="97"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1312,9 +1334,9 @@
       </c>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="95"/>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1335,9 +1357,9 @@
       <c r="J16" s="5"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="96"/>
+    <row r="17" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="97"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1358,9 +1380,9 @@
       <c r="J17" s="5"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="94">
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18" s="93">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1383,9 +1405,9 @@
       <c r="J18" s="5"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="96"/>
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1406,8 +1428,8 @@
       <c r="J19" s="5"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="99"/>
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="98"/>
       <c r="B20" s="3"/>
       <c r="C20" s="85"/>
       <c r="D20" s="44"/>
@@ -1419,11 +1441,11 @@
       <c r="J20" s="5"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="97">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="96">
         <v>2</v>
       </c>
-      <c r="B21" s="94">
+      <c r="B21" s="93">
         <v>41057</v>
       </c>
       <c r="C21" s="86" t="s">
@@ -1446,9 +1468,9 @@
       <c r="J21" s="5"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="95"/>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="97"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1469,9 +1491,9 @@
       <c r="J22" s="5"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="95"/>
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="97"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1492,8 +1514,8 @@
       <c r="J23" s="5"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="98"/>
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="97"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1516,9 +1538,9 @@
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="94">
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="97"/>
+      <c r="B25" s="93">
         <v>41059</v>
       </c>
       <c r="C25" s="82">
@@ -1540,9 +1562,9 @@
       <c r="I25" s="84"/>
       <c r="J25" s="84"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="98"/>
-      <c r="B26" s="96"/>
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="82">
         <v>0.57986111111111105</v>
       </c>
@@ -1555,7 +1577,7 @@
       <c r="F26" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="91" t="s">
+      <c r="G26" s="90" t="s">
         <v>57</v>
       </c>
       <c r="H26" s="46" t="s">
@@ -1564,9 +1586,9 @@
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="94">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="97"/>
+      <c r="B27" s="93">
         <v>41060</v>
       </c>
       <c r="C27" s="82">
@@ -1588,9 +1610,9 @@
       <c r="I27" s="84"/>
       <c r="J27" s="84"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="96"/>
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="97"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="82">
         <v>0.54166666666666663</v>
       </c>
@@ -1610,9 +1632,9 @@
       <c r="I28" s="84"/>
       <c r="J28" s="84"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="94">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="97"/>
+      <c r="B29" s="93">
         <v>41062</v>
       </c>
       <c r="C29" s="82">
@@ -1634,9 +1656,9 @@
       <c r="I29" s="84"/>
       <c r="J29" s="84"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="95"/>
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="97"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="82">
         <v>0.41666666666666669</v>
       </c>
@@ -1656,9 +1678,9 @@
       <c r="I30" s="84"/>
       <c r="J30" s="84"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="95"/>
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="97"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="82">
         <v>0.52777777777777779</v>
       </c>
@@ -1678,9 +1700,9 @@
       <c r="I31" s="84"/>
       <c r="J31" s="84"/>
     </row>
-    <row r="32" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A32" s="98"/>
-      <c r="B32" s="95"/>
+    <row r="32" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="97"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="82">
         <v>0.69097222222222221</v>
       </c>
@@ -1700,9 +1722,9 @@
       <c r="I32" s="84"/>
       <c r="J32" s="84"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="96"/>
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="97"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="82">
         <v>0.88541666666666663</v>
       </c>
@@ -1722,9 +1744,9 @@
       <c r="I33" s="84"/>
       <c r="J33" s="84"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="98"/>
-      <c r="B34" s="93">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="97"/>
+      <c r="B34" s="92">
         <v>41063</v>
       </c>
       <c r="C34" s="82">
@@ -1746,8 +1768,8 @@
       <c r="I34" s="84"/>
       <c r="J34" s="84"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="99"/>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="98"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1758,33 +1780,57 @@
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="B36" s="3">
+        <v>41067</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E36" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="M36" s="27"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="3">
+        <v>41068</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="E37" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>3</v>
       </c>
@@ -1799,7 +1845,7 @@
       <c r="J38" s="5"/>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1812,7 +1858,7 @@
       <c r="J39" s="5"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1825,7 +1871,7 @@
       <c r="J40" s="5"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1838,7 +1884,7 @@
       <c r="J41" s="5"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -1850,7 +1896,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>4</v>
       </c>
@@ -1864,7 +1910,7 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="39"/>
       <c r="C44" s="40"/>
@@ -1876,7 +1922,7 @@
       <c r="I44" s="42"/>
       <c r="J44" s="42"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
@@ -1888,7 +1934,7 @@
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -1901,7 +1947,7 @@
       <c r="J46" s="5"/>
       <c r="M46" s="27"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -1914,7 +1960,7 @@
       <c r="J47" s="5"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>5</v>
       </c>
@@ -1929,7 +1975,7 @@
       <c r="J48" s="5"/>
       <c r="M48" s="27"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -1942,7 +1988,7 @@
       <c r="J49" s="5"/>
       <c r="M49" s="27"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -1955,7 +2001,7 @@
       <c r="J50" s="5"/>
       <c r="M50" s="27"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -1968,7 +2014,7 @@
       <c r="J51" s="5"/>
       <c r="M51" s="27"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
@@ -1980,7 +2026,7 @@
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>6</v>
       </c>
@@ -1994,7 +2040,7 @@
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
       <c r="B54" s="39"/>
       <c r="C54" s="40"/>
@@ -2006,7 +2052,7 @@
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
@@ -2018,7 +2064,7 @@
       <c r="I55" s="46"/>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
@@ -2031,7 +2077,7 @@
       <c r="J56" s="5"/>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -2044,7 +2090,7 @@
       <c r="J57" s="5"/>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>7</v>
       </c>
@@ -2059,7 +2105,7 @@
       <c r="J58" s="5"/>
       <c r="M58" s="27"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -2072,7 +2118,7 @@
       <c r="J59" s="5"/>
       <c r="M59" s="27"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -2085,7 +2131,7 @@
       <c r="J60" s="5"/>
       <c r="M60" s="27"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -2098,7 +2144,7 @@
       <c r="J61" s="5"/>
       <c r="M61" s="27"/>
     </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
@@ -2110,7 +2156,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>8</v>
       </c>
@@ -2124,7 +2170,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="39"/>
       <c r="C64" s="40"/>
@@ -2136,7 +2182,7 @@
       <c r="I64" s="42"/>
       <c r="J64" s="42"/>
     </row>
-    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
@@ -2148,7 +2194,7 @@
       <c r="I65" s="46"/>
       <c r="J65" s="46"/>
     </row>
-    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -2161,7 +2207,7 @@
       <c r="J66" s="5"/>
       <c r="M66" s="27"/>
     </row>
-    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
       <c r="B67" s="9"/>
       <c r="C67" s="10"/>
@@ -2173,7 +2219,7 @@
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>9</v>
       </c>
@@ -2187,7 +2233,7 @@
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
     </row>
-    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
       <c r="B69" s="39"/>
       <c r="C69" s="40"/>
@@ -2199,7 +2245,7 @@
       <c r="I69" s="42"/>
       <c r="J69" s="42"/>
     </row>
-    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="43"/>
       <c r="C70" s="44"/>
@@ -2211,7 +2257,7 @@
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
     </row>
-    <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -2224,7 +2270,7 @@
       <c r="J71" s="5"/>
       <c r="M71" s="27"/>
     </row>
-    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -2237,7 +2283,7 @@
       <c r="J72" s="5"/>
       <c r="M72" s="27"/>
     </row>
-    <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>10</v>
       </c>
@@ -2252,7 +2298,7 @@
       <c r="J73" s="5"/>
       <c r="M73" s="27"/>
     </row>
-    <row r="74" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="74" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -2265,7 +2311,7 @@
       <c r="J74" s="5"/>
       <c r="M74" s="27"/>
     </row>
-    <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -2278,7 +2324,7 @@
       <c r="J75" s="5"/>
       <c r="M75" s="27"/>
     </row>
-    <row r="76" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="76" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -2291,7 +2337,7 @@
       <c r="J76" s="5"/>
       <c r="M76" s="27"/>
     </row>
-    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
@@ -2303,7 +2349,7 @@
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="78" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>11</v>
       </c>
@@ -2317,7 +2363,7 @@
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="39"/>
       <c r="C79" s="40"/>
@@ -2329,7 +2375,7 @@
       <c r="I79" s="42"/>
       <c r="J79" s="42"/>
     </row>
-    <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
       <c r="B80" s="43"/>
       <c r="C80" s="44"/>
@@ -2361,14 +2407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="47" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="48"/>
@@ -2385,19 +2431,19 @@
     <col min="13" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" s="49"/>
       <c r="L3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
@@ -2411,7 +2457,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="53"/>
       <c r="L5" s="49" t="s">
         <v>13</v>
@@ -2420,7 +2466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1">
+    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>0</v>
       </c>
@@ -2456,9 +2502,11 @@
       </c>
       <c r="M6" s="56"/>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="100">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="99">
+        <v>1</v>
+      </c>
+      <c r="B7" s="102">
         <v>41052</v>
       </c>
       <c r="C7" s="58">
@@ -2484,9 +2532,9 @@
       </c>
       <c r="M7" s="56"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="101"/>
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="100"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="58">
         <v>0.51041666666666663</v>
       </c>
@@ -2510,9 +2558,9 @@
       </c>
       <c r="M8" s="56"/>
     </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="101"/>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="100"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="58">
         <v>0.5625</v>
       </c>
@@ -2538,11 +2586,9 @@
       </c>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="57">
-        <v>1</v>
-      </c>
-      <c r="B10" s="102"/>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="100"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="58">
         <v>0.59722222222222221</v>
       </c>
@@ -2568,8 +2614,8 @@
       </c>
       <c r="M10" s="56"/>
     </row>
-    <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="57"/>
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="100"/>
       <c r="B11" s="61">
         <v>41053</v>
       </c>
@@ -2596,8 +2642,8 @@
       </c>
       <c r="M11" s="56"/>
     </row>
-    <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="57"/>
+    <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="100"/>
       <c r="B12" s="61">
         <v>41054</v>
       </c>
@@ -2624,8 +2670,8 @@
       </c>
       <c r="M12" s="56"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="62"/>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101"/>
       <c r="B13" s="61"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -2640,9 +2686,11 @@
       </c>
       <c r="M13" s="56"/>
     </row>
-    <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="103">
+    <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="99">
+        <v>2</v>
+      </c>
+      <c r="B14" s="105">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -2665,9 +2713,9 @@
       <c r="J14" s="60"/>
       <c r="M14" s="56"/>
     </row>
-    <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="104"/>
+    <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -2687,11 +2735,9 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A16" s="57">
-        <v>2</v>
-      </c>
-      <c r="B16" s="105"/>
+    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="58">
         <v>0.92708333333333337</v>
       </c>
@@ -2713,9 +2759,9 @@
       <c r="I16" s="71"/>
       <c r="J16" s="71"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="103">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="100"/>
+      <c r="B17" s="105">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -2737,9 +2783,9 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="104"/>
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="100"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="58">
         <v>0.54861111111111105</v>
       </c>
@@ -2756,12 +2802,12 @@
         <v>46</v>
       </c>
       <c r="H18" s="76"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="105"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="100"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -2780,12 +2826,12 @@
       <c r="H19" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-    </row>
-    <row r="20" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="92">
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="100"/>
+      <c r="B20" s="91">
         <v>41061</v>
       </c>
       <c r="C20" s="4">
@@ -2804,12 +2850,12 @@
         <v>61</v>
       </c>
       <c r="H20" s="76"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="103">
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="100"/>
+      <c r="B21" s="105">
         <v>41063</v>
       </c>
       <c r="C21" s="81" t="s">
@@ -2828,12 +2874,12 @@
         <v>60</v>
       </c>
       <c r="H21" s="76"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="105"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="100"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2850,12 +2896,12 @@
         <v>60</v>
       </c>
       <c r="H22" s="76"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="89">
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="100"/>
+      <c r="B23" s="88">
         <v>41064</v>
       </c>
       <c r="C23" s="4">
@@ -2874,48 +2920,75 @@
         <v>48</v>
       </c>
       <c r="H23" s="76"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-    </row>
-    <row r="25" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+    </row>
+    <row r="24" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="101"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="99">
+        <v>3</v>
+      </c>
+      <c r="B25" s="61">
+        <v>41066</v>
+      </c>
+      <c r="C25" s="58">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D25" s="58">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E25" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="M25" s="56"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="100"/>
+      <c r="B26" s="61">
+        <v>41067</v>
+      </c>
+      <c r="C26" s="58">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D26" s="58">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E26" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>63</v>
+      </c>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
       <c r="J26" s="60"/>
       <c r="M26" s="56"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="57"/>
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="100"/>
       <c r="B27" s="61"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -2927,10 +3000,8 @@
       <c r="J27" s="60"/>
       <c r="M27" s="56"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="57">
-        <v>3</v>
-      </c>
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="100"/>
       <c r="B28" s="61"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -2942,8 +3013,8 @@
       <c r="J28" s="60"/>
       <c r="M28" s="56"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="57"/>
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="100"/>
       <c r="B29" s="61"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -2955,8 +3026,8 @@
       <c r="J29" s="60"/>
       <c r="M29" s="56"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="62"/>
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="100"/>
       <c r="B30" s="61"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -2968,8 +3039,8 @@
       <c r="J30" s="60"/>
       <c r="M30" s="56"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="57"/>
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="100"/>
       <c r="B31" s="61"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -2981,98 +3052,96 @@
       <c r="J31" s="60"/>
       <c r="M31" s="56"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="100"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="60"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="57">
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="M32" s="56"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="101"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="M33" s="56"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="M34" s="56"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57">
         <v>4</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="M36" s="56"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="57"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="M37" s="56"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="57">
-        <v>5</v>
-      </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="M38" s="56"/>
-    </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="63"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+    </row>
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+    </row>
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57"/>
       <c r="B39" s="61"/>
       <c r="C39" s="58"/>
@@ -3085,8 +3154,8 @@
       <c r="J39" s="60"/>
       <c r="M39" s="56"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="62"/>
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
       <c r="B40" s="61"/>
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
@@ -3098,8 +3167,10 @@
       <c r="J40" s="60"/>
       <c r="M40" s="56"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="57"/>
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57">
+        <v>5</v>
+      </c>
       <c r="B41" s="61"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
@@ -3111,98 +3182,96 @@
       <c r="J41" s="60"/>
       <c r="M41" s="56"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="60"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="57">
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="M42" s="56"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="M43" s="56"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="M44" s="56"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57">
         <v>6</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="57"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="M46" s="56"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="57"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="M47" s="56"/>
-    </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="57">
-        <v>7</v>
-      </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="M48" s="56"/>
-    </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="63"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+    </row>
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="61"/>
       <c r="C49" s="58"/>
@@ -3215,8 +3284,8 @@
       <c r="J49" s="60"/>
       <c r="M49" s="56"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="62"/>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
       <c r="B50" s="61"/>
       <c r="C50" s="58"/>
       <c r="D50" s="58"/>
@@ -3228,8 +3297,10 @@
       <c r="J50" s="60"/>
       <c r="M50" s="56"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="57"/>
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="57">
+        <v>7</v>
+      </c>
       <c r="B51" s="61"/>
       <c r="C51" s="58"/>
       <c r="D51" s="58"/>
@@ -3241,161 +3312,159 @@
       <c r="J51" s="60"/>
       <c r="M51" s="56"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-    </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="57">
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="M52" s="56"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="M53" s="56"/>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="57"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="M54" s="56"/>
+    </row>
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="63"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+    </row>
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="57">
         <v>8</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-    </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-    </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="62"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-    </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="57"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="M56" s="56"/>
-    </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B56" s="68"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-    </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="57">
+      <c r="B57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="62"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="M59" s="56"/>
+    </row>
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="63"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="57">
         <v>9</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-    </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-    </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="62"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-    </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="57"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="M61" s="56"/>
-    </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A62" s="57"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="M62" s="56"/>
-    </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A63" s="57">
-        <v>10</v>
-      </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="M63" s="56"/>
-    </row>
-    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+    </row>
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="63"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+    </row>
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="62"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+    </row>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="61"/>
       <c r="C64" s="58"/>
@@ -3408,8 +3477,8 @@
       <c r="J64" s="60"/>
       <c r="M64" s="56"/>
     </row>
-    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A65" s="62"/>
+    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="57"/>
       <c r="B65" s="61"/>
       <c r="C65" s="58"/>
       <c r="D65" s="58"/>
@@ -3421,8 +3490,10 @@
       <c r="J65" s="60"/>
       <c r="M65" s="56"/>
     </row>
-    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A66" s="57"/>
+    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57">
+        <v>10</v>
+      </c>
       <c r="B66" s="61"/>
       <c r="C66" s="58"/>
       <c r="D66" s="58"/>
@@ -3434,62 +3505,104 @@
       <c r="J66" s="60"/>
       <c r="M66" s="56"/>
     </row>
-    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A67" s="63"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
+    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="57"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
       <c r="H67" s="60"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-    </row>
-    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A68" s="57">
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="M67" s="56"/>
+    </row>
+    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="62"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="M68" s="56"/>
+    </row>
+    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="57"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="M69" s="56"/>
+    </row>
+    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="63"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+    </row>
+    <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="57">
         <v>11</v>
       </c>
-      <c r="B68" s="68"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-    </row>
-    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A69" s="63"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-    </row>
-    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A70" s="62"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
+    </row>
+    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="63"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
+    </row>
+    <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="62"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A25:A33"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A7:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3497,14 +3610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
@@ -3521,19 +3634,19 @@
     <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" s="24"/>
       <c r="L3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -3547,7 +3660,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26"/>
       <c r="L5" s="24" t="s">
         <v>13</v>
@@ -3556,7 +3669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1">
+    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3702,7 @@
       </c>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -3602,7 +3715,7 @@
       <c r="J7" s="5"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -3615,7 +3728,7 @@
       <c r="J8" s="5"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>1</v>
       </c>
@@ -3630,7 +3743,7 @@
       <c r="J9" s="5"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -3643,7 +3756,7 @@
       <c r="J10" s="8"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -3659,7 +3772,7 @@
       </c>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -3675,7 +3788,7 @@
       </c>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -3687,7 +3800,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>2</v>
       </c>
@@ -3701,7 +3814,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -3713,7 +3826,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -3725,7 +3838,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -3738,7 +3851,7 @@
       <c r="J17" s="5"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -3751,7 +3864,7 @@
       <c r="J18" s="5"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>3</v>
       </c>
@@ -3766,7 +3879,7 @@
       <c r="J19" s="5"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -3779,7 +3892,7 @@
       <c r="J20" s="8"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -3792,7 +3905,7 @@
       <c r="J21" s="8"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -3805,7 +3918,7 @@
       <c r="J22" s="5"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -3817,7 +3930,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -3831,7 +3944,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -3843,7 +3956,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -3855,7 +3968,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -3868,7 +3981,7 @@
       <c r="J27" s="5"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -3881,7 +3994,7 @@
       <c r="J28" s="5"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>5</v>
       </c>
@@ -3896,7 +4009,7 @@
       <c r="J29" s="5"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -3909,7 +4022,7 @@
       <c r="J30" s="8"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -3922,7 +4035,7 @@
       <c r="J31" s="8"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -3935,7 +4048,7 @@
       <c r="J32" s="5"/>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -3947,7 +4060,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>6</v>
       </c>
@@ -3961,7 +4074,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -3973,7 +4086,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
@@ -3985,7 +4098,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -3998,7 +4111,7 @@
       <c r="J37" s="5"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -4011,7 +4124,7 @@
       <c r="J38" s="5"/>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>7</v>
       </c>
@@ -4026,7 +4139,7 @@
       <c r="J39" s="5"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -4039,7 +4152,7 @@
       <c r="J40" s="8"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -4052,7 +4165,7 @@
       <c r="J41" s="8"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -4065,7 +4178,7 @@
       <c r="J42" s="5"/>
       <c r="M42" s="27"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -4077,7 +4190,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>8</v>
       </c>
@@ -4091,7 +4204,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
@@ -4103,7 +4216,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
@@ -4115,7 +4228,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -4128,7 +4241,7 @@
       <c r="J47" s="5"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -4140,7 +4253,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>9</v>
       </c>
@@ -4154,7 +4267,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
@@ -4166,7 +4279,7 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
@@ -4178,7 +4291,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -4191,7 +4304,7 @@
       <c r="J52" s="5"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -4204,7 +4317,7 @@
       <c r="J53" s="5"/>
       <c r="M53" s="27"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>10</v>
       </c>
@@ -4219,7 +4332,7 @@
       <c r="J54" s="5"/>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -4232,7 +4345,7 @@
       <c r="J55" s="8"/>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -4245,7 +4358,7 @@
       <c r="J56" s="8"/>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -4258,7 +4371,7 @@
       <c r="J57" s="5"/>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -4270,7 +4383,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>11</v>
       </c>
@@ -4284,7 +4397,7 @@
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
@@ -4296,7 +4409,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
   <si>
     <t>Week</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Design GUI</t>
+  </si>
+  <si>
+    <t>Make High Level Requirement</t>
   </si>
 </sst>
 </file>
@@ -992,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1007,7 @@
     <col min="4" max="4" width="10.42578125" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="32"/>
     <col min="6" max="6" width="9.140625" style="23"/>
-    <col min="7" max="7" width="21.5703125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="23" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="23" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="23" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="23" customWidth="1"/>
@@ -1834,12 +1837,24 @@
       <c r="A38" s="28">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="B38" s="3">
+        <v>41069</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="E38" s="33">
+        <v>2</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="68">
   <si>
     <t>Week</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Make High Level Requirement</t>
+  </si>
+  <si>
+    <t>Make RBS</t>
+  </si>
+  <si>
+    <t>References &amp; Analysis requirement</t>
   </si>
 </sst>
 </file>
@@ -995,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1888,25 +1894,49 @@
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="3">
+        <v>41071</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E41" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="B42" s="9">
+        <v>41072</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E42" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="68">
   <si>
     <t>Week</t>
   </si>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -652,6 +652,9 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -999,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M80"/>
+  <dimension ref="A2:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1097,10 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96">
+      <c r="A7" s="97">
         <v>1</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="94">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1124,8 +1127,8 @@
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1150,8 +1153,8 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1178,8 +1181,8 @@
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="93">
+      <c r="A10" s="98"/>
+      <c r="B10" s="94">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1206,8 +1209,8 @@
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1232,8 +1235,8 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1260,8 +1263,8 @@
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="93">
+      <c r="A13" s="98"/>
+      <c r="B13" s="94">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1290,8 +1293,8 @@
       <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="94"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1318,8 +1321,8 @@
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1344,8 +1347,8 @@
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1367,8 +1370,8 @@
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1390,8 +1393,8 @@
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="93">
+      <c r="A18" s="98"/>
+      <c r="B18" s="94">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1415,8 +1418,8 @@
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1438,7 +1441,7 @@
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="3"/>
       <c r="C20" s="85"/>
       <c r="D20" s="44"/>
@@ -1451,10 +1454,10 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96">
+      <c r="A21" s="97">
         <v>2</v>
       </c>
-      <c r="B21" s="93">
+      <c r="B21" s="94">
         <v>41057</v>
       </c>
       <c r="C21" s="86" t="s">
@@ -1478,8 +1481,8 @@
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1501,8 +1504,8 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1524,7 +1527,7 @@
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1548,8 +1551,8 @@
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="93">
+      <c r="A25" s="98"/>
+      <c r="B25" s="94">
         <v>41059</v>
       </c>
       <c r="C25" s="82">
@@ -1572,8 +1575,8 @@
       <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="95"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="82">
         <v>0.57986111111111105</v>
       </c>
@@ -1596,8 +1599,8 @@
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="93">
+      <c r="A27" s="98"/>
+      <c r="B27" s="94">
         <v>41060</v>
       </c>
       <c r="C27" s="82">
@@ -1620,8 +1623,8 @@
       <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="95"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="82">
         <v>0.54166666666666663</v>
       </c>
@@ -1642,8 +1645,8 @@
       <c r="J28" s="84"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="93">
+      <c r="A29" s="98"/>
+      <c r="B29" s="94">
         <v>41062</v>
       </c>
       <c r="C29" s="82">
@@ -1666,8 +1669,8 @@
       <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="82">
         <v>0.41666666666666669</v>
       </c>
@@ -1688,8 +1691,8 @@
       <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="82">
         <v>0.52777777777777779</v>
       </c>
@@ -1710,8 +1713,8 @@
       <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="94"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="82">
         <v>0.69097222222222221</v>
       </c>
@@ -1732,8 +1735,8 @@
       <c r="J32" s="84"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="95"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="82">
         <v>0.88541666666666663</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="J33" s="84"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="92">
         <v>41063</v>
       </c>
@@ -1778,7 +1781,7 @@
       <c r="J34" s="84"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="98"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1791,23 +1794,23 @@
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="3">
+      <c r="B36" s="94">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D36" s="4">
-        <v>0.99930555555555556</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E36" s="33">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1815,18 +1818,16 @@
       <c r="M36" s="27"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="3">
-        <v>41068</v>
-      </c>
-      <c r="C37" s="86" t="s">
-        <v>49</v>
+      <c r="A37" s="93"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="4">
+        <v>0.77083333333333337</v>
       </c>
       <c r="D37" s="4">
-        <v>0.15277777777777776</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E37" s="33">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>28</v>
@@ -1840,26 +1841,24 @@
       <c r="M37" s="27"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
-        <v>3</v>
-      </c>
-      <c r="B38" s="3">
-        <v>41069</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.53472222222222221</v>
+      <c r="A38" s="28"/>
+      <c r="B38" s="94">
+        <v>41068</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>49</v>
       </c>
       <c r="D38" s="4">
-        <v>0.11805555555555557</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="E38" s="33">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -1867,174 +1866,226 @@
       <c r="M38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E39" s="33">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="M39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E40" s="33">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="28">
+        <v>3</v>
+      </c>
       <c r="B41" s="3">
-        <v>41071</v>
+        <v>41069</v>
       </c>
       <c r="C41" s="4">
-        <v>0.59027777777777779</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="D41" s="4">
-        <v>0.61111111111111105</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="E41" s="33">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="9">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="94">
+        <v>41071</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E43" s="33">
+        <v>1.75</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="93"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E44" s="33">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="93"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E45" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="9">
         <v>41072</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C46" s="10">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D46" s="10">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E46" s="35">
         <v>3.5</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+      <c r="H46" s="5"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28">
         <v>4</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="M46" s="27"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="M47" s="27"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
-        <v>5</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="M48" s="27"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="M49" s="27"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2060,111 +2111,111 @@
       <c r="M51" s="27"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="A52" s="28">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="M52" s="27"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+      <c r="A53" s="28"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
         <v>6</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-    </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-    </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="M56" s="27"/>
-    </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="M57" s="27"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28">
-        <v>7</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="M58" s="27"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="M59" s="27"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2190,174 +2241,174 @@
       <c r="M61" s="27"/>
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="A62" s="28">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="M62" s="27"/>
     </row>
     <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28">
+      <c r="A63" s="28"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="M63" s="27"/>
+    </row>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="M64" s="27"/>
+    </row>
+    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="M65" s="27"/>
+    </row>
+    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
         <v>8</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-    </row>
-    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-    </row>
-    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-    </row>
-    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="M66" s="27"/>
-    </row>
-    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28">
+      <c r="A68" s="30"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+    </row>
+    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="M70" s="27"/>
+    </row>
+    <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="30"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="28">
         <v>9</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-    </row>
-    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-    </row>
-    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-    </row>
-    <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="M71" s="27"/>
-    </row>
-    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="M72" s="27"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28">
-        <v>10</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="M73" s="27"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="M74" s="27"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
     </row>
     <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2383,58 +2434,115 @@
       <c r="M76" s="27"/>
     </row>
     <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="A77" s="28">
+        <v>10</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="M77" s="27"/>
     </row>
     <row r="78" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28">
+      <c r="A78" s="28"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="M78" s="27"/>
+    </row>
+    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="M79" s="27"/>
+    </row>
+    <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="M80" s="27"/>
+    </row>
+    <row r="81" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="28">
         <v>11</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-    </row>
-    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-    </row>
-    <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+    </row>
+    <row r="84" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B43:B45"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A35"/>
@@ -2548,10 +2656,10 @@
       <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99">
+      <c r="A7" s="100">
         <v>1</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="103">
         <v>41052</v>
       </c>
       <c r="C7" s="58">
@@ -2578,8 +2686,8 @@
       <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="58">
         <v>0.51041666666666663</v>
       </c>
@@ -2604,8 +2712,8 @@
       <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="58">
         <v>0.5625</v>
       </c>
@@ -2632,8 +2740,8 @@
       <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="58">
         <v>0.59722222222222221</v>
       </c>
@@ -2660,7 +2768,7 @@
       <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="61">
         <v>41053</v>
       </c>
@@ -2688,7 +2796,7 @@
       <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="61">
         <v>41054</v>
       </c>
@@ -2716,7 +2824,7 @@
       <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="61"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -2732,10 +2840,10 @@
       <c r="M13" s="56"/>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99">
+      <c r="A14" s="100">
         <v>2</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="106">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -2759,8 +2867,8 @@
       <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="106"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -2781,8 +2889,8 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="58">
         <v>0.92708333333333337</v>
       </c>
@@ -2805,8 +2913,8 @@
       <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="105">
+      <c r="A17" s="101"/>
+      <c r="B17" s="106">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -2829,8 +2937,8 @@
       <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="106"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="58">
         <v>0.54861111111111105</v>
       </c>
@@ -2851,8 +2959,8 @@
       <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -2875,7 +2983,7 @@
       <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="91">
         <v>41061</v>
       </c>
@@ -2899,8 +3007,8 @@
       <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="105">
+      <c r="A21" s="101"/>
+      <c r="B21" s="106">
         <v>41063</v>
       </c>
       <c r="C21" s="81" t="s">
@@ -2923,8 +3031,8 @@
       <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="107"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -2945,7 +3053,7 @@
       <c r="J22" s="89"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="88">
         <v>41064</v>
       </c>
@@ -2969,7 +3077,7 @@
       <c r="J23" s="89"/>
     </row>
     <row r="24" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="101"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="77"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
@@ -2981,7 +3089,7 @@
       <c r="J24" s="80"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="99">
+      <c r="A25" s="100">
         <v>3</v>
       </c>
       <c r="B25" s="61">
@@ -3008,7 +3116,7 @@
       <c r="M25" s="56"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="61">
         <v>41067</v>
       </c>
@@ -3033,7 +3141,7 @@
       <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="61"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -3046,7 +3154,7 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="61"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -3059,7 +3167,7 @@
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="61"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -3072,7 +3180,7 @@
       <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="61"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -3085,7 +3193,7 @@
       <c r="M30" s="56"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="61"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -3098,7 +3206,7 @@
       <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="61"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -3111,7 +3219,7 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="61"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
   <si>
     <t>Week</t>
   </si>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -659,10 +659,16 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M84"/>
+  <dimension ref="A2:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B45"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1097,10 +1103,10 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97">
+      <c r="A7" s="99">
         <v>1</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="96">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1127,8 +1133,8 @@
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1153,8 +1159,8 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1181,8 +1187,8 @@
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="94">
+      <c r="A10" s="100"/>
+      <c r="B10" s="96">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1209,8 +1215,8 @@
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1235,8 +1241,8 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1263,8 +1269,8 @@
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="94">
+      <c r="A13" s="100"/>
+      <c r="B13" s="96">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1293,8 +1299,8 @@
       <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="95"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1321,8 +1327,8 @@
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1347,8 +1353,8 @@
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1370,8 +1376,8 @@
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1393,8 +1399,8 @@
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="94">
+      <c r="A18" s="100"/>
+      <c r="B18" s="96">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1418,8 +1424,8 @@
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1441,7 +1447,7 @@
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="3"/>
       <c r="C20" s="85"/>
       <c r="D20" s="44"/>
@@ -1454,10 +1460,10 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97">
+      <c r="A21" s="99">
         <v>2</v>
       </c>
-      <c r="B21" s="94">
+      <c r="B21" s="96">
         <v>41057</v>
       </c>
       <c r="C21" s="86" t="s">
@@ -1481,8 +1487,8 @@
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="95"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1504,8 +1510,8 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="95"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1527,7 +1533,7 @@
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1551,8 +1557,8 @@
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="94">
+      <c r="A25" s="100"/>
+      <c r="B25" s="96">
         <v>41059</v>
       </c>
       <c r="C25" s="82">
@@ -1575,8 +1581,8 @@
       <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="96"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="82">
         <v>0.57986111111111105</v>
       </c>
@@ -1599,8 +1605,8 @@
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="94">
+      <c r="A27" s="100"/>
+      <c r="B27" s="96">
         <v>41060</v>
       </c>
       <c r="C27" s="82">
@@ -1623,8 +1629,8 @@
       <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="96"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="82">
         <v>0.54166666666666663</v>
       </c>
@@ -1645,8 +1651,8 @@
       <c r="J28" s="84"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="94">
+      <c r="A29" s="100"/>
+      <c r="B29" s="96">
         <v>41062</v>
       </c>
       <c r="C29" s="82">
@@ -1669,8 +1675,8 @@
       <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="95"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="82">
         <v>0.41666666666666669</v>
       </c>
@@ -1691,8 +1697,8 @@
       <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="95"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="82">
         <v>0.52777777777777779</v>
       </c>
@@ -1713,8 +1719,8 @@
       <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="95"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="82">
         <v>0.69097222222222221</v>
       </c>
@@ -1735,8 +1741,8 @@
       <c r="J32" s="84"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98"/>
-      <c r="B33" s="96"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="82">
         <v>0.88541666666666663</v>
       </c>
@@ -1757,7 +1763,7 @@
       <c r="J33" s="84"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="92">
         <v>41063</v>
       </c>
@@ -1781,7 +1787,7 @@
       <c r="J34" s="84"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
-      <c r="B36" s="94">
+      <c r="B36" s="96">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1819,7 +1825,7 @@
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
-      <c r="B37" s="96"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1842,7 +1848,7 @@
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="B38" s="94">
+      <c r="B38" s="96">
         <v>41068</v>
       </c>
       <c r="C38" s="86" t="s">
@@ -1867,7 +1873,7 @@
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="93"/>
-      <c r="B39" s="95"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93"/>
-      <c r="B40" s="96"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -1953,7 +1959,7 @@
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
-      <c r="B43" s="94">
+      <c r="B43" s="96">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -1978,7 +1984,7 @@
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93"/>
-      <c r="B44" s="95"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2001,7 +2007,7 @@
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93"/>
-      <c r="B45" s="96"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2050,106 +2056,121 @@
       <c r="A47" s="28">
         <v>4</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="B47" s="94">
+        <v>41073</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E47" s="36">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="H47" s="15"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="40">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D48" s="40">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="E48" s="41">
+        <v>0</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>46</v>
+      </c>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
       <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="M50" s="27"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="M51" s="27"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
-        <v>5</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="M52" s="27"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="M53" s="27"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="M54" s="27"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
@@ -2165,54 +2186,58 @@
       <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
-        <v>6</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="M57" s="27"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="M58" s="27"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="M59" s="27"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -2228,58 +2253,54 @@
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="M61" s="27"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="M62" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="M63" s="27"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="M64" s="27"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
     </row>
     <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
@@ -2295,54 +2316,58 @@
       <c r="M65" s="27"/>
     </row>
     <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="M66" s="27"/>
     </row>
     <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
-        <v>8</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="M67" s="27"/>
     </row>
     <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="M68" s="27"/>
     </row>
     <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="M69" s="27"/>
     </row>
     <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
@@ -2371,7 +2396,7 @@
     </row>
     <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="13"/>
@@ -2421,58 +2446,54 @@
       <c r="M75" s="27"/>
     </row>
     <row r="76" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="M76" s="27"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
-        <v>10</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="M77" s="27"/>
+        <v>9</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
     </row>
     <row r="78" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="M78" s="27"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="M79" s="27"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
     </row>
     <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
@@ -2487,55 +2508,122 @@
       <c r="J80" s="5"/>
       <c r="M80" s="27"/>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+    <row r="81" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="M81" s="27"/>
+    </row>
+    <row r="82" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="M82" s="27"/>
+    </row>
+    <row r="83" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="M83" s="27"/>
+    </row>
+    <row r="84" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="M84" s="27"/>
+    </row>
+    <row r="85" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="M85" s="27"/>
+    </row>
+    <row r="86" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28">
         <v>11</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-    </row>
-    <row r="84" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+    </row>
+    <row r="88" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+    </row>
+    <row r="89" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
@@ -2656,10 +2744,10 @@
       <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100">
+      <c r="A7" s="102">
         <v>1</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="105">
         <v>41052</v>
       </c>
       <c r="C7" s="58">
@@ -2686,8 +2774,8 @@
       <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="58">
         <v>0.51041666666666663</v>
       </c>
@@ -2712,8 +2800,8 @@
       <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="58">
         <v>0.5625</v>
       </c>
@@ -2740,8 +2828,8 @@
       <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="58">
         <v>0.59722222222222221</v>
       </c>
@@ -2768,7 +2856,7 @@
       <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="61">
         <v>41053</v>
       </c>
@@ -2796,7 +2884,7 @@
       <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="61">
         <v>41054</v>
       </c>
@@ -2824,7 +2912,7 @@
       <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="61"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -2840,10 +2928,10 @@
       <c r="M13" s="56"/>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100">
+      <c r="A14" s="102">
         <v>2</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="108">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -2867,8 +2955,8 @@
       <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101"/>
-      <c r="B15" s="107"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -2889,8 +2977,8 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="58">
         <v>0.92708333333333337</v>
       </c>
@@ -2913,8 +3001,8 @@
       <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
-      <c r="B17" s="106">
+      <c r="A17" s="103"/>
+      <c r="B17" s="108">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -2937,8 +3025,8 @@
       <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="107"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="58">
         <v>0.54861111111111105</v>
       </c>
@@ -2959,8 +3047,8 @@
       <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="108"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -2983,7 +3071,7 @@
       <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="91">
         <v>41061</v>
       </c>
@@ -3007,8 +3095,8 @@
       <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="106">
+      <c r="A21" s="103"/>
+      <c r="B21" s="108">
         <v>41063</v>
       </c>
       <c r="C21" s="81" t="s">
@@ -3031,8 +3119,8 @@
       <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -3053,7 +3141,7 @@
       <c r="J22" s="89"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="88">
         <v>41064</v>
       </c>
@@ -3077,7 +3165,7 @@
       <c r="J23" s="89"/>
     </row>
     <row r="24" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="77"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
@@ -3089,7 +3177,7 @@
       <c r="J24" s="80"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100">
+      <c r="A25" s="102">
         <v>3</v>
       </c>
       <c r="B25" s="61">
@@ -3116,7 +3204,7 @@
       <c r="M25" s="56"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="61">
         <v>41067</v>
       </c>
@@ -3141,7 +3229,7 @@
       <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="61"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -3154,7 +3242,7 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="61"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -3167,7 +3255,7 @@
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="61"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -3180,7 +3268,7 @@
       <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="A30" s="103"/>
       <c r="B30" s="61"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -3193,7 +3281,7 @@
       <c r="M30" s="56"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
+      <c r="A31" s="103"/>
       <c r="B31" s="61"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -3206,7 +3294,7 @@
       <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="61"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -3219,7 +3307,7 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="61"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
   <si>
     <t>Week</t>
   </si>
@@ -225,6 +225,21 @@
   </si>
   <si>
     <t>References &amp; Analysis requirement</t>
+  </si>
+  <si>
+    <t>References SRS template of CMU</t>
+  </si>
+  <si>
+    <t>Make SRS</t>
+  </si>
+  <si>
+    <t>Make Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Read Use Case Diagram and Description of Son Dang</t>
+  </si>
+  <si>
+    <t>Mentor Meeting 18 &amp; 19 Jun</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -653,32 +668,26 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1008,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M89"/>
+  <dimension ref="A2:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1103,10 +1112,10 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99">
+      <c r="A7" s="94">
         <v>1</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="97">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1133,8 +1142,8 @@
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1159,8 +1168,8 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1187,8 +1196,8 @@
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="96">
+      <c r="A10" s="95"/>
+      <c r="B10" s="97">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1215,8 +1224,8 @@
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="98"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1241,8 +1250,8 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1269,8 +1278,8 @@
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="96">
+      <c r="A13" s="95"/>
+      <c r="B13" s="97">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1299,8 +1308,8 @@
       <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="98"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1327,8 +1336,8 @@
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1353,8 +1362,8 @@
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
-      <c r="B16" s="98"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1376,8 +1385,8 @@
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="97"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1399,8 +1408,8 @@
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="96">
+      <c r="A18" s="95"/>
+      <c r="B18" s="97">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1424,8 +1433,8 @@
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100"/>
-      <c r="B19" s="97"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1447,7 +1456,7 @@
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="3"/>
       <c r="C20" s="85"/>
       <c r="D20" s="44"/>
@@ -1460,10 +1469,10 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99">
+      <c r="A21" s="94">
         <v>2</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="97">
         <v>41057</v>
       </c>
       <c r="C21" s="86" t="s">
@@ -1487,8 +1496,8 @@
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1510,8 +1519,8 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1533,7 +1542,7 @@
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1557,8 +1566,8 @@
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="96">
+      <c r="A25" s="95"/>
+      <c r="B25" s="97">
         <v>41059</v>
       </c>
       <c r="C25" s="82">
@@ -1581,8 +1590,8 @@
       <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100"/>
-      <c r="B26" s="97"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="82">
         <v>0.57986111111111105</v>
       </c>
@@ -1605,8 +1614,8 @@
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="96">
+      <c r="A27" s="95"/>
+      <c r="B27" s="97">
         <v>41060</v>
       </c>
       <c r="C27" s="82">
@@ -1629,8 +1638,8 @@
       <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="97"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="82">
         <v>0.54166666666666663</v>
       </c>
@@ -1651,8 +1660,8 @@
       <c r="J28" s="84"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="96">
+      <c r="A29" s="95"/>
+      <c r="B29" s="97">
         <v>41062</v>
       </c>
       <c r="C29" s="82">
@@ -1675,8 +1684,8 @@
       <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="98"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="82">
         <v>0.41666666666666669</v>
       </c>
@@ -1697,8 +1706,8 @@
       <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="82">
         <v>0.52777777777777779</v>
       </c>
@@ -1719,8 +1728,8 @@
       <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="82">
         <v>0.69097222222222221</v>
       </c>
@@ -1741,8 +1750,8 @@
       <c r="J32" s="84"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="97"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="82">
         <v>0.88541666666666663</v>
       </c>
@@ -1763,7 +1772,7 @@
       <c r="J33" s="84"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="100"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="92">
         <v>41063</v>
       </c>
@@ -1787,7 +1796,7 @@
       <c r="J34" s="84"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1799,8 +1808,10 @@
       <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="96">
+      <c r="A36" s="94">
+        <v>3</v>
+      </c>
+      <c r="B36" s="97">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1824,8 +1835,8 @@
       <c r="M36" s="27"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="97"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1847,8 +1858,8 @@
       <c r="M37" s="27"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="96">
+      <c r="A38" s="95"/>
+      <c r="B38" s="97">
         <v>41068</v>
       </c>
       <c r="C38" s="86" t="s">
@@ -1872,8 +1883,8 @@
       <c r="M38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="98"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -1895,8 +1906,8 @@
       <c r="M39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="97"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -1918,9 +1929,7 @@
       <c r="M40" s="27"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>3</v>
-      </c>
+      <c r="A41" s="95"/>
       <c r="B41" s="3">
         <v>41069</v>
       </c>
@@ -1945,7 +1954,7 @@
       <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1958,8 +1967,10 @@
       <c r="M42" s="27"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="96">
+      <c r="A43" s="94">
+        <v>4</v>
+      </c>
+      <c r="B43" s="97">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -1983,8 +1994,8 @@
       <c r="M43" s="27"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2006,8 +2017,8 @@
       <c r="M44" s="27"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="97"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2029,7 +2040,7 @@
       <c r="M45" s="27"/>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="9">
         <v>41072</v>
       </c>
@@ -2053,10 +2064,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
-        <v>4</v>
-      </c>
-      <c r="B47" s="94">
+      <c r="A47" s="95"/>
+      <c r="B47" s="97">
         <v>41073</v>
       </c>
       <c r="C47" s="13">
@@ -2079,8 +2088,8 @@
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="95"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="40">
         <v>0.44791666666666669</v>
       </c>
@@ -2100,121 +2109,222 @@
       <c r="I48" s="42"/>
       <c r="J48" s="42"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
+    <row r="49" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="95"/>
+      <c r="B49" s="93">
+        <v>41075</v>
+      </c>
+      <c r="C49" s="82">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D49" s="82">
+        <v>0.25</v>
+      </c>
+      <c r="E49" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="84" t="s">
+        <v>68</v>
+      </c>
       <c r="H49" s="84"/>
       <c r="I49" s="84"/>
       <c r="J49" s="84"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
+    <row r="50" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="95"/>
+      <c r="B50" s="93">
+        <v>41076</v>
+      </c>
+      <c r="C50" s="82">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D50" s="82">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E50" s="83">
+        <v>4</v>
+      </c>
+      <c r="F50" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="84" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" s="84"/>
       <c r="I50" s="84"/>
       <c r="J50" s="84"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="97">
+        <v>41077</v>
+      </c>
+      <c r="C51" s="82">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D51" s="82">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E51" s="83">
+        <v>3.75</v>
+      </c>
+      <c r="F51" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="84" t="s">
+        <v>69</v>
+      </c>
       <c r="H51" s="84"/>
       <c r="I51" s="84"/>
       <c r="J51" s="84"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="82">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D52" s="82">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E52" s="83">
+        <v>4.5</v>
+      </c>
+      <c r="F52" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="84" t="s">
+        <v>70</v>
+      </c>
       <c r="H52" s="84"/>
       <c r="I52" s="84"/>
       <c r="J52" s="84"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-    </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="44">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D53" s="44">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E53" s="45">
+        <v>3</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="94">
+        <v>5</v>
+      </c>
+      <c r="B54" s="97">
+        <v>41078</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E54" s="33">
+        <v>3.25</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="M54" s="27"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="E55" s="33">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="97">
+        <v>41079</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E56" s="33">
+        <v>3</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28">
-        <v>5</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E57" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="M57" s="27"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -2227,7 +2337,7 @@
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2240,7 +2350,7 @@
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2253,57 +2363,59 @@
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="M61" s="27"/>
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
-        <v>6</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="M62" s="27"/>
     </row>
     <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="M63" s="27"/>
     </row>
     <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="M64" s="27"/>
     </row>
     <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
+      <c r="A65" s="95"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2316,7 +2428,7 @@
       <c r="M65" s="27"/>
     </row>
     <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
+      <c r="A66" s="96"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2329,9 +2441,7 @@
       <c r="M66" s="27"/>
     </row>
     <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28">
-        <v>7</v>
-      </c>
+      <c r="A67" s="28"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2344,93 +2454,95 @@
       <c r="M67" s="27"/>
     </row>
     <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="M68" s="27"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="M69" s="27"/>
+      <c r="A69" s="28">
+        <v>6</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="M70" s="27"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
     </row>
     <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28">
-        <v>8</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="M72" s="27"/>
     </row>
     <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="M73" s="27"/>
     </row>
     <row r="74" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
+      <c r="A74" s="28">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="M74" s="27"/>
     </row>
     <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
@@ -2446,85 +2558,83 @@
       <c r="M75" s="27"/>
     </row>
     <row r="76" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="M76" s="27"/>
     </row>
     <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28">
-        <v>9</v>
-      </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="M77" s="27"/>
     </row>
     <row r="78" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
+      <c r="A79" s="28">
+        <v>8</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
     </row>
     <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="M80" s="27"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="M81" s="27"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
     </row>
     <row r="82" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="28">
-        <v>10</v>
-      </c>
+      <c r="A82" s="28"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2537,97 +2647,189 @@
       <c r="M82" s="27"/>
     </row>
     <row r="83" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="M83" s="27"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="M84" s="27"/>
+      <c r="A84" s="28">
+        <v>9</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="M85" s="27"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
     </row>
     <row r="87" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28">
+      <c r="A87" s="28"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="M87" s="27"/>
+    </row>
+    <row r="88" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="28"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="M88" s="27"/>
+    </row>
+    <row r="89" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="28">
+        <v>10</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="M89" s="27"/>
+    </row>
+    <row r="90" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="M90" s="27"/>
+    </row>
+    <row r="91" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="29"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="M91" s="27"/>
+    </row>
+    <row r="92" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="28"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="M92" s="27"/>
+    </row>
+    <row r="93" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="30"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="28">
         <v>11</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-    </row>
-    <row r="89" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="30"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+    </row>
+    <row r="96" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="29"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="13">
+  <mergeCells count="20">
+    <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B43:B45"/>
@@ -2641,6 +2843,12 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2744,10 +2952,10 @@
       <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102">
+      <c r="A7" s="100">
         <v>1</v>
       </c>
-      <c r="B7" s="105">
+      <c r="B7" s="103">
         <v>41052</v>
       </c>
       <c r="C7" s="58">
@@ -2774,8 +2982,8 @@
       <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="106"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="58">
         <v>0.51041666666666663</v>
       </c>
@@ -2800,8 +3008,8 @@
       <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="106"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="58">
         <v>0.5625</v>
       </c>
@@ -2828,8 +3036,8 @@
       <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="107"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="58">
         <v>0.59722222222222221</v>
       </c>
@@ -2856,7 +3064,7 @@
       <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="61">
         <v>41053</v>
       </c>
@@ -2884,7 +3092,7 @@
       <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="61">
         <v>41054</v>
       </c>
@@ -2912,7 +3120,7 @@
       <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="61"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -2928,10 +3136,10 @@
       <c r="M13" s="56"/>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102">
+      <c r="A14" s="100">
         <v>2</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="106">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -2955,8 +3163,8 @@
       <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -2977,8 +3185,8 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="58">
         <v>0.92708333333333337</v>
       </c>
@@ -3001,8 +3209,8 @@
       <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="108">
+      <c r="A17" s="101"/>
+      <c r="B17" s="106">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -3025,8 +3233,8 @@
       <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="109"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="58">
         <v>0.54861111111111105</v>
       </c>
@@ -3047,8 +3255,8 @@
       <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -3071,7 +3279,7 @@
       <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="91">
         <v>41061</v>
       </c>
@@ -3095,8 +3303,8 @@
       <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="108">
+      <c r="A21" s="101"/>
+      <c r="B21" s="106">
         <v>41063</v>
       </c>
       <c r="C21" s="81" t="s">
@@ -3119,8 +3327,8 @@
       <c r="J21" s="89"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="110"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -3141,7 +3349,7 @@
       <c r="J22" s="89"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="88">
         <v>41064</v>
       </c>
@@ -3165,7 +3373,7 @@
       <c r="J23" s="89"/>
     </row>
     <row r="24" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="77"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
@@ -3177,7 +3385,7 @@
       <c r="J24" s="80"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="102">
+      <c r="A25" s="100">
         <v>3</v>
       </c>
       <c r="B25" s="61">
@@ -3204,7 +3412,7 @@
       <c r="M25" s="56"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="61">
         <v>41067</v>
       </c>
@@ -3229,7 +3437,7 @@
       <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="61"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -3242,7 +3450,7 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="61"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -3255,7 +3463,7 @@
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="61"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -3268,7 +3476,7 @@
       <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="61"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -3281,7 +3489,7 @@
       <c r="M30" s="56"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="61"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -3294,7 +3502,7 @@
       <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="61"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -3307,7 +3515,7 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="61"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="83">
   <si>
     <t>Week</t>
   </si>
@@ -240,6 +240,37 @@
   </si>
   <si>
     <t>Mentor Meeting 18 &amp; 19 Jun</t>
+  </si>
+  <si>
+    <t>Mentor Meeting: Review SRS &amp; GUI</t>
+  </si>
+  <si>
+    <t>Make List Function v0.4 for Son Dang review</t>
+  </si>
+  <si>
+    <t>Make List Function v0.5</t>
+  </si>
+  <si>
+    <t>Make Use Case Diagram v1.0 (continue)</t>
+  </si>
+  <si>
+    <t>Analysize GUI v1.3 of Son Dang and update Use Case Diagram v1.1</t>
+  </si>
+  <si>
+    <t>Make GUI v2.0</t>
+  </si>
+  <si>
+    <t>Make GUI v2.1, v2.2
+Assign makes Use Case Description for Tin Nguyen, Toan Dang, Huyen Le (UC1,4,5,6,7 of UCD v1.1)</t>
+  </si>
+  <si>
+    <t>Make GUI v2.3 (not complete)</t>
+  </si>
+  <si>
+    <t>Make Use Case Diagram v1.0 (not complete)</t>
+  </si>
+  <si>
+    <t>References another software (statistic and report function)</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M96"/>
+  <dimension ref="A2:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1062,7 @@
     <col min="4" max="4" width="10.42578125" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="32"/>
     <col min="6" max="6" width="9.140625" style="23"/>
-    <col min="7" max="7" width="26.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="23" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="23" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="23" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="23" customWidth="1"/>
@@ -2325,12 +2356,24 @@
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="95"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="B58" s="97">
+        <v>41080</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E58" s="33">
+        <v>3.75</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2338,12 +2381,22 @@
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="95"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="4">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E59" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -2351,12 +2404,24 @@
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="95"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="B60" s="97">
+        <v>41081</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="E60" s="33">
+        <v>4</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -2364,12 +2429,22 @@
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="95"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E61" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -2377,25 +2452,45 @@
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="95"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E62" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="M62" s="27"/>
     </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="95"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="E63" s="33">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -2403,108 +2498,174 @@
     </row>
     <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="95"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="4">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E64" s="33">
+        <v>4.25</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="M64" s="27"/>
     </row>
-    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="95"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="E65" s="33">
+        <v>2</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="M65" s="27"/>
     </row>
-    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="96"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
+    <row r="66" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="95"/>
+      <c r="B66" s="97">
+        <v>41082</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E66" s="33">
+        <v>6.75</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="M66" s="27"/>
     </row>
-    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+    <row r="67" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="95"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E67" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="M67" s="27"/>
     </row>
-    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+    <row r="68" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="95"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="4">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="E68" s="33">
+        <v>5.25</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28">
-        <v>6</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-    </row>
-    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-    </row>
-    <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-    </row>
-    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="M68" s="27"/>
+    </row>
+    <row r="69" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="95"/>
+      <c r="B69" s="3">
+        <v>41083</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="E69" s="33">
+        <v>1.75</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="M69" s="27"/>
+    </row>
+    <row r="70" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="95"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="M70" s="27"/>
+    </row>
+    <row r="71" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="95"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="M71" s="27"/>
+    </row>
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="95"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2517,7 +2678,7 @@
       <c r="M72" s="27"/>
     </row>
     <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
+      <c r="A73" s="96"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2530,9 +2691,7 @@
       <c r="M73" s="27"/>
     </row>
     <row r="74" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28">
-        <v>7</v>
-      </c>
+      <c r="A74" s="28"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2545,93 +2704,95 @@
       <c r="M74" s="27"/>
     </row>
     <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="M75" s="27"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="M76" s="27"/>
+      <c r="A76" s="28">
+        <v>6</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="M77" s="27"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
     </row>
     <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28">
-        <v>8</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="M79" s="27"/>
     </row>
     <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="M80" s="27"/>
     </row>
     <row r="81" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
+      <c r="A81" s="28">
+        <v>7</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="M81" s="27"/>
     </row>
     <row r="82" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
@@ -2647,85 +2808,83 @@
       <c r="M82" s="27"/>
     </row>
     <row r="83" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="M83" s="27"/>
     </row>
     <row r="84" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28">
-        <v>9</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="M84" s="27"/>
     </row>
     <row r="85" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
+      <c r="A86" s="28">
+        <v>8</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="M87" s="27"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="M88" s="27"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
     </row>
     <row r="89" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="28">
-        <v>10</v>
-      </c>
+      <c r="A89" s="28"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2738,97 +2897,197 @@
       <c r="M89" s="27"/>
     </row>
     <row r="90" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="M90" s="27"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="M91" s="27"/>
+      <c r="A91" s="28">
+        <v>9</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="M92" s="27"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
     </row>
     <row r="94" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="28">
+      <c r="A94" s="28"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="M94" s="27"/>
+    </row>
+    <row r="95" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="28"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="M95" s="27"/>
+    </row>
+    <row r="96" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="28">
+        <v>10</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="M96" s="27"/>
+    </row>
+    <row r="97" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="28"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="M97" s="27"/>
+    </row>
+    <row r="98" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="29"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="M98" s="27"/>
+    </row>
+    <row r="99" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="28"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="M99" s="27"/>
+    </row>
+    <row r="100" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="30"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="28">
         <v>11</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-    </row>
-    <row r="95" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-    </row>
-    <row r="96" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="30"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+    </row>
+    <row r="103" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="29"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:B68"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B40"/>
@@ -2843,12 +3102,6 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEP!$A$6:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEP!$A$6:$H$6</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">SEP!#REF!</definedName>
     <definedName name="OLE_LINK3" localSheetId="0">SEP!$A$6</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
   <si>
     <t>Week</t>
   </si>
@@ -271,6 +271,39 @@
   </si>
   <si>
     <t>References another software (statistic and report function)</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Make Module view (combine Layer + Decomposition + Use view)</t>
+  </si>
+  <si>
+    <t>Class Diagram v1.1</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Make GUI</t>
+  </si>
+  <si>
+    <t>MRBS-SourceCode v4.2</t>
+  </si>
+  <si>
+    <t>Estimate works</t>
+  </si>
+  <si>
+    <t>MRBS-SourceCode v4.0</t>
+  </si>
+  <si>
+    <t>Make Class Diagram</t>
+  </si>
+  <si>
+    <t>Make Sequence Diagram</t>
   </si>
 </sst>
 </file>
@@ -441,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -609,9 +642,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -687,9 +717,6 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -746,6 +773,27 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M103"/>
+  <dimension ref="A2:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1064,26 +1112,25 @@
     <col min="6" max="6" width="9.140625" style="23"/>
     <col min="7" max="7" width="37.28515625" style="23" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="23"/>
-    <col min="12" max="12" width="26" style="23" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="23"/>
+    <col min="9" max="9" width="8.28515625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="26" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" s="24"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -1096,17 +1143,19 @@
       <c r="G4" s="31">
         <v>41050</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="108"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26"/>
+      <c r="K5" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="L5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1132,21 +1181,18 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94">
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
         <v>1</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="95">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1165,16 +1211,16 @@
         <v>20</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="L7" s="23" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="99"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="93"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1191,16 +1237,16 @@
         <v>46</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="L8" s="23" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="98"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1219,16 +1265,16 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="23" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="27"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="97">
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="93"/>
+      <c r="B10" s="95">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1247,16 +1293,16 @@
         <v>20</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="L10" s="23" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="27"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="99"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="93"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1273,16 +1319,16 @@
         <v>46</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="L11" s="23" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="98"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="93"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1301,16 +1347,16 @@
       <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="L12" s="23" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="97">
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="95">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1331,16 +1377,16 @@
       <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="L13" s="23" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="99"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="93"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1359,16 +1405,16 @@
       <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="L14" s="23" t="s">
+      <c r="I14" s="33"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="99"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="93"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1385,16 +1431,16 @@
         <v>20</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="L15" s="23" t="s">
+      <c r="I15" s="33"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="99"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="93"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1411,13 +1457,13 @@
         <v>50</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="98"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="107"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="93"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1434,13 +1480,13 @@
         <v>45</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="M17" s="27"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="97">
+      <c r="I17" s="33"/>
+      <c r="J17" s="107"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="93"/>
+      <c r="B18" s="95">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1459,13 +1505,13 @@
         <v>46</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="98"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="107"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="93"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1482,31 +1528,31 @@
         <v>20</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="M19" s="27"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="107"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="85"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="44"/>
       <c r="E20" s="45"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="M20" s="27"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94">
+      <c r="I20" s="33"/>
+      <c r="J20" s="107"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92">
         <v>2</v>
       </c>
-      <c r="B21" s="97">
+      <c r="B21" s="95">
         <v>41057</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="85" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="10">
@@ -1522,13 +1568,13 @@
         <v>48</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="M21" s="27"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="99"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="107"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1545,13 +1591,13 @@
         <v>51</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="99"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="107"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="93"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1568,12 +1614,12 @@
         <v>52</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="M23" s="27"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="107"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="93"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1593,241 +1639,241 @@
         <v>20</v>
       </c>
       <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="97">
+      <c r="I24" s="41"/>
+      <c r="J24" s="107"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="93"/>
+      <c r="B25" s="95">
         <v>41059</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="81">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="81">
         <v>0.26319444444444445</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="82">
         <v>0</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="82">
+      <c r="H25" s="83"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="107"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="93"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="81">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="81">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="82">
         <v>1</v>
       </c>
-      <c r="F26" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="90" t="s">
+      <c r="F26" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="88" t="s">
         <v>57</v>
       </c>
       <c r="H26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="97">
+      <c r="I26" s="45"/>
+      <c r="J26" s="107"/>
+    </row>
+    <row r="27" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="93"/>
+      <c r="B27" s="95">
         <v>41060</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="81">
         <v>0.40625</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="81">
         <v>0.46875</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="82">
         <v>1.5</v>
       </c>
-      <c r="F27" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="84" t="s">
+      <c r="F27" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="82">
+      <c r="H27" s="83"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="107"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="93"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="81">
         <v>0.54513888888888895</v>
       </c>
-      <c r="E28" s="83">
+      <c r="E28" s="82">
         <v>0</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="97">
+      <c r="H28" s="83"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="107"/>
+    </row>
+    <row r="29" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="95">
         <v>41062</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="81">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="81">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="82">
         <v>0.5</v>
       </c>
-      <c r="F29" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="84" t="s">
+      <c r="F29" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="82">
+      <c r="H29" s="83"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="107"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="93"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="81">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="81">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="82">
         <v>1</v>
       </c>
-      <c r="F30" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="84" t="s">
+      <c r="F30" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="82">
+      <c r="H30" s="83"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="107"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="93"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="81">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="81">
         <v>0.13194444444444445</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="82">
         <v>2.5</v>
       </c>
-      <c r="F31" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="84" t="s">
+      <c r="F31" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-    </row>
-    <row r="32" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="82">
+      <c r="H31" s="83"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="107"/>
+    </row>
+    <row r="32" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="93"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="81">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="81">
         <v>0.20138888888888887</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="82">
         <v>0.25</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="G32" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="82">
+      <c r="H32" s="83"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="107"/>
+    </row>
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="93"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="81">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="81">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="82">
         <v>2.75</v>
       </c>
-      <c r="F33" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="84" t="s">
+      <c r="F33" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="92">
+      <c r="H33" s="83"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="107"/>
+    </row>
+    <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="93"/>
+      <c r="B34" s="90">
         <v>41063</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="81">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="81">
         <v>0.9375</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>1</v>
       </c>
-      <c r="F34" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="84" t="s">
+      <c r="F34" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="107"/>
+    </row>
+    <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="94"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1835,14 +1881,14 @@
       <c r="F35" s="46"/>
       <c r="G35" s="46"/>
       <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94">
+      <c r="I35" s="45"/>
+      <c r="J35" s="107"/>
+    </row>
+    <row r="36" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="92">
         <v>3</v>
       </c>
-      <c r="B36" s="97">
+      <c r="B36" s="95">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1861,13 +1907,13 @@
         <v>20</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="M36" s="27"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95"/>
-      <c r="B37" s="98"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="107"/>
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="93"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1884,16 +1930,16 @@
         <v>64</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="97">
+      <c r="I37" s="33"/>
+      <c r="J37" s="107"/>
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="93"/>
+      <c r="B38" s="95">
         <v>41068</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="85" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="4">
@@ -1909,13 +1955,13 @@
         <v>64</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="99"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="107"/>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="93"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -1932,13 +1978,13 @@
         <v>20</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="M39" s="27"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="98"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="107"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="93"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -1955,12 +2001,12 @@
         <v>46</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="M40" s="27"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="107"/>
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="93"/>
       <c r="B41" s="3">
         <v>41069</v>
       </c>
@@ -1980,12 +2026,12 @@
         <v>65</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="107"/>
+      <c r="L41" s="27"/>
+    </row>
+    <row r="42" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="94"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1993,15 +2039,15 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="M42" s="27"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94">
+      <c r="I42" s="33"/>
+      <c r="J42" s="107"/>
+      <c r="L42" s="27"/>
+    </row>
+    <row r="43" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="92">
         <v>4</v>
       </c>
-      <c r="B43" s="97">
+      <c r="B43" s="95">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -2020,13 +2066,13 @@
         <v>20</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="M43" s="27"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
-      <c r="B44" s="99"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="107"/>
+      <c r="L43" s="27"/>
+    </row>
+    <row r="44" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="93"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2043,13 +2089,13 @@
         <v>46</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="M44" s="27"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="98"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="107"/>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="93"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2066,12 +2112,12 @@
         <v>66</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="107"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="93"/>
       <c r="B46" s="9">
         <v>41072</v>
       </c>
@@ -2091,12 +2137,12 @@
         <v>67</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="97">
+      <c r="I46" s="33"/>
+      <c r="J46" s="107"/>
+    </row>
+    <row r="47" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="93"/>
+      <c r="B47" s="95">
         <v>41073</v>
       </c>
       <c r="C47" s="13">
@@ -2115,12 +2161,12 @@
         <v>20</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="98"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="107"/>
+    </row>
+    <row r="48" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="93"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="40">
         <v>0.44791666666666669</v>
       </c>
@@ -2137,106 +2183,106 @@
         <v>46</v>
       </c>
       <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-    </row>
-    <row r="49" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="93">
+      <c r="I48" s="41"/>
+      <c r="J48" s="107"/>
+    </row>
+    <row r="49" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="93"/>
+      <c r="B49" s="91">
         <v>41075</v>
       </c>
-      <c r="C49" s="82">
+      <c r="C49" s="81">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D49" s="82">
+      <c r="D49" s="81">
         <v>0.25</v>
       </c>
-      <c r="E49" s="83">
+      <c r="E49" s="82">
         <v>2.5</v>
       </c>
-      <c r="F49" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="84" t="s">
+      <c r="F49" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-    </row>
-    <row r="50" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="93">
+      <c r="H49" s="83"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="107"/>
+    </row>
+    <row r="50" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="93"/>
+      <c r="B50" s="91">
         <v>41076</v>
       </c>
-      <c r="C50" s="82">
+      <c r="C50" s="81">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D50" s="82">
+      <c r="D50" s="81">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E50" s="83">
+      <c r="E50" s="82">
         <v>4</v>
       </c>
-      <c r="F50" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="84" t="s">
+      <c r="F50" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-    </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
-      <c r="B51" s="97">
+      <c r="H50" s="83"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="107"/>
+    </row>
+    <row r="51" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="93"/>
+      <c r="B51" s="95">
         <v>41077</v>
       </c>
-      <c r="C51" s="82">
+      <c r="C51" s="81">
         <v>0.30208333333333331</v>
       </c>
-      <c r="D51" s="82">
+      <c r="D51" s="81">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E51" s="83">
+      <c r="E51" s="82">
         <v>3.75</v>
       </c>
-      <c r="F51" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="84" t="s">
+      <c r="F51" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-    </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="82">
+      <c r="H51" s="83"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="107"/>
+    </row>
+    <row r="52" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="93"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="81">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D52" s="82">
+      <c r="D52" s="81">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E52" s="83">
+      <c r="E52" s="82">
         <v>4.5</v>
       </c>
-      <c r="F52" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="84" t="s">
+      <c r="F52" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-    </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="96"/>
-      <c r="B53" s="98"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="107"/>
+    </row>
+    <row r="53" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="94"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="44">
         <v>0.35416666666666669</v>
       </c>
@@ -2253,14 +2299,14 @@
         <v>69</v>
       </c>
       <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-    </row>
-    <row r="54" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="94">
+      <c r="I53" s="45"/>
+      <c r="J53" s="107"/>
+    </row>
+    <row r="54" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="92">
         <v>5</v>
       </c>
-      <c r="B54" s="97">
+      <c r="B54" s="95">
         <v>41078</v>
       </c>
       <c r="C54" s="4">
@@ -2279,13 +2325,13 @@
         <v>71</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="98"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="107"/>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="93"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="4">
         <v>0.375</v>
       </c>
@@ -2302,13 +2348,13 @@
         <v>51</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="M55" s="27"/>
-    </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="97">
+      <c r="I55" s="33"/>
+      <c r="J55" s="107"/>
+      <c r="L55" s="27"/>
+    </row>
+    <row r="56" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="93"/>
+      <c r="B56" s="95">
         <v>41079</v>
       </c>
       <c r="C56" s="4">
@@ -2327,13 +2373,13 @@
         <v>51</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="M56" s="27"/>
-    </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="98"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="107"/>
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="93"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="4">
         <v>0.55208333333333337</v>
       </c>
@@ -2350,13 +2396,13 @@
         <v>72</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="97">
+      <c r="I57" s="33"/>
+      <c r="J57" s="107"/>
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="93"/>
+      <c r="B58" s="95">
         <v>41080</v>
       </c>
       <c r="C58" s="4">
@@ -2375,13 +2421,13 @@
         <v>73</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="M58" s="27"/>
-    </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="98"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="107"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="93"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -2398,13 +2444,13 @@
         <v>52</v>
       </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="M59" s="27"/>
-    </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="97">
+      <c r="I59" s="33"/>
+      <c r="J59" s="107"/>
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="93"/>
+      <c r="B60" s="95">
         <v>41081</v>
       </c>
       <c r="C60" s="4">
@@ -2423,13 +2469,13 @@
         <v>48</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="M60" s="27"/>
-    </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="99"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="107"/>
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="93"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2446,13 +2492,13 @@
         <v>74</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="M61" s="27"/>
-    </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="99"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="107"/>
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="93"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="4">
         <v>0.5625</v>
       </c>
@@ -2469,13 +2515,13 @@
         <v>75</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="M62" s="27"/>
-    </row>
-    <row r="63" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="99"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="107"/>
+      <c r="L62" s="27"/>
+    </row>
+    <row r="63" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="93"/>
+      <c r="B63" s="97"/>
       <c r="C63" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2492,13 +2538,13 @@
         <v>81</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="M63" s="27"/>
-    </row>
-    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="99"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="107"/>
+      <c r="L63" s="27"/>
+    </row>
+    <row r="64" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="93"/>
+      <c r="B64" s="97"/>
       <c r="C64" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -2515,13 +2561,13 @@
         <v>76</v>
       </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="M64" s="27"/>
-    </row>
-    <row r="65" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="95"/>
-      <c r="B65" s="98"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="107"/>
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="93"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="4">
         <v>0.90625</v>
       </c>
@@ -2538,13 +2584,13 @@
         <v>77</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="M65" s="27"/>
-    </row>
-    <row r="66" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
-      <c r="B66" s="97">
+      <c r="I65" s="33"/>
+      <c r="J65" s="107"/>
+      <c r="L65" s="27"/>
+    </row>
+    <row r="66" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="93"/>
+      <c r="B66" s="95">
         <v>41082</v>
       </c>
       <c r="C66" s="4">
@@ -2563,13 +2609,13 @@
         <v>78</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="M66" s="27"/>
-    </row>
-    <row r="67" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
-      <c r="B67" s="99"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="107"/>
+      <c r="L66" s="27"/>
+    </row>
+    <row r="67" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="93"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -2586,13 +2632,13 @@
         <v>79</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="M67" s="27"/>
-    </row>
-    <row r="68" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
-      <c r="B68" s="98"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="107"/>
+      <c r="L67" s="27"/>
+    </row>
+    <row r="68" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="93"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="4">
         <v>0.74652777777777779</v>
       </c>
@@ -2609,12 +2655,12 @@
         <v>80</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="M68" s="27"/>
-    </row>
-    <row r="69" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="107"/>
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="93"/>
       <c r="B69" s="3">
         <v>41083</v>
       </c>
@@ -2634,12 +2680,12 @@
         <v>82</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="M69" s="27"/>
-    </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="107"/>
+      <c r="L69" s="27"/>
+    </row>
+    <row r="70" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="93"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2647,12 +2693,12 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="M70" s="27"/>
-    </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="95"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="107"/>
+      <c r="L70" s="27"/>
+    </row>
+    <row r="71" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="93"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2660,12 +2706,12 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="M71" s="27"/>
-    </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="95"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="107"/>
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="93"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2673,12 +2719,12 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="M72" s="27"/>
-    </row>
-    <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="96"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="107"/>
+      <c r="L72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="94"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2686,11 +2732,11 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="M73" s="27"/>
-    </row>
-    <row r="74" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="33"/>
+      <c r="J73" s="107"/>
+      <c r="L73" s="27"/>
+    </row>
+    <row r="74" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -2699,11 +2745,11 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="M74" s="27"/>
-    </row>
-    <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="33"/>
+      <c r="J74" s="107"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -2712,10 +2758,10 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-    </row>
-    <row r="76" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="33"/>
+      <c r="J75" s="107"/>
+    </row>
+    <row r="76" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>6</v>
       </c>
@@ -2726,10 +2772,10 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-    </row>
-    <row r="77" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="109"/>
+      <c r="J76" s="107"/>
+    </row>
+    <row r="77" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="39"/>
       <c r="C77" s="40"/>
@@ -2738,10 +2784,10 @@
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
       <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-    </row>
-    <row r="78" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="41"/>
+      <c r="J77" s="107"/>
+    </row>
+    <row r="78" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
@@ -2750,10 +2796,10 @@
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
       <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-    </row>
-    <row r="79" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="45"/>
+      <c r="J78" s="107"/>
+    </row>
+    <row r="79" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -2762,11 +2808,11 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="M79" s="27"/>
-    </row>
-    <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="33"/>
+      <c r="J79" s="107"/>
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -2775,11 +2821,11 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="M80" s="27"/>
-    </row>
-    <row r="81" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="33"/>
+      <c r="J80" s="107"/>
+      <c r="L80" s="27"/>
+    </row>
+    <row r="81" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>7</v>
       </c>
@@ -2790,11 +2836,11 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="M81" s="27"/>
-    </row>
-    <row r="82" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="33"/>
+      <c r="J81" s="107"/>
+      <c r="L81" s="27"/>
+    </row>
+    <row r="82" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -2803,151 +2849,285 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="M82" s="27"/>
-    </row>
-    <row r="83" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="33"/>
+      <c r="J82" s="107"/>
+      <c r="L82" s="27"/>
+    </row>
+    <row r="83" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="B83" s="110">
+        <v>41098</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="E83" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="M83" s="27"/>
-    </row>
-    <row r="84" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="107"/>
+      <c r="L83" s="27"/>
+    </row>
+    <row r="84" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="93">
+        <v>8</v>
+      </c>
+      <c r="B84" s="111">
+        <v>41099</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E84" s="33">
+        <v>2.25</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="M84" s="27"/>
-    </row>
-    <row r="85" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="107"/>
+      <c r="L84" s="27"/>
+    </row>
+    <row r="85" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="93"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="4">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E85" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-    </row>
-    <row r="86" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28">
-        <v>8</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-    </row>
-    <row r="87" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-    </row>
-    <row r="88" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-    </row>
-    <row r="89" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="107"/>
+      <c r="L85" s="27"/>
+    </row>
+    <row r="86" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="93"/>
+      <c r="B86" s="113"/>
+      <c r="C86" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E86" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="107"/>
+      <c r="L86" s="27"/>
+    </row>
+    <row r="87" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="93"/>
+      <c r="B87" s="111">
+        <v>41100</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E87" s="33">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="107"/>
+      <c r="L87" s="27"/>
+    </row>
+    <row r="88" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="93"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.84375</v>
+      </c>
+      <c r="E88" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="107"/>
+      <c r="L88" s="27"/>
+    </row>
+    <row r="89" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="93"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="E89" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="M89" s="27"/>
-    </row>
-    <row r="90" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-    </row>
-    <row r="91" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="28">
-        <v>9</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-    </row>
-    <row r="93" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-    </row>
-    <row r="94" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="107"/>
+      <c r="L89" s="27"/>
+    </row>
+    <row r="90" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="93"/>
+      <c r="B90" s="111">
+        <v>41101</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E90" s="33">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I90" s="33"/>
+      <c r="J90" s="107"/>
+      <c r="L90" s="27"/>
+    </row>
+    <row r="91" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="93"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E91" s="33">
+        <v>2</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="107"/>
+      <c r="L91" s="27"/>
+    </row>
+    <row r="92" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="93"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E92" s="33">
+        <v>3.25</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I92" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J92" s="107"/>
+      <c r="L92" s="27"/>
+    </row>
+    <row r="93" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="93"/>
+      <c r="B93" s="113"/>
+      <c r="C93" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="E93" s="33">
+        <v>2.75</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J93" s="107"/>
+      <c r="L93" s="27"/>
+    </row>
+    <row r="94" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="93"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2955,12 +3135,12 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="M94" s="27"/>
-    </row>
-    <row r="95" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="107"/>
+      <c r="L94" s="27"/>
+    </row>
+    <row r="95" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="93"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2968,14 +3148,12 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="M95" s="27"/>
-    </row>
-    <row r="96" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28">
-        <v>10</v>
-      </c>
+      <c r="I95" s="33"/>
+      <c r="J95" s="107"/>
+      <c r="L95" s="27"/>
+    </row>
+    <row r="96" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="93"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -2983,12 +3161,12 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="M96" s="27"/>
-    </row>
-    <row r="97" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="107"/>
+      <c r="L96" s="27"/>
+    </row>
+    <row r="97" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="93"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -2996,12 +3174,12 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="M97" s="27"/>
-    </row>
-    <row r="98" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="107"/>
+      <c r="L97" s="27"/>
+    </row>
+    <row r="98" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="93"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3009,85 +3187,258 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="M98" s="27"/>
-    </row>
-    <row r="99" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="107"/>
+      <c r="L98" s="27"/>
+    </row>
+    <row r="99" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="93"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="M99" s="27"/>
-    </row>
-    <row r="100" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-    </row>
-    <row r="101" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="28">
+      <c r="I99" s="33"/>
+      <c r="J99" s="107"/>
+    </row>
+    <row r="100" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="93"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="107"/>
+    </row>
+    <row r="101" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="93"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="107"/>
+    </row>
+    <row r="102" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="94"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="107"/>
+    </row>
+    <row r="103" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="28"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="107"/>
+      <c r="L103" s="27"/>
+    </row>
+    <row r="104" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="107"/>
+    </row>
+    <row r="105" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="28">
+        <v>9</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="109"/>
+      <c r="J105" s="107"/>
+    </row>
+    <row r="106" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="30"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="107"/>
+    </row>
+    <row r="107" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="29"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="107"/>
+    </row>
+    <row r="108" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="107"/>
+      <c r="L108" s="27"/>
+    </row>
+    <row r="109" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="28"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="107"/>
+      <c r="L109" s="27"/>
+    </row>
+    <row r="110" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="28">
+        <v>10</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="107"/>
+      <c r="L110" s="27"/>
+    </row>
+    <row r="111" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="28"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="107"/>
+      <c r="L111" s="27"/>
+    </row>
+    <row r="112" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="29"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="107"/>
+      <c r="L112" s="27"/>
+    </row>
+    <row r="113" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="28"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="107"/>
+      <c r="L113" s="27"/>
+    </row>
+    <row r="114" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="30"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="107"/>
+    </row>
+    <row r="115" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="28">
         <v>11</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-    </row>
-    <row r="103" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="46"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="109"/>
+      <c r="J115" s="107"/>
+    </row>
+    <row r="116" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="30"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="107"/>
+    </row>
+    <row r="117" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="29"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J6"/>
-  <mergeCells count="23">
-    <mergeCell ref="A54:A73"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B66:B68"/>
+  <autoFilter ref="A6:H6"/>
+  <mergeCells count="27">
+    <mergeCell ref="A84:A102"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B40"/>
@@ -3102,6 +3453,15 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3110,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M73"/>
+  <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3126,26 +3486,24 @@
     <col min="6" max="6" width="9.140625" style="48"/>
     <col min="7" max="7" width="30.28515625" style="48" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="48"/>
-    <col min="12" max="12" width="26" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="48"/>
+    <col min="9" max="9" width="9.140625" style="48"/>
+    <col min="10" max="10" width="26" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" s="49"/>
-      <c r="L3" s="51" t="s">
+      <c r="J3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
@@ -3159,16 +3517,16 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="53"/>
-      <c r="L5" s="49" t="s">
+      <c r="J5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>0</v>
       </c>
@@ -3193,22 +3551,16 @@
       <c r="H6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="48" t="s">
+      <c r="J6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100">
+      <c r="K6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="98">
         <v>1</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="101">
         <v>41052</v>
       </c>
       <c r="C7" s="58">
@@ -3227,16 +3579,14 @@
         <v>20</v>
       </c>
       <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="L7" s="48" t="s">
+      <c r="J7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="104"/>
+      <c r="K7" s="56"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="99"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="58">
         <v>0.51041666666666663</v>
       </c>
@@ -3253,16 +3603,14 @@
         <v>46</v>
       </c>
       <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="L8" s="48" t="s">
+      <c r="J8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="56"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="104"/>
+      <c r="K8" s="56"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="99"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="58">
         <v>0.5625</v>
       </c>
@@ -3281,16 +3629,14 @@
       <c r="H9" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="L9" s="48" t="s">
+      <c r="J9" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="56"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="105"/>
+      <c r="K9" s="56"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="99"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="58">
         <v>0.59722222222222221</v>
       </c>
@@ -3309,15 +3655,13 @@
       <c r="H10" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="L10" s="48" t="s">
+      <c r="J10" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="56"/>
-    </row>
-    <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
+      <c r="K10" s="56"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99"/>
       <c r="B11" s="61">
         <v>41053</v>
       </c>
@@ -3337,19 +3681,17 @@
         <v>48</v>
       </c>
       <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="L11" s="48" t="s">
+      <c r="J11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="56"/>
-    </row>
-    <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
+      <c r="K11" s="56"/>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99"/>
       <c r="B12" s="61">
         <v>41054</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="80" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="58">
@@ -3365,15 +3707,13 @@
         <v>48</v>
       </c>
       <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="L12" s="48" t="s">
+      <c r="J12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="56"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100"/>
       <c r="B13" s="61"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -3381,18 +3721,16 @@
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="L13" s="48" t="s">
+      <c r="J13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="56"/>
-    </row>
-    <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100">
+      <c r="K13" s="56"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98">
         <v>2</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="104">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -3410,14 +3748,12 @@
       <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="M14" s="56"/>
-    </row>
-    <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101"/>
-      <c r="B15" s="107"/>
+      <c r="H14" s="71"/>
+      <c r="K14" s="56"/>
+    </row>
+    <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="99"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -3433,13 +3769,11 @@
       <c r="G15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-    </row>
-    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="108"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="58">
         <v>0.92708333333333337</v>
       </c>
@@ -3455,15 +3789,13 @@
       <c r="G16" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
-      <c r="B17" s="106">
+    </row>
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="99"/>
+      <c r="B17" s="104">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -3481,13 +3813,11 @@
       <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="107"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="99"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="58">
         <v>0.54861111111111105</v>
       </c>
@@ -3503,13 +3833,11 @@
       <c r="G18" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="108"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="99"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -3525,15 +3853,13 @@
       <c r="G19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-    </row>
-    <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="91">
+    </row>
+    <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="99"/>
+      <c r="B20" s="89">
         <v>41061</v>
       </c>
       <c r="C20" s="4">
@@ -3551,16 +3877,14 @@
       <c r="G20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="106">
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="99"/>
+      <c r="B21" s="104">
         <v>41063</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="80" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="4">
@@ -3575,13 +3899,11 @@
       <c r="G21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="108"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="99"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -3597,13 +3919,11 @@
       <c r="G22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
-      <c r="B23" s="88">
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="99"/>
+      <c r="B23" s="87">
         <v>41064</v>
       </c>
       <c r="C23" s="4">
@@ -3621,24 +3941,20 @@
       <c r="G23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-    </row>
-    <row r="24" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
-      <c r="B24" s="77"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="100"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100">
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98">
         <v>3</v>
       </c>
       <c r="B25" s="61">
@@ -3660,12 +3976,10 @@
         <v>62</v>
       </c>
       <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="M25" s="56"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
+      <c r="K25" s="56"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="99"/>
       <c r="B26" s="61">
         <v>41067</v>
       </c>
@@ -3685,12 +3999,10 @@
         <v>63</v>
       </c>
       <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="M26" s="56"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
+      <c r="K26" s="56"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="99"/>
       <c r="B27" s="61"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -3698,12 +4010,10 @@
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="M27" s="56"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
+      <c r="K27" s="56"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="99"/>
       <c r="B28" s="61"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -3711,12 +4021,10 @@
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="M28" s="56"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
+      <c r="K28" s="56"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="99"/>
       <c r="B29" s="61"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -3724,12 +4032,10 @@
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="M29" s="56"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="K29" s="56"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="99"/>
       <c r="B30" s="61"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -3737,12 +4043,10 @@
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="M30" s="56"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
+      <c r="K30" s="56"/>
+    </row>
+    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="99"/>
       <c r="B31" s="61"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -3750,12 +4054,10 @@
       <c r="F31" s="60"/>
       <c r="G31" s="60"/>
       <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="M31" s="56"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
+      <c r="K31" s="56"/>
+    </row>
+    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="99"/>
       <c r="B32" s="61"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -3763,12 +4065,10 @@
       <c r="F32" s="60"/>
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="M32" s="56"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="100"/>
       <c r="B33" s="61"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
@@ -3776,12 +4076,12 @@
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
       <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="M33" s="56"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="K33" s="56"/>
+    </row>
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="98">
+        <v>4</v>
+      </c>
       <c r="B34" s="61"/>
       <c r="C34" s="58"/>
       <c r="D34" s="58"/>
@@ -3789,62 +4089,52 @@
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="M34" s="56"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
+      <c r="K34" s="56"/>
+    </row>
+    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="99"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="60"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57">
-        <v>4</v>
-      </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-    </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+    </row>
+    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="99"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="71"/>
+    </row>
+    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="99"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+    </row>
+    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="100"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+    </row>
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="98">
+        <v>5</v>
+      </c>
       <c r="B39" s="61"/>
       <c r="C39" s="58"/>
       <c r="D39" s="58"/>
@@ -3852,12 +4142,10 @@
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
       <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="M39" s="56"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="K39" s="56"/>
+    </row>
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="99"/>
       <c r="B40" s="61"/>
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
@@ -3865,14 +4153,10 @@
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
       <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="M40" s="56"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57">
-        <v>5</v>
-      </c>
+      <c r="K40" s="56"/>
+    </row>
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="99"/>
       <c r="B41" s="61"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
@@ -3880,12 +4164,10 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="M41" s="56"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="K41" s="56"/>
+    </row>
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="99"/>
       <c r="B42" s="61"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
@@ -3893,12 +4175,10 @@
       <c r="F42" s="60"/>
       <c r="G42" s="60"/>
       <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="M42" s="56"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="K42" s="56"/>
+    </row>
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="100"/>
       <c r="B43" s="61"/>
       <c r="C43" s="58"/>
       <c r="D43" s="58"/>
@@ -3906,12 +4186,12 @@
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="M43" s="56"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="K43" s="56"/>
+    </row>
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="98">
+        <v>6</v>
+      </c>
       <c r="B44" s="61"/>
       <c r="C44" s="58"/>
       <c r="D44" s="58"/>
@@ -3919,62 +4199,52 @@
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
       <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="M44" s="56"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
+      <c r="K44" s="56"/>
+    </row>
+    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="99"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
       <c r="H45" s="60"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57">
-        <v>6</v>
-      </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-    </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-    </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+    </row>
+    <row r="46" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="99"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="71"/>
+    </row>
+    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="99"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+    </row>
+    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="100"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+    </row>
+    <row r="49" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="98">
+        <v>7</v>
+      </c>
       <c r="B49" s="61"/>
       <c r="C49" s="58"/>
       <c r="D49" s="58"/>
@@ -3982,12 +4252,10 @@
       <c r="F49" s="60"/>
       <c r="G49" s="60"/>
       <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="M49" s="56"/>
-    </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="K49" s="56"/>
+    </row>
+    <row r="50" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="99"/>
       <c r="B50" s="61"/>
       <c r="C50" s="58"/>
       <c r="D50" s="58"/>
@@ -3995,14 +4263,10 @@
       <c r="F50" s="60"/>
       <c r="G50" s="60"/>
       <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="M50" s="56"/>
-    </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57">
-        <v>7</v>
-      </c>
+      <c r="K50" s="56"/>
+    </row>
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="99"/>
       <c r="B51" s="61"/>
       <c r="C51" s="58"/>
       <c r="D51" s="58"/>
@@ -4010,12 +4274,10 @@
       <c r="F51" s="60"/>
       <c r="G51" s="60"/>
       <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="M51" s="56"/>
-    </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="K51" s="56"/>
+    </row>
+    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="99"/>
       <c r="B52" s="61"/>
       <c r="C52" s="58"/>
       <c r="D52" s="58"/>
@@ -4023,12 +4285,10 @@
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="M52" s="56"/>
-    </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
+      <c r="K52" s="56"/>
+    </row>
+    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="100"/>
       <c r="B53" s="61"/>
       <c r="C53" s="58"/>
       <c r="D53" s="58"/>
@@ -4036,75 +4296,77 @@
       <c r="F53" s="60"/>
       <c r="G53" s="60"/>
       <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="M53" s="56"/>
-    </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
+      <c r="K53" s="56"/>
+    </row>
+    <row r="54" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="98">
+        <v>8</v>
+      </c>
+      <c r="B54" s="61">
+        <v>41100</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E54" s="59">
+        <v>1</v>
+      </c>
+      <c r="F54" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="60" t="s">
+        <v>90</v>
+      </c>
       <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="M54" s="56"/>
-    </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
+      <c r="K54" s="56"/>
+    </row>
+    <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="99"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
       <c r="H55" s="60"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-    </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57">
-        <v>8</v>
-      </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-    </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-    </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-    </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
+    </row>
+    <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="99"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="71"/>
+    </row>
+    <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="99"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+    </row>
+    <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="100"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+    </row>
+    <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="98">
+        <v>9</v>
+      </c>
       <c r="B59" s="61"/>
       <c r="C59" s="58"/>
       <c r="D59" s="58"/>
@@ -4112,61 +4374,49 @@
       <c r="F59" s="60"/>
       <c r="G59" s="60"/>
       <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="M59" s="56"/>
-    </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
+      <c r="K59" s="56"/>
+    </row>
+    <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="99"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="60"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-    </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57">
-        <v>9</v>
-      </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-    </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-    </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-    </row>
-    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="99"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="71"/>
+    </row>
+    <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="99"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+    </row>
+    <row r="63" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="100"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+    </row>
+    <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="61"/>
       <c r="C64" s="58"/>
@@ -4175,11 +4425,9 @@
       <c r="F64" s="60"/>
       <c r="G64" s="60"/>
       <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="M64" s="56"/>
-    </row>
-    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="56"/>
+    </row>
+    <row r="65" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="61"/>
       <c r="C65" s="58"/>
@@ -4188,11 +4436,9 @@
       <c r="F65" s="60"/>
       <c r="G65" s="60"/>
       <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="M65" s="56"/>
-    </row>
-    <row r="66" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="56"/>
+    </row>
+    <row r="66" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57">
         <v>10</v>
       </c>
@@ -4203,11 +4449,9 @@
       <c r="F66" s="60"/>
       <c r="G66" s="60"/>
       <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="M66" s="56"/>
-    </row>
-    <row r="67" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="56"/>
+    </row>
+    <row r="67" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="61"/>
       <c r="C67" s="58"/>
@@ -4216,11 +4460,9 @@
       <c r="F67" s="60"/>
       <c r="G67" s="60"/>
       <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="M67" s="56"/>
-    </row>
-    <row r="68" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="56"/>
+    </row>
+    <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
       <c r="B68" s="61"/>
       <c r="C68" s="58"/>
@@ -4229,12 +4471,12 @@
       <c r="F68" s="60"/>
       <c r="G68" s="60"/>
       <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="M68" s="56"/>
-    </row>
-    <row r="69" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
+      <c r="K68" s="56"/>
+    </row>
+    <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="98">
+        <v>11</v>
+      </c>
       <c r="B69" s="61"/>
       <c r="C69" s="58"/>
       <c r="D69" s="58"/>
@@ -4242,62 +4484,57 @@
       <c r="F69" s="60"/>
       <c r="G69" s="60"/>
       <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="M69" s="56"/>
-    </row>
-    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
+      <c r="K69" s="56"/>
+    </row>
+    <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="99"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
       <c r="H70" s="60"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-    </row>
-    <row r="71" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="57">
-        <v>11</v>
-      </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-    </row>
-    <row r="72" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-    </row>
-    <row r="73" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
+    </row>
+    <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="99"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="71"/>
+    </row>
+    <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="99"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+    </row>
+    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="100"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B14:B16"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="100">
   <si>
     <t>Week</t>
   </si>
@@ -282,12 +282,6 @@
     <t>Class Diagram v1.1</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Make GUI</t>
   </si>
   <si>
@@ -304,6 +298,30 @@
   </si>
   <si>
     <t>Make Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Make Use case diagram</t>
+  </si>
+  <si>
+    <t>Use case diagram v3.0</t>
+  </si>
+  <si>
+    <t>Make priority Use case</t>
+  </si>
+  <si>
+    <t>Discuss Data Model and Database with Team</t>
+  </si>
+  <si>
+    <t>Tutorial and review class diagram for TinNguyen, HuyenLe</t>
+  </si>
+  <si>
+    <t>Make review file class digram for TinNguyen, HuyenLe</t>
+  </si>
+  <si>
+    <t>Make Use case description</t>
+  </si>
+  <si>
+    <t>Use case description v2.0</t>
   </si>
 </sst>
 </file>
@@ -474,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -729,15 +747,36 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -745,6 +784,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -765,34 +813,7 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L117"/>
+  <dimension ref="A2:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87:D87"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1112,25 +1133,24 @@
     <col min="6" max="6" width="9.140625" style="23"/>
     <col min="7" max="7" width="37.28515625" style="23" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="26" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="23"/>
+    <col min="9" max="9" width="8.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="26" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" s="24"/>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -1143,19 +1163,18 @@
       <c r="G4" s="31">
         <v>41050</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26"/>
+      <c r="J5" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="K5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1180,19 +1199,16 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="101">
         <v>1</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="102">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1211,16 +1227,15 @@
         <v>20</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="23" t="s">
+      <c r="I7" s="92"/>
+      <c r="J7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="97"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="96"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1237,16 +1252,15 @@
         <v>46</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="23" t="s">
+      <c r="I8" s="92"/>
+      <c r="J8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="96"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1265,16 +1279,15 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="23" t="s">
+      <c r="I9" s="92"/>
+      <c r="J9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="95">
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="96"/>
+      <c r="B10" s="102">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1293,16 +1306,15 @@
         <v>20</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="23" t="s">
+      <c r="I10" s="92"/>
+      <c r="J10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="97"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="96"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1319,16 +1331,15 @@
         <v>46</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="23" t="s">
+      <c r="I11" s="92"/>
+      <c r="J11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="96"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1347,16 +1358,15 @@
       <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="23" t="s">
+      <c r="I12" s="92"/>
+      <c r="J12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="95">
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="102">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1377,16 +1387,15 @@
       <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="23" t="s">
+      <c r="I13" s="92"/>
+      <c r="J13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-      <c r="B14" s="97"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="96"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1405,16 +1414,15 @@
       <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="23" t="s">
+      <c r="I14" s="92"/>
+      <c r="J14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
-      <c r="B15" s="97"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="96"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1431,16 +1439,15 @@
         <v>20</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="23" t="s">
+      <c r="I15" s="92"/>
+      <c r="J15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="97"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="96"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1457,13 +1464,12 @@
         <v>50</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="107"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="96"/>
+      <c r="I16" s="92"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="96"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1480,13 +1486,12 @@
         <v>45</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="107"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="95">
+      <c r="I17" s="92"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="96"/>
+      <c r="B18" s="102">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1505,13 +1510,12 @@
         <v>46</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="107"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="96"/>
+      <c r="I18" s="92"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="96"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1528,12 +1532,11 @@
         <v>20</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="107"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
+      <c r="I19" s="92"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="97"/>
       <c r="B20" s="3"/>
       <c r="C20" s="84"/>
       <c r="D20" s="44"/>
@@ -1541,15 +1544,14 @@
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="107"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92">
+      <c r="I20" s="92"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101">
         <v>2</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="102">
         <v>41057</v>
       </c>
       <c r="C21" s="85" t="s">
@@ -1568,13 +1570,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="107"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="97"/>
+      <c r="I21" s="92"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="96"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1591,13 +1592,12 @@
         <v>51</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="107"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="97"/>
+      <c r="I22" s="92"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="96"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1614,12 +1614,11 @@
         <v>52</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="107"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
+      <c r="I23" s="92"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="96"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1639,12 +1638,11 @@
         <v>20</v>
       </c>
       <c r="H24" s="42"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="107"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="95">
+      <c r="I24" s="92"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="96"/>
+      <c r="B25" s="102">
         <v>41059</v>
       </c>
       <c r="C25" s="81">
@@ -1663,12 +1661,11 @@
         <v>46</v>
       </c>
       <c r="H25" s="83"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="107"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="96"/>
+      <c r="I25" s="92"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="96"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="81">
         <v>0.57986111111111105</v>
       </c>
@@ -1687,12 +1684,11 @@
       <c r="H26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="107"/>
-    </row>
-    <row r="27" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="95">
+      <c r="I26" s="92"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="96"/>
+      <c r="B27" s="102">
         <v>41060</v>
       </c>
       <c r="C27" s="81">
@@ -1711,12 +1707,11 @@
         <v>20</v>
       </c>
       <c r="H27" s="83"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="107"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
-      <c r="B28" s="96"/>
+      <c r="I27" s="92"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="96"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="81">
         <v>0.54166666666666663</v>
       </c>
@@ -1733,12 +1728,11 @@
         <v>46</v>
       </c>
       <c r="H28" s="83"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="107"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
-      <c r="B29" s="95">
+      <c r="I28" s="92"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="96"/>
+      <c r="B29" s="102">
         <v>41062</v>
       </c>
       <c r="C29" s="81">
@@ -1757,12 +1751,11 @@
         <v>20</v>
       </c>
       <c r="H29" s="83"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="107"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
-      <c r="B30" s="97"/>
+      <c r="I29" s="92"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="96"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="81">
         <v>0.41666666666666669</v>
       </c>
@@ -1779,12 +1772,11 @@
         <v>59</v>
       </c>
       <c r="H30" s="83"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="107"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
-      <c r="B31" s="97"/>
+      <c r="I30" s="92"/>
+    </row>
+    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="96"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="81">
         <v>0.52777777777777779</v>
       </c>
@@ -1801,12 +1793,11 @@
         <v>20</v>
       </c>
       <c r="H31" s="83"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="107"/>
-    </row>
-    <row r="32" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="97"/>
+      <c r="I31" s="92"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="96"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="81">
         <v>0.69097222222222221</v>
       </c>
@@ -1823,12 +1814,11 @@
         <v>45</v>
       </c>
       <c r="H32" s="83"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="107"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
-      <c r="B33" s="96"/>
+      <c r="I32" s="92"/>
+    </row>
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="96"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="81">
         <v>0.88541666666666663</v>
       </c>
@@ -1845,11 +1835,10 @@
         <v>48</v>
       </c>
       <c r="H33" s="83"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="107"/>
-    </row>
-    <row r="34" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
+      <c r="I33" s="92"/>
+    </row>
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="96"/>
       <c r="B34" s="90">
         <v>41063</v>
       </c>
@@ -1869,11 +1858,10 @@
         <v>48</v>
       </c>
       <c r="H34" s="83"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="107"/>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
+      <c r="I34" s="92"/>
+    </row>
+    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="97"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1881,14 +1869,13 @@
       <c r="F35" s="46"/>
       <c r="G35" s="46"/>
       <c r="H35" s="46"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="107"/>
-    </row>
-    <row r="36" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="92">
+      <c r="I35" s="92"/>
+    </row>
+    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="101">
         <v>3</v>
       </c>
-      <c r="B36" s="95">
+      <c r="B36" s="102">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1907,13 +1894,12 @@
         <v>20</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="107"/>
-      <c r="L36" s="27"/>
-    </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="96"/>
+      <c r="I36" s="92"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="96"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1930,13 +1916,12 @@
         <v>64</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="107"/>
-      <c r="L37" s="27"/>
-    </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="95">
+      <c r="I37" s="92"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="96"/>
+      <c r="B38" s="102">
         <v>41068</v>
       </c>
       <c r="C38" s="85" t="s">
@@ -1955,13 +1940,12 @@
         <v>64</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="107"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="97"/>
+      <c r="I38" s="92"/>
+      <c r="K38" s="27"/>
+    </row>
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="96"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -1978,13 +1962,12 @@
         <v>20</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="107"/>
-      <c r="L39" s="27"/>
-    </row>
-    <row r="40" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="96"/>
+      <c r="I39" s="92"/>
+      <c r="K39" s="27"/>
+    </row>
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="96"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -2001,12 +1984,11 @@
         <v>46</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="107"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
+      <c r="I40" s="92"/>
+      <c r="K40" s="27"/>
+    </row>
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="96"/>
       <c r="B41" s="3">
         <v>41069</v>
       </c>
@@ -2026,12 +2008,11 @@
         <v>65</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="107"/>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="42" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
+      <c r="I41" s="92"/>
+      <c r="K41" s="27"/>
+    </row>
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="97"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2039,15 +2020,14 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="107"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="92">
+      <c r="I42" s="92"/>
+      <c r="K42" s="27"/>
+    </row>
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="101">
         <v>4</v>
       </c>
-      <c r="B43" s="95">
+      <c r="B43" s="102">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -2066,13 +2046,12 @@
         <v>20</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="107"/>
-      <c r="L43" s="27"/>
-    </row>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="97"/>
+      <c r="I43" s="92"/>
+      <c r="K43" s="27"/>
+    </row>
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="96"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2089,13 +2068,12 @@
         <v>46</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="107"/>
-      <c r="L44" s="27"/>
-    </row>
-    <row r="45" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="96"/>
+      <c r="I44" s="92"/>
+      <c r="K44" s="27"/>
+    </row>
+    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="96"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2112,12 +2090,11 @@
         <v>66</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="107"/>
-      <c r="L45" s="27"/>
-    </row>
-    <row r="46" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
+      <c r="I45" s="92"/>
+      <c r="K45" s="27"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="96"/>
       <c r="B46" s="9">
         <v>41072</v>
       </c>
@@ -2137,12 +2114,11 @@
         <v>67</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="107"/>
-    </row>
-    <row r="47" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
-      <c r="B47" s="95">
+      <c r="I46" s="92"/>
+    </row>
+    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="96"/>
+      <c r="B47" s="102">
         <v>41073</v>
       </c>
       <c r="C47" s="13">
@@ -2161,12 +2137,11 @@
         <v>20</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="107"/>
-    </row>
-    <row r="48" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="93"/>
-      <c r="B48" s="96"/>
+      <c r="I47" s="92"/>
+    </row>
+    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="96"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="40">
         <v>0.44791666666666669</v>
       </c>
@@ -2183,11 +2158,10 @@
         <v>46</v>
       </c>
       <c r="H48" s="42"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="107"/>
-    </row>
-    <row r="49" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="93"/>
+      <c r="I48" s="92"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="96"/>
       <c r="B49" s="91">
         <v>41075</v>
       </c>
@@ -2207,11 +2181,10 @@
         <v>68</v>
       </c>
       <c r="H49" s="83"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="107"/>
-    </row>
-    <row r="50" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="93"/>
+      <c r="I49" s="92"/>
+    </row>
+    <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="96"/>
       <c r="B50" s="91">
         <v>41076</v>
       </c>
@@ -2231,12 +2204,11 @@
         <v>68</v>
       </c>
       <c r="H50" s="83"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="107"/>
-    </row>
-    <row r="51" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="93"/>
-      <c r="B51" s="95">
+      <c r="I50" s="92"/>
+    </row>
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="96"/>
+      <c r="B51" s="102">
         <v>41077</v>
       </c>
       <c r="C51" s="81">
@@ -2255,12 +2227,11 @@
         <v>69</v>
       </c>
       <c r="H51" s="83"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="107"/>
-    </row>
-    <row r="52" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="93"/>
-      <c r="B52" s="97"/>
+      <c r="I51" s="92"/>
+    </row>
+    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="96"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="81">
         <v>0.57291666666666663</v>
       </c>
@@ -2277,12 +2248,11 @@
         <v>70</v>
       </c>
       <c r="H52" s="83"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="107"/>
-    </row>
-    <row r="53" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="96"/>
+      <c r="I52" s="92"/>
+    </row>
+    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="97"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="44">
         <v>0.35416666666666669</v>
       </c>
@@ -2299,14 +2269,13 @@
         <v>69</v>
       </c>
       <c r="H53" s="46"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="107"/>
-    </row>
-    <row r="54" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="92">
+      <c r="I53" s="92"/>
+    </row>
+    <row r="54" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="101">
         <v>5</v>
       </c>
-      <c r="B54" s="95">
+      <c r="B54" s="102">
         <v>41078</v>
       </c>
       <c r="C54" s="4">
@@ -2325,13 +2294,12 @@
         <v>71</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="107"/>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="93"/>
-      <c r="B55" s="96"/>
+      <c r="I54" s="92"/>
+      <c r="K54" s="27"/>
+    </row>
+    <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="96"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="4">
         <v>0.375</v>
       </c>
@@ -2348,13 +2316,12 @@
         <v>51</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="107"/>
-      <c r="L55" s="27"/>
-    </row>
-    <row r="56" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="93"/>
-      <c r="B56" s="95">
+      <c r="I55" s="92"/>
+      <c r="K55" s="27"/>
+    </row>
+    <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="96"/>
+      <c r="B56" s="102">
         <v>41079</v>
       </c>
       <c r="C56" s="4">
@@ -2373,13 +2340,12 @@
         <v>51</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="107"/>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="93"/>
-      <c r="B57" s="96"/>
+      <c r="I56" s="92"/>
+      <c r="K56" s="27"/>
+    </row>
+    <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="96"/>
+      <c r="B57" s="103"/>
       <c r="C57" s="4">
         <v>0.55208333333333337</v>
       </c>
@@ -2396,13 +2362,12 @@
         <v>72</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="107"/>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="93"/>
-      <c r="B58" s="95">
+      <c r="I57" s="92"/>
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="96"/>
+      <c r="B58" s="102">
         <v>41080</v>
       </c>
       <c r="C58" s="4">
@@ -2421,13 +2386,12 @@
         <v>73</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="107"/>
-      <c r="L58" s="27"/>
-    </row>
-    <row r="59" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="93"/>
-      <c r="B59" s="96"/>
+      <c r="I58" s="92"/>
+      <c r="K58" s="27"/>
+    </row>
+    <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="96"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -2444,13 +2408,12 @@
         <v>52</v>
       </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="107"/>
-      <c r="L59" s="27"/>
-    </row>
-    <row r="60" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="93"/>
-      <c r="B60" s="95">
+      <c r="I59" s="92"/>
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="96"/>
+      <c r="B60" s="102">
         <v>41081</v>
       </c>
       <c r="C60" s="4">
@@ -2469,13 +2432,12 @@
         <v>48</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="107"/>
-      <c r="L60" s="27"/>
-    </row>
-    <row r="61" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="93"/>
-      <c r="B61" s="97"/>
+      <c r="I60" s="92"/>
+      <c r="K60" s="27"/>
+    </row>
+    <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="96"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2492,13 +2454,12 @@
         <v>74</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="107"/>
-      <c r="L61" s="27"/>
-    </row>
-    <row r="62" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="93"/>
-      <c r="B62" s="97"/>
+      <c r="I61" s="92"/>
+      <c r="K61" s="27"/>
+    </row>
+    <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="96"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="4">
         <v>0.5625</v>
       </c>
@@ -2515,13 +2476,12 @@
         <v>75</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="107"/>
-      <c r="L62" s="27"/>
-    </row>
-    <row r="63" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="93"/>
-      <c r="B63" s="97"/>
+      <c r="I62" s="92"/>
+      <c r="K62" s="27"/>
+    </row>
+    <row r="63" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="96"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2538,13 +2498,12 @@
         <v>81</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="107"/>
-      <c r="L63" s="27"/>
-    </row>
-    <row r="64" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="93"/>
-      <c r="B64" s="97"/>
+      <c r="I63" s="92"/>
+      <c r="K63" s="27"/>
+    </row>
+    <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="96"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -2561,13 +2520,12 @@
         <v>76</v>
       </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="107"/>
-      <c r="L64" s="27"/>
-    </row>
-    <row r="65" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="93"/>
-      <c r="B65" s="96"/>
+      <c r="I64" s="92"/>
+      <c r="K64" s="27"/>
+    </row>
+    <row r="65" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="96"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="4">
         <v>0.90625</v>
       </c>
@@ -2584,13 +2542,12 @@
         <v>77</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="107"/>
-      <c r="L65" s="27"/>
-    </row>
-    <row r="66" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="93"/>
-      <c r="B66" s="95">
+      <c r="I65" s="92"/>
+      <c r="K65" s="27"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="96"/>
+      <c r="B66" s="102">
         <v>41082</v>
       </c>
       <c r="C66" s="4">
@@ -2609,13 +2566,12 @@
         <v>78</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="107"/>
-      <c r="L66" s="27"/>
-    </row>
-    <row r="67" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="93"/>
-      <c r="B67" s="97"/>
+      <c r="I66" s="92"/>
+      <c r="K66" s="27"/>
+    </row>
+    <row r="67" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="96"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -2632,13 +2588,12 @@
         <v>79</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="107"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="93"/>
-      <c r="B68" s="96"/>
+      <c r="I67" s="92"/>
+      <c r="K67" s="27"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="96"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="4">
         <v>0.74652777777777779</v>
       </c>
@@ -2655,12 +2610,11 @@
         <v>80</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="107"/>
-      <c r="L68" s="27"/>
-    </row>
-    <row r="69" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="93"/>
+      <c r="I68" s="92"/>
+      <c r="K68" s="27"/>
+    </row>
+    <row r="69" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="96"/>
       <c r="B69" s="3">
         <v>41083</v>
       </c>
@@ -2680,12 +2634,11 @@
         <v>82</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="107"/>
-      <c r="L69" s="27"/>
-    </row>
-    <row r="70" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="93"/>
+      <c r="I69" s="92"/>
+      <c r="K69" s="27"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="96"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2693,12 +2646,11 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="107"/>
-      <c r="L70" s="27"/>
-    </row>
-    <row r="71" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="93"/>
+      <c r="I70" s="92"/>
+      <c r="K70" s="27"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="96"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2706,12 +2658,11 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="107"/>
-      <c r="L71" s="27"/>
-    </row>
-    <row r="72" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="93"/>
+      <c r="I71" s="92"/>
+      <c r="K71" s="27"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="96"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2719,12 +2670,11 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="107"/>
-      <c r="L72" s="27"/>
-    </row>
-    <row r="73" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
+      <c r="I72" s="92"/>
+      <c r="K72" s="27"/>
+    </row>
+    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="97"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2732,11 +2682,10 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="107"/>
-      <c r="L73" s="27"/>
-    </row>
-    <row r="74" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="92"/>
+      <c r="K73" s="27"/>
+    </row>
+    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -2745,11 +2694,10 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="107"/>
-      <c r="L74" s="27"/>
-    </row>
-    <row r="75" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="92"/>
+      <c r="K74" s="27"/>
+    </row>
+    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -2758,10 +2706,9 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="107"/>
-    </row>
-    <row r="76" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="92"/>
+    </row>
+    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>6</v>
       </c>
@@ -2772,10 +2719,9 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="109"/>
-      <c r="J76" s="107"/>
-    </row>
-    <row r="77" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="92"/>
+    </row>
+    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="39"/>
       <c r="C77" s="40"/>
@@ -2784,10 +2730,9 @@
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
       <c r="H77" s="42"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="107"/>
-    </row>
-    <row r="78" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="92"/>
+    </row>
+    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
@@ -2796,10 +2741,9 @@
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
       <c r="H78" s="46"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="107"/>
-    </row>
-    <row r="79" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="92"/>
+    </row>
+    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -2808,11 +2752,10 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="107"/>
-      <c r="L79" s="27"/>
-    </row>
-    <row r="80" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="92"/>
+      <c r="K79" s="27"/>
+    </row>
+    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -2821,11 +2764,10 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="107"/>
-      <c r="L80" s="27"/>
-    </row>
-    <row r="81" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="92"/>
+      <c r="K80" s="27"/>
+    </row>
+    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>7</v>
       </c>
@@ -2836,11 +2778,10 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="107"/>
-      <c r="L81" s="27"/>
-    </row>
-    <row r="82" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="92"/>
+      <c r="K81" s="27"/>
+    </row>
+    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -2849,13 +2790,12 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="107"/>
-      <c r="L82" s="27"/>
-    </row>
-    <row r="83" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="92"/>
+      <c r="K82" s="27"/>
+    </row>
+    <row r="83" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
-      <c r="B83" s="110">
+      <c r="B83" s="93">
         <v>41098</v>
       </c>
       <c r="C83" s="4">
@@ -2874,15 +2814,14 @@
         <v>84</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="107"/>
-      <c r="L83" s="27"/>
-    </row>
-    <row r="84" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="93">
+      <c r="I83" s="92"/>
+      <c r="K83" s="27"/>
+    </row>
+    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="96">
         <v>8</v>
       </c>
-      <c r="B84" s="111">
+      <c r="B84" s="98">
         <v>41099</v>
       </c>
       <c r="C84" s="4">
@@ -2898,16 +2837,15 @@
         <v>83</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="107"/>
-      <c r="L84" s="27"/>
-    </row>
-    <row r="85" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="93"/>
-      <c r="B85" s="112"/>
+      <c r="I84" s="92"/>
+      <c r="K84" s="27"/>
+    </row>
+    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="96"/>
+      <c r="B85" s="99"/>
       <c r="C85" s="4">
         <v>0.4993055555555555</v>
       </c>
@@ -2921,16 +2859,15 @@
         <v>83</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="107"/>
-      <c r="L85" s="27"/>
-    </row>
-    <row r="86" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="93"/>
-      <c r="B86" s="113"/>
+      <c r="I85" s="92"/>
+      <c r="K85" s="27"/>
+    </row>
+    <row r="86" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="96"/>
+      <c r="B86" s="100"/>
       <c r="C86" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2944,16 +2881,15 @@
         <v>83</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H86" s="5"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="107"/>
-      <c r="L86" s="27"/>
-    </row>
-    <row r="87" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="93"/>
-      <c r="B87" s="111">
+      <c r="I86" s="92"/>
+      <c r="K86" s="27"/>
+    </row>
+    <row r="87" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="96"/>
+      <c r="B87" s="98">
         <v>41100</v>
       </c>
       <c r="C87" s="4">
@@ -2969,16 +2905,15 @@
         <v>28</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H87" s="5"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="107"/>
-      <c r="L87" s="27"/>
-    </row>
-    <row r="88" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="93"/>
-      <c r="B88" s="112"/>
+      <c r="I87" s="92"/>
+      <c r="K87" s="27"/>
+    </row>
+    <row r="88" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="96"/>
+      <c r="B88" s="99"/>
       <c r="C88" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -2992,16 +2927,15 @@
         <v>28</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H88" s="5"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="107"/>
-      <c r="L88" s="27"/>
-    </row>
-    <row r="89" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="93"/>
-      <c r="B89" s="113"/>
+      <c r="I88" s="92"/>
+      <c r="K88" s="27"/>
+    </row>
+    <row r="89" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="96"/>
+      <c r="B89" s="100"/>
       <c r="C89" s="4">
         <v>0.90625</v>
       </c>
@@ -3015,16 +2949,15 @@
         <v>28</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="107"/>
-      <c r="L89" s="27"/>
-    </row>
-    <row r="90" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="93"/>
-      <c r="B90" s="111">
+      <c r="I89" s="92"/>
+      <c r="K89" s="27"/>
+    </row>
+    <row r="90" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="96"/>
+      <c r="B90" s="98">
         <v>41101</v>
       </c>
       <c r="C90" s="4">
@@ -3040,18 +2973,17 @@
         <v>28</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="107"/>
-      <c r="L90" s="27"/>
-    </row>
-    <row r="91" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="93"/>
-      <c r="B91" s="112"/>
+        <v>89</v>
+      </c>
+      <c r="I90" s="92"/>
+      <c r="K90" s="27"/>
+    </row>
+    <row r="91" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="96"/>
+      <c r="B91" s="99"/>
       <c r="C91" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -3065,16 +2997,15 @@
         <v>28</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="107"/>
-      <c r="L91" s="27"/>
-    </row>
-    <row r="92" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="93"/>
-      <c r="B92" s="112"/>
+      <c r="I91" s="92"/>
+      <c r="K91" s="27"/>
+    </row>
+    <row r="92" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="96"/>
+      <c r="B92" s="99"/>
       <c r="C92" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -3088,20 +3019,17 @@
         <v>28</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I92" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="J92" s="107"/>
-      <c r="L92" s="27"/>
-    </row>
-    <row r="93" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="93"/>
-      <c r="B93" s="113"/>
+      <c r="I92" s="92"/>
+      <c r="K92" s="27"/>
+    </row>
+    <row r="93" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="96"/>
+      <c r="B93" s="100"/>
       <c r="C93" s="4">
         <v>0.65625</v>
       </c>
@@ -3120,244 +3048,309 @@
       <c r="H93" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I93" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="J93" s="107"/>
-      <c r="L93" s="27"/>
-    </row>
-    <row r="94" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="93"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="107"/>
-      <c r="L94" s="27"/>
-    </row>
-    <row r="95" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="93"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="107"/>
-      <c r="L95" s="27"/>
-    </row>
-    <row r="96" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="93"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="107"/>
-      <c r="L96" s="27"/>
-    </row>
-    <row r="97" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="93"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="107"/>
-      <c r="L97" s="27"/>
-    </row>
-    <row r="98" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="93"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="107"/>
-      <c r="L98" s="27"/>
-    </row>
-    <row r="99" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="93"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="107"/>
-    </row>
-    <row r="100" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="93"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="109"/>
-      <c r="J100" s="107"/>
-    </row>
-    <row r="101" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="93"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="107"/>
-    </row>
-    <row r="102" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="94"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="107"/>
-    </row>
-    <row r="103" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="107"/>
-      <c r="L103" s="27"/>
-    </row>
-    <row r="104" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="107"/>
-    </row>
-    <row r="105" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28">
+      <c r="I93" s="92"/>
+      <c r="K93" s="27"/>
+    </row>
+    <row r="94" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="96"/>
+      <c r="B94" s="111">
+        <v>41102</v>
+      </c>
+      <c r="C94" s="64">
+        <v>0.40625</v>
+      </c>
+      <c r="D94" s="64">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E94" s="65">
+        <v>1.75</v>
+      </c>
+      <c r="F94" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H94" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="I94" s="92"/>
+      <c r="K94" s="27"/>
+    </row>
+    <row r="95" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="96"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="94">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D95" s="94">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E95" s="95">
+        <v>0.5</v>
+      </c>
+      <c r="F95" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="H95" s="86"/>
+      <c r="I95" s="92"/>
+      <c r="K95" s="27"/>
+    </row>
+    <row r="96" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="96"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="94">
+        <v>0.625</v>
+      </c>
+      <c r="D96" s="94">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E96" s="95">
+        <v>1.25</v>
+      </c>
+      <c r="F96" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="G96" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="H96" s="86"/>
+      <c r="I96" s="92"/>
+      <c r="K96" s="27"/>
+    </row>
+    <row r="97" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="96"/>
+      <c r="B97" s="112"/>
+      <c r="C97" s="94">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D97" s="94">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E97" s="95">
+        <v>0.75</v>
+      </c>
+      <c r="F97" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="G97" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="H97" s="86"/>
+      <c r="I97" s="92"/>
+      <c r="K97" s="27"/>
+    </row>
+    <row r="98" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="96"/>
+      <c r="B98" s="112"/>
+      <c r="C98" s="94">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D98" s="94">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="E98" s="95">
+        <v>1</v>
+      </c>
+      <c r="F98" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="G98" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98" s="86"/>
+      <c r="I98" s="92"/>
+      <c r="K98" s="27"/>
+    </row>
+    <row r="99" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="96"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="94">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D99" s="94">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E99" s="95">
+        <v>2</v>
+      </c>
+      <c r="F99" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="H99" s="86"/>
+      <c r="I99" s="92"/>
+      <c r="K99" s="27"/>
+    </row>
+    <row r="100" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="96"/>
+      <c r="B100" s="111">
+        <v>41103</v>
+      </c>
+      <c r="C100" s="94">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D100" s="94">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="E100" s="95">
+        <v>2</v>
+      </c>
+      <c r="F100" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="H100" s="86"/>
+      <c r="I100" s="92"/>
+      <c r="K100" s="27"/>
+    </row>
+    <row r="101" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="96"/>
+      <c r="B101" s="112"/>
+      <c r="C101" s="94">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="D101" s="94">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E101" s="95">
+        <v>3.5</v>
+      </c>
+      <c r="F101" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="H101" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="I101" s="92"/>
+      <c r="K101" s="27"/>
+    </row>
+    <row r="102" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="96"/>
+      <c r="B102" s="112"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="92"/>
+      <c r="K102" s="27"/>
+    </row>
+    <row r="103" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="96"/>
+      <c r="B103" s="112"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="92"/>
+    </row>
+    <row r="104" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="96"/>
+      <c r="B104" s="113"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="95"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="H104" s="86"/>
+      <c r="I104" s="92"/>
+    </row>
+    <row r="105" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="96"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="92"/>
+    </row>
+    <row r="106" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="97"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="92"/>
+    </row>
+    <row r="107" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="28"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="92"/>
+      <c r="K107" s="27"/>
+    </row>
+    <row r="108" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="30"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="92"/>
+    </row>
+    <row r="109" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="28">
         <v>9</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="109"/>
-      <c r="J105" s="107"/>
-    </row>
-    <row r="106" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="107"/>
-    </row>
-    <row r="107" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="107"/>
-    </row>
-    <row r="108" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="28"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="107"/>
-      <c r="L108" s="27"/>
-    </row>
-    <row r="109" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="107"/>
-      <c r="L109" s="27"/>
-    </row>
-    <row r="110" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="28">
-        <v>10</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="107"/>
-      <c r="L110" s="27"/>
-    </row>
-    <row r="111" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="107"/>
-      <c r="L111" s="27"/>
-    </row>
-    <row r="112" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="92"/>
+    </row>
+    <row r="110" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="30"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="92"/>
+    </row>
+    <row r="111" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="92"/>
+    </row>
+    <row r="112" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="28"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3365,11 +3358,10 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="107"/>
-      <c r="L112" s="27"/>
-    </row>
-    <row r="113" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="92"/>
+      <c r="K112" s="27"/>
+    </row>
+    <row r="113" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28"/>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
@@ -3378,71 +3370,111 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="107"/>
-      <c r="L113" s="27"/>
-    </row>
-    <row r="114" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
+      <c r="I113" s="92"/>
+      <c r="K113" s="27"/>
+    </row>
+    <row r="114" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="28">
+        <v>10</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
       <c r="H114" s="5"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="107"/>
-    </row>
-    <row r="115" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="28">
+      <c r="I114" s="92"/>
+      <c r="K114" s="27"/>
+    </row>
+    <row r="115" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="28"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="92"/>
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="92"/>
+      <c r="K116" s="27"/>
+    </row>
+    <row r="117" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="28"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="92"/>
+      <c r="K117" s="27"/>
+    </row>
+    <row r="118" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="30"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="92"/>
+    </row>
+    <row r="119" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="28">
         <v>11</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="109"/>
-      <c r="J115" s="107"/>
-    </row>
-    <row r="116" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="107"/>
-    </row>
-    <row r="117" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="107"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="92"/>
+    </row>
+    <row r="120" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="30"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="92"/>
+    </row>
+    <row r="121" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="92"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:H6"/>
-  <mergeCells count="27">
-    <mergeCell ref="A84:A102"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B43:B45"/>
+  <mergeCells count="29">
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B66:B68"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="A21:A35"/>
@@ -3453,6 +3485,14 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A84:A106"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B43:B45"/>
     <mergeCell ref="A54:A73"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B47:B48"/>
@@ -3461,7 +3501,6 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B66:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3470,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K73"/>
+  <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3557,10 +3596,10 @@
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+      <c r="A7" s="108">
         <v>1</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="111">
         <v>41052</v>
       </c>
       <c r="C7" s="58">
@@ -3585,8 +3624,8 @@
       <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="58">
         <v>0.51041666666666663</v>
       </c>
@@ -3609,8 +3648,8 @@
       <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="58">
         <v>0.5625</v>
       </c>
@@ -3635,8 +3674,8 @@
       <c r="K9" s="56"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="58">
         <v>0.59722222222222221</v>
       </c>
@@ -3661,7 +3700,7 @@
       <c r="K10" s="56"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="61">
         <v>41053</v>
       </c>
@@ -3687,7 +3726,7 @@
       <c r="K11" s="56"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="61">
         <v>41054</v>
       </c>
@@ -3713,7 +3752,7 @@
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="61"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -3727,10 +3766,10 @@
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98">
+      <c r="A14" s="108">
         <v>2</v>
       </c>
-      <c r="B14" s="104">
+      <c r="B14" s="105">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -3752,8 +3791,8 @@
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -3772,8 +3811,8 @@
       <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="106"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="58">
         <v>0.92708333333333337</v>
       </c>
@@ -3794,8 +3833,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="104">
+      <c r="A17" s="109"/>
+      <c r="B17" s="105">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -3816,8 +3855,8 @@
       <c r="H17" s="75"/>
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="58">
         <v>0.54861111111111105</v>
       </c>
@@ -3836,8 +3875,8 @@
       <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="106"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -3858,7 +3897,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="89">
         <v>41061</v>
       </c>
@@ -3880,8 +3919,8 @@
       <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="104">
+      <c r="A21" s="109"/>
+      <c r="B21" s="105">
         <v>41063</v>
       </c>
       <c r="C21" s="80" t="s">
@@ -3902,8 +3941,8 @@
       <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="106"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -3922,7 +3961,7 @@
       <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="87">
         <v>41064</v>
       </c>
@@ -3944,7 +3983,7 @@
       <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="76"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
@@ -3954,7 +3993,7 @@
       <c r="H24" s="86"/>
     </row>
     <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98">
+      <c r="A25" s="108">
         <v>3</v>
       </c>
       <c r="B25" s="61">
@@ -3979,7 +4018,7 @@
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="61">
         <v>41067</v>
       </c>
@@ -4002,7 +4041,7 @@
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="61"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -4013,7 +4052,7 @@
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="61"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -4024,7 +4063,7 @@
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="61"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -4035,7 +4074,7 @@
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="61"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -4046,7 +4085,7 @@
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="61"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -4057,7 +4096,7 @@
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="61"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -4068,7 +4107,7 @@
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="61"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
@@ -4079,7 +4118,7 @@
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="98">
+      <c r="A34" s="108">
         <v>4</v>
       </c>
       <c r="B34" s="61"/>
@@ -4092,7 +4131,7 @@
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="63"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -4102,7 +4141,7 @@
       <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="67"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -4112,7 +4151,7 @@
       <c r="H36" s="71"/>
     </row>
     <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="72"/>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -4122,7 +4161,7 @@
       <c r="H37" s="75"/>
     </row>
     <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
+      <c r="A38" s="110"/>
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
@@ -4132,7 +4171,7 @@
       <c r="H38" s="79"/>
     </row>
     <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98">
+      <c r="A39" s="108">
         <v>5</v>
       </c>
       <c r="B39" s="61"/>
@@ -4145,7 +4184,7 @@
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="99"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="61"/>
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
@@ -4156,7 +4195,7 @@
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="61"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
@@ -4167,7 +4206,7 @@
       <c r="K41" s="56"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="61"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
@@ -4178,7 +4217,7 @@
       <c r="K42" s="56"/>
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
+      <c r="A43" s="110"/>
       <c r="B43" s="61"/>
       <c r="C43" s="58"/>
       <c r="D43" s="58"/>
@@ -4189,7 +4228,7 @@
       <c r="K43" s="56"/>
     </row>
     <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="98">
+      <c r="A44" s="108">
         <v>6</v>
       </c>
       <c r="B44" s="61"/>
@@ -4202,7 +4241,7 @@
       <c r="K44" s="56"/>
     </row>
     <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="63"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
@@ -4212,7 +4251,7 @@
       <c r="H45" s="60"/>
     </row>
     <row r="46" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="67"/>
       <c r="C46" s="68"/>
       <c r="D46" s="68"/>
@@ -4222,7 +4261,7 @@
       <c r="H46" s="71"/>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="72"/>
       <c r="C47" s="73"/>
       <c r="D47" s="73"/>
@@ -4232,7 +4271,7 @@
       <c r="H47" s="75"/>
     </row>
     <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="100"/>
+      <c r="A48" s="110"/>
       <c r="B48" s="76"/>
       <c r="C48" s="77"/>
       <c r="D48" s="77"/>
@@ -4242,7 +4281,7 @@
       <c r="H48" s="79"/>
     </row>
     <row r="49" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="98">
+      <c r="A49" s="108">
         <v>7</v>
       </c>
       <c r="B49" s="61"/>
@@ -4255,7 +4294,7 @@
       <c r="K49" s="56"/>
     </row>
     <row r="50" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="61"/>
       <c r="C50" s="58"/>
       <c r="D50" s="58"/>
@@ -4266,7 +4305,7 @@
       <c r="K50" s="56"/>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="61"/>
       <c r="C51" s="58"/>
       <c r="D51" s="58"/>
@@ -4277,7 +4316,7 @@
       <c r="K51" s="56"/>
     </row>
     <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="99"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="61"/>
       <c r="C52" s="58"/>
       <c r="D52" s="58"/>
@@ -4288,7 +4327,7 @@
       <c r="K52" s="56"/>
     </row>
     <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="100"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="61"/>
       <c r="C53" s="58"/>
       <c r="D53" s="58"/>
@@ -4299,10 +4338,10 @@
       <c r="K53" s="56"/>
     </row>
     <row r="54" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="98">
+      <c r="A54" s="108">
         <v>8</v>
       </c>
-      <c r="B54" s="61">
+      <c r="B54" s="114">
         <v>41100</v>
       </c>
       <c r="C54" s="4">
@@ -4318,14 +4357,14 @@
         <v>28</v>
       </c>
       <c r="G54" s="60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H54" s="60"/>
       <c r="K54" s="56"/>
     </row>
-    <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="99"/>
-      <c r="B55" s="63"/>
+    <row r="55" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="109"/>
+      <c r="B55" s="76"/>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
       <c r="E55" s="65"/>
@@ -4333,206 +4372,322 @@
       <c r="G55" s="66"/>
       <c r="H55" s="60"/>
     </row>
-    <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="99"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="71"/>
-    </row>
-    <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="99"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-    </row>
-    <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
+    <row r="56" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="109"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+    </row>
+    <row r="57" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="109"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+    </row>
+    <row r="58" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="109"/>
       <c r="B58" s="76"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-    </row>
-    <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="98">
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+    </row>
+    <row r="59" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="109"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+    </row>
+    <row r="60" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="109"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
+    </row>
+    <row r="61" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="109"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+    </row>
+    <row r="62" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="109"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+    </row>
+    <row r="63" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="109"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+    </row>
+    <row r="64" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="109"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+    </row>
+    <row r="65" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="109"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
+    </row>
+    <row r="66" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="109"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+    </row>
+    <row r="67" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="109"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+    </row>
+    <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="109"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+    </row>
+    <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="109"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+    </row>
+    <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="110"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+    </row>
+    <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="108">
         <v>9</v>
       </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="K59" s="56"/>
-    </row>
-    <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="60"/>
-    </row>
-    <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="99"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="71"/>
-    </row>
-    <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="99"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-    </row>
-    <row r="63" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-    </row>
-    <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="K64" s="56"/>
-    </row>
-    <row r="65" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="K65" s="56"/>
-    </row>
-    <row r="66" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57">
+      <c r="B71" s="61"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="K71" s="56"/>
+    </row>
+    <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="109"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="60"/>
+    </row>
+    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="109"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="71"/>
+    </row>
+    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="109"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+    </row>
+    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="110"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+    </row>
+    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="K76" s="56"/>
+    </row>
+    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="57"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="K77" s="56"/>
+    </row>
+    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="57">
         <v>10</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="K66" s="56"/>
-    </row>
-    <row r="67" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="K67" s="56"/>
-    </row>
-    <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="K68" s="56"/>
-    </row>
-    <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="98">
+      <c r="B78" s="61"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="K78" s="56"/>
+    </row>
+    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="57"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="K79" s="56"/>
+    </row>
+    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="62"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="K80" s="56"/>
+    </row>
+    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="108">
         <v>11</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="K69" s="56"/>
-    </row>
-    <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="99"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="60"/>
-    </row>
-    <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="99"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="71"/>
-    </row>
-    <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="99"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
-    </row>
-    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="100"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="K81" s="56"/>
+    </row>
+    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="109"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="60"/>
+    </row>
+    <row r="83" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="109"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="71"/>
+    </row>
+    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="109"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+    </row>
+    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="110"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A81:A85"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A25:A33"/>
@@ -4542,6 +4697,10 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A14:A24"/>
     <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A54:A70"/>
+    <mergeCell ref="A71:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
     <sheet name="SAD" sheetId="2" r:id="rId2"/>
-    <sheet name="Other" sheetId="3" r:id="rId3"/>
+    <sheet name="SAD-Rework" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEP!$A$6:$H$6</definedName>
@@ -327,11 +327,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +759,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,27 +798,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,16 +808,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,7 +905,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -940,7 +939,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1116,14 +1114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
@@ -1138,19 +1136,19 @@
     <col min="11" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="E2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="D3" s="24"/>
       <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1163,7 @@
       </c>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1">
       <c r="C5" s="26"/>
       <c r="J5" s="24" t="s">
         <v>13</v>
@@ -1174,7 +1172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="26.25" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1204,11 +1202,11 @@
       </c>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101">
+    <row r="7" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A7" s="103">
         <v>1</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="100">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1233,9 +1231,9 @@
       </c>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="104"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="104"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1258,9 +1256,9 @@
       </c>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="103"/>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="104"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1285,9 +1283,9 @@
       </c>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="102">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="104"/>
+      <c r="B10" s="100">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1312,9 +1310,9 @@
       </c>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="104"/>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="104"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1337,9 +1335,9 @@
       </c>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="103"/>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="104"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1364,9 +1362,9 @@
       </c>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="102">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A13" s="104"/>
+      <c r="B13" s="100">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1393,9 +1391,9 @@
       </c>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="104"/>
+    <row r="14" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A14" s="104"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1420,9 +1418,9 @@
       </c>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="104"/>
+    <row r="15" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A15" s="104"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1445,9 +1443,9 @@
       </c>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="104"/>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A16" s="104"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1467,9 +1465,9 @@
       <c r="I16" s="92"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="103"/>
+    <row r="17" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A17" s="104"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1489,9 +1487,9 @@
       <c r="I17" s="92"/>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="102">
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A18" s="104"/>
+      <c r="B18" s="100">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1513,9 +1511,9 @@
       <c r="I18" s="92"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="103"/>
+    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A19" s="104"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1535,8 +1533,8 @@
       <c r="I19" s="92"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
+    <row r="20" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A20" s="105"/>
       <c r="B20" s="3"/>
       <c r="C20" s="84"/>
       <c r="D20" s="44"/>
@@ -1547,11 +1545,11 @@
       <c r="I20" s="92"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101">
+    <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A21" s="103">
         <v>2</v>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="100">
         <v>41057</v>
       </c>
       <c r="C21" s="85" t="s">
@@ -1573,9 +1571,9 @@
       <c r="I21" s="92"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="104"/>
+    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A22" s="104"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1595,9 +1593,9 @@
       <c r="I22" s="92"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="104"/>
+    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A23" s="104"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1617,8 +1615,8 @@
       <c r="I23" s="92"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
+    <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A24" s="104"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1640,9 +1638,9 @@
       <c r="H24" s="42"/>
       <c r="I24" s="92"/>
     </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="102">
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A25" s="104"/>
+      <c r="B25" s="100">
         <v>41059</v>
       </c>
       <c r="C25" s="81">
@@ -1663,9 +1661,9 @@
       <c r="H25" s="83"/>
       <c r="I25" s="92"/>
     </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="103"/>
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A26" s="104"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="81">
         <v>0.57986111111111105</v>
       </c>
@@ -1686,9 +1684,9 @@
       </c>
       <c r="I26" s="92"/>
     </row>
-    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="102">
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A27" s="104"/>
+      <c r="B27" s="100">
         <v>41060</v>
       </c>
       <c r="C27" s="81">
@@ -1709,9 +1707,9 @@
       <c r="H27" s="83"/>
       <c r="I27" s="92"/>
     </row>
-    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
-      <c r="B28" s="103"/>
+    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A28" s="104"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="81">
         <v>0.54166666666666663</v>
       </c>
@@ -1730,9 +1728,9 @@
       <c r="H28" s="83"/>
       <c r="I28" s="92"/>
     </row>
-    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96"/>
-      <c r="B29" s="102">
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A29" s="104"/>
+      <c r="B29" s="100">
         <v>41062</v>
       </c>
       <c r="C29" s="81">
@@ -1753,9 +1751,9 @@
       <c r="H29" s="83"/>
       <c r="I29" s="92"/>
     </row>
-    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="104"/>
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="104"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="81">
         <v>0.41666666666666669</v>
       </c>
@@ -1774,9 +1772,9 @@
       <c r="H30" s="83"/>
       <c r="I30" s="92"/>
     </row>
-    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="104"/>
+    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A31" s="104"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="81">
         <v>0.52777777777777779</v>
       </c>
@@ -1795,9 +1793,9 @@
       <c r="H31" s="83"/>
       <c r="I31" s="92"/>
     </row>
-    <row r="32" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="96"/>
-      <c r="B32" s="104"/>
+    <row r="32" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A32" s="104"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="81">
         <v>0.69097222222222221</v>
       </c>
@@ -1816,9 +1814,9 @@
       <c r="H32" s="83"/>
       <c r="I32" s="92"/>
     </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96"/>
-      <c r="B33" s="103"/>
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="104"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="81">
         <v>0.88541666666666663</v>
       </c>
@@ -1837,8 +1835,8 @@
       <c r="H33" s="83"/>
       <c r="I33" s="92"/>
     </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A34" s="104"/>
       <c r="B34" s="90">
         <v>41063</v>
       </c>
@@ -1860,8 +1858,8 @@
       <c r="H34" s="83"/>
       <c r="I34" s="92"/>
     </row>
-    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
+    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A35" s="105"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1871,11 +1869,11 @@
       <c r="H35" s="46"/>
       <c r="I35" s="92"/>
     </row>
-    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="101">
+    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A36" s="103">
         <v>3</v>
       </c>
-      <c r="B36" s="102">
+      <c r="B36" s="100">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1897,9 +1895,9 @@
       <c r="I36" s="92"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="103"/>
+    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A37" s="104"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1919,9 +1917,9 @@
       <c r="I37" s="92"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="102">
+    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="104"/>
+      <c r="B38" s="100">
         <v>41068</v>
       </c>
       <c r="C38" s="85" t="s">
@@ -1943,9 +1941,9 @@
       <c r="I38" s="92"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="104"/>
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A39" s="104"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -1965,9 +1963,9 @@
       <c r="I39" s="92"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="96"/>
-      <c r="B40" s="103"/>
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="104"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -1987,8 +1985,8 @@
       <c r="I40" s="92"/>
       <c r="K40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="96"/>
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="104"/>
       <c r="B41" s="3">
         <v>41069</v>
       </c>
@@ -2011,8 +2009,8 @@
       <c r="I41" s="92"/>
       <c r="K41" s="27"/>
     </row>
-    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A42" s="105"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2023,11 +2021,11 @@
       <c r="I42" s="92"/>
       <c r="K42" s="27"/>
     </row>
-    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="101">
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A43" s="103">
         <v>4</v>
       </c>
-      <c r="B43" s="102">
+      <c r="B43" s="100">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -2049,9 +2047,9 @@
       <c r="I43" s="92"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="96"/>
-      <c r="B44" s="104"/>
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A44" s="104"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2071,9 +2069,9 @@
       <c r="I44" s="92"/>
       <c r="K44" s="27"/>
     </row>
-    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="103"/>
+    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A45" s="104"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2093,8 +2091,8 @@
       <c r="I45" s="92"/>
       <c r="K45" s="27"/>
     </row>
-    <row r="46" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A46" s="104"/>
       <c r="B46" s="9">
         <v>41072</v>
       </c>
@@ -2116,9 +2114,9 @@
       <c r="H46" s="5"/>
       <c r="I46" s="92"/>
     </row>
-    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="96"/>
-      <c r="B47" s="102">
+    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A47" s="104"/>
+      <c r="B47" s="100">
         <v>41073</v>
       </c>
       <c r="C47" s="13">
@@ -2139,9 +2137,9 @@
       <c r="H47" s="15"/>
       <c r="I47" s="92"/>
     </row>
-    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="96"/>
-      <c r="B48" s="103"/>
+    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="104"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="40">
         <v>0.44791666666666669</v>
       </c>
@@ -2160,8 +2158,8 @@
       <c r="H48" s="42"/>
       <c r="I48" s="92"/>
     </row>
-    <row r="49" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="96"/>
+    <row r="49" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A49" s="104"/>
       <c r="B49" s="91">
         <v>41075</v>
       </c>
@@ -2183,8 +2181,8 @@
       <c r="H49" s="83"/>
       <c r="I49" s="92"/>
     </row>
-    <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
+    <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1">
+      <c r="A50" s="104"/>
       <c r="B50" s="91">
         <v>41076</v>
       </c>
@@ -2206,9 +2204,9 @@
       <c r="H50" s="83"/>
       <c r="I50" s="92"/>
     </row>
-    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="96"/>
-      <c r="B51" s="102">
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A51" s="104"/>
+      <c r="B51" s="100">
         <v>41077</v>
       </c>
       <c r="C51" s="81">
@@ -2229,9 +2227,9 @@
       <c r="H51" s="83"/>
       <c r="I51" s="92"/>
     </row>
-    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="96"/>
-      <c r="B52" s="104"/>
+    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A52" s="104"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="81">
         <v>0.57291666666666663</v>
       </c>
@@ -2250,9 +2248,9 @@
       <c r="H52" s="83"/>
       <c r="I52" s="92"/>
     </row>
-    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
-      <c r="B53" s="103"/>
+    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A53" s="105"/>
+      <c r="B53" s="102"/>
       <c r="C53" s="44">
         <v>0.35416666666666669</v>
       </c>
@@ -2271,11 +2269,11 @@
       <c r="H53" s="46"/>
       <c r="I53" s="92"/>
     </row>
-    <row r="54" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="101">
+    <row r="54" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A54" s="103">
         <v>5</v>
       </c>
-      <c r="B54" s="102">
+      <c r="B54" s="100">
         <v>41078</v>
       </c>
       <c r="C54" s="4">
@@ -2297,9 +2295,9 @@
       <c r="I54" s="92"/>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="96"/>
-      <c r="B55" s="103"/>
+    <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A55" s="104"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="4">
         <v>0.375</v>
       </c>
@@ -2319,9 +2317,9 @@
       <c r="I55" s="92"/>
       <c r="K55" s="27"/>
     </row>
-    <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="96"/>
-      <c r="B56" s="102">
+    <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A56" s="104"/>
+      <c r="B56" s="100">
         <v>41079</v>
       </c>
       <c r="C56" s="4">
@@ -2343,9 +2341,9 @@
       <c r="I56" s="92"/>
       <c r="K56" s="27"/>
     </row>
-    <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="96"/>
-      <c r="B57" s="103"/>
+    <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A57" s="104"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="4">
         <v>0.55208333333333337</v>
       </c>
@@ -2365,9 +2363,9 @@
       <c r="I57" s="92"/>
       <c r="K57" s="27"/>
     </row>
-    <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="96"/>
-      <c r="B58" s="102">
+    <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A58" s="104"/>
+      <c r="B58" s="100">
         <v>41080</v>
       </c>
       <c r="C58" s="4">
@@ -2389,9 +2387,9 @@
       <c r="I58" s="92"/>
       <c r="K58" s="27"/>
     </row>
-    <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="96"/>
-      <c r="B59" s="103"/>
+    <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A59" s="104"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -2411,9 +2409,9 @@
       <c r="I59" s="92"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="96"/>
-      <c r="B60" s="102">
+    <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A60" s="104"/>
+      <c r="B60" s="100">
         <v>41081</v>
       </c>
       <c r="C60" s="4">
@@ -2435,9 +2433,9 @@
       <c r="I60" s="92"/>
       <c r="K60" s="27"/>
     </row>
-    <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="96"/>
-      <c r="B61" s="104"/>
+    <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A61" s="104"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2457,9 +2455,9 @@
       <c r="I61" s="92"/>
       <c r="K61" s="27"/>
     </row>
-    <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="96"/>
-      <c r="B62" s="104"/>
+    <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A62" s="104"/>
+      <c r="B62" s="101"/>
       <c r="C62" s="4">
         <v>0.5625</v>
       </c>
@@ -2479,9 +2477,9 @@
       <c r="I62" s="92"/>
       <c r="K62" s="27"/>
     </row>
-    <row r="63" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="96"/>
-      <c r="B63" s="104"/>
+    <row r="63" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A63" s="104"/>
+      <c r="B63" s="101"/>
       <c r="C63" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2501,9 +2499,9 @@
       <c r="I63" s="92"/>
       <c r="K63" s="27"/>
     </row>
-    <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="96"/>
-      <c r="B64" s="104"/>
+    <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A64" s="104"/>
+      <c r="B64" s="101"/>
       <c r="C64" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -2523,9 +2521,9 @@
       <c r="I64" s="92"/>
       <c r="K64" s="27"/>
     </row>
-    <row r="65" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="96"/>
-      <c r="B65" s="103"/>
+    <row r="65" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A65" s="104"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="4">
         <v>0.90625</v>
       </c>
@@ -2545,9 +2543,9 @@
       <c r="I65" s="92"/>
       <c r="K65" s="27"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="96"/>
-      <c r="B66" s="102">
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A66" s="104"/>
+      <c r="B66" s="100">
         <v>41082</v>
       </c>
       <c r="C66" s="4">
@@ -2569,9 +2567,9 @@
       <c r="I66" s="92"/>
       <c r="K66" s="27"/>
     </row>
-    <row r="67" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="96"/>
-      <c r="B67" s="104"/>
+    <row r="67" spans="1:11" ht="51.75" thickBot="1">
+      <c r="A67" s="104"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -2591,9 +2589,9 @@
       <c r="I67" s="92"/>
       <c r="K67" s="27"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="96"/>
-      <c r="B68" s="103"/>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A68" s="104"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="4">
         <v>0.74652777777777779</v>
       </c>
@@ -2613,8 +2611,8 @@
       <c r="I68" s="92"/>
       <c r="K68" s="27"/>
     </row>
-    <row r="69" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="96"/>
+    <row r="69" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A69" s="104"/>
       <c r="B69" s="3">
         <v>41083</v>
       </c>
@@ -2637,8 +2635,8 @@
       <c r="I69" s="92"/>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="96"/>
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A70" s="104"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2649,8 +2647,8 @@
       <c r="I70" s="92"/>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="96"/>
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A71" s="104"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2661,8 +2659,8 @@
       <c r="I71" s="92"/>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="96"/>
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A72" s="104"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2673,8 +2671,8 @@
       <c r="I72" s="92"/>
       <c r="K72" s="27"/>
     </row>
-    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
+    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A73" s="105"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2685,7 +2683,7 @@
       <c r="I73" s="92"/>
       <c r="K73" s="27"/>
     </row>
-    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A74" s="28"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -2697,7 +2695,7 @@
       <c r="I74" s="92"/>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A75" s="30"/>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -2708,7 +2706,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="92"/>
     </row>
-    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A76" s="28">
         <v>6</v>
       </c>
@@ -2721,7 +2719,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="92"/>
     </row>
-    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A77" s="30"/>
       <c r="B77" s="39"/>
       <c r="C77" s="40"/>
@@ -2732,7 +2730,7 @@
       <c r="H77" s="42"/>
       <c r="I77" s="92"/>
     </row>
-    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A78" s="29"/>
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
@@ -2743,7 +2741,7 @@
       <c r="H78" s="46"/>
       <c r="I78" s="92"/>
     </row>
-    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A79" s="28"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -2755,7 +2753,7 @@
       <c r="I79" s="92"/>
       <c r="K79" s="27"/>
     </row>
-    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A80" s="28"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -2767,7 +2765,7 @@
       <c r="I80" s="92"/>
       <c r="K80" s="27"/>
     </row>
-    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A81" s="28">
         <v>7</v>
       </c>
@@ -2781,7 +2779,7 @@
       <c r="I81" s="92"/>
       <c r="K81" s="27"/>
     </row>
-    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A82" s="28"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -2793,7 +2791,7 @@
       <c r="I82" s="92"/>
       <c r="K82" s="27"/>
     </row>
-    <row r="83" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="26.25" thickBot="1">
       <c r="A83" s="29"/>
       <c r="B83" s="93">
         <v>41098</v>
@@ -2817,11 +2815,11 @@
       <c r="I83" s="92"/>
       <c r="K83" s="27"/>
     </row>
-    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="96">
+    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A84" s="104">
         <v>8</v>
       </c>
-      <c r="B84" s="98">
+      <c r="B84" s="106">
         <v>41099</v>
       </c>
       <c r="C84" s="4">
@@ -2843,9 +2841,9 @@
       <c r="I84" s="92"/>
       <c r="K84" s="27"/>
     </row>
-    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="96"/>
-      <c r="B85" s="99"/>
+    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A85" s="104"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="4">
         <v>0.4993055555555555</v>
       </c>
@@ -2865,9 +2863,9 @@
       <c r="I85" s="92"/>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="96"/>
-      <c r="B86" s="100"/>
+    <row r="86" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A86" s="104"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2887,9 +2885,9 @@
       <c r="I86" s="92"/>
       <c r="K86" s="27"/>
     </row>
-    <row r="87" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="96"/>
-      <c r="B87" s="98">
+    <row r="87" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A87" s="104"/>
+      <c r="B87" s="106">
         <v>41100</v>
       </c>
       <c r="C87" s="4">
@@ -2911,9 +2909,9 @@
       <c r="I87" s="92"/>
       <c r="K87" s="27"/>
     </row>
-    <row r="88" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="96"/>
-      <c r="B88" s="99"/>
+    <row r="88" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A88" s="104"/>
+      <c r="B88" s="107"/>
       <c r="C88" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -2933,9 +2931,9 @@
       <c r="I88" s="92"/>
       <c r="K88" s="27"/>
     </row>
-    <row r="89" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="96"/>
-      <c r="B89" s="100"/>
+    <row r="89" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A89" s="104"/>
+      <c r="B89" s="108"/>
       <c r="C89" s="4">
         <v>0.90625</v>
       </c>
@@ -2955,9 +2953,9 @@
       <c r="I89" s="92"/>
       <c r="K89" s="27"/>
     </row>
-    <row r="90" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="96"/>
-      <c r="B90" s="98">
+    <row r="90" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A90" s="104"/>
+      <c r="B90" s="106">
         <v>41101</v>
       </c>
       <c r="C90" s="4">
@@ -2981,9 +2979,9 @@
       <c r="I90" s="92"/>
       <c r="K90" s="27"/>
     </row>
-    <row r="91" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="96"/>
-      <c r="B91" s="99"/>
+    <row r="91" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A91" s="104"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -3003,9 +3001,9 @@
       <c r="I91" s="92"/>
       <c r="K91" s="27"/>
     </row>
-    <row r="92" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="96"/>
-      <c r="B92" s="99"/>
+    <row r="92" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A92" s="104"/>
+      <c r="B92" s="107"/>
       <c r="C92" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -3027,9 +3025,9 @@
       <c r="I92" s="92"/>
       <c r="K92" s="27"/>
     </row>
-    <row r="93" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="96"/>
-      <c r="B93" s="100"/>
+    <row r="93" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A93" s="104"/>
+      <c r="B93" s="108"/>
       <c r="C93" s="4">
         <v>0.65625</v>
       </c>
@@ -3051,9 +3049,9 @@
       <c r="I93" s="92"/>
       <c r="K93" s="27"/>
     </row>
-    <row r="94" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="96"/>
-      <c r="B94" s="111">
+    <row r="94" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A94" s="104"/>
+      <c r="B94" s="97">
         <v>41102</v>
       </c>
       <c r="C94" s="64">
@@ -3077,9 +3075,9 @@
       <c r="I94" s="92"/>
       <c r="K94" s="27"/>
     </row>
-    <row r="95" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="96"/>
-      <c r="B95" s="112"/>
+    <row r="95" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A95" s="104"/>
+      <c r="B95" s="98"/>
       <c r="C95" s="94">
         <v>0.47222222222222227</v>
       </c>
@@ -3099,9 +3097,9 @@
       <c r="I95" s="92"/>
       <c r="K95" s="27"/>
     </row>
-    <row r="96" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="96"/>
-      <c r="B96" s="112"/>
+    <row r="96" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A96" s="104"/>
+      <c r="B96" s="98"/>
       <c r="C96" s="94">
         <v>0.625</v>
       </c>
@@ -3121,9 +3119,9 @@
       <c r="I96" s="92"/>
       <c r="K96" s="27"/>
     </row>
-    <row r="97" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="96"/>
-      <c r="B97" s="112"/>
+    <row r="97" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A97" s="104"/>
+      <c r="B97" s="98"/>
       <c r="C97" s="94">
         <v>0.67708333333333337</v>
       </c>
@@ -3143,9 +3141,9 @@
       <c r="I97" s="92"/>
       <c r="K97" s="27"/>
     </row>
-    <row r="98" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="96"/>
-      <c r="B98" s="112"/>
+    <row r="98" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A98" s="104"/>
+      <c r="B98" s="98"/>
       <c r="C98" s="94">
         <v>0.70833333333333337</v>
       </c>
@@ -3165,9 +3163,9 @@
       <c r="I98" s="92"/>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="96"/>
-      <c r="B99" s="113"/>
+    <row r="99" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A99" s="104"/>
+      <c r="B99" s="99"/>
       <c r="C99" s="94">
         <v>0.75694444444444453</v>
       </c>
@@ -3187,9 +3185,9 @@
       <c r="I99" s="92"/>
       <c r="K99" s="27"/>
     </row>
-    <row r="100" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="96"/>
-      <c r="B100" s="111">
+    <row r="100" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A100" s="104"/>
+      <c r="B100" s="97">
         <v>41103</v>
       </c>
       <c r="C100" s="94">
@@ -3211,9 +3209,9 @@
       <c r="I100" s="92"/>
       <c r="K100" s="27"/>
     </row>
-    <row r="101" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="96"/>
-      <c r="B101" s="112"/>
+    <row r="101" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A101" s="104"/>
+      <c r="B101" s="98"/>
       <c r="C101" s="94">
         <v>0.19097222222222221</v>
       </c>
@@ -3235,9 +3233,9 @@
       <c r="I101" s="92"/>
       <c r="K101" s="27"/>
     </row>
-    <row r="102" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="96"/>
-      <c r="B102" s="112"/>
+    <row r="102" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A102" s="104"/>
+      <c r="B102" s="98"/>
       <c r="C102" s="94"/>
       <c r="D102" s="94"/>
       <c r="E102" s="95"/>
@@ -3247,9 +3245,9 @@
       <c r="I102" s="92"/>
       <c r="K102" s="27"/>
     </row>
-    <row r="103" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="96"/>
-      <c r="B103" s="112"/>
+    <row r="103" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A103" s="104"/>
+      <c r="B103" s="98"/>
       <c r="C103" s="94"/>
       <c r="D103" s="94"/>
       <c r="E103" s="95"/>
@@ -3258,9 +3256,9 @@
       <c r="H103" s="86"/>
       <c r="I103" s="92"/>
     </row>
-    <row r="104" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="96"/>
-      <c r="B104" s="113"/>
+    <row r="104" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A104" s="104"/>
+      <c r="B104" s="99"/>
       <c r="C104" s="94"/>
       <c r="D104" s="94"/>
       <c r="E104" s="95"/>
@@ -3269,8 +3267,8 @@
       <c r="H104" s="86"/>
       <c r="I104" s="92"/>
     </row>
-    <row r="105" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="96"/>
+    <row r="105" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A105" s="104"/>
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
       <c r="D105" s="40"/>
@@ -3280,8 +3278,8 @@
       <c r="H105" s="42"/>
       <c r="I105" s="92"/>
     </row>
-    <row r="106" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
+    <row r="106" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A106" s="105"/>
       <c r="B106" s="43"/>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -3291,7 +3289,7 @@
       <c r="H106" s="46"/>
       <c r="I106" s="92"/>
     </row>
-    <row r="107" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A107" s="28"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
@@ -3303,7 +3301,7 @@
       <c r="I107" s="92"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A108" s="30"/>
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
@@ -3314,7 +3312,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="92"/>
     </row>
-    <row r="109" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A109" s="28">
         <v>9</v>
       </c>
@@ -3327,7 +3325,7 @@
       <c r="H109" s="15"/>
       <c r="I109" s="92"/>
     </row>
-    <row r="110" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A110" s="30"/>
       <c r="B110" s="39"/>
       <c r="C110" s="40"/>
@@ -3338,7 +3336,7 @@
       <c r="H110" s="42"/>
       <c r="I110" s="92"/>
     </row>
-    <row r="111" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A111" s="29"/>
       <c r="B111" s="43"/>
       <c r="C111" s="44"/>
@@ -3349,7 +3347,7 @@
       <c r="H111" s="46"/>
       <c r="I111" s="92"/>
     </row>
-    <row r="112" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A112" s="28"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -3361,7 +3359,7 @@
       <c r="I112" s="92"/>
       <c r="K112" s="27"/>
     </row>
-    <row r="113" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A113" s="28"/>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
@@ -3373,7 +3371,7 @@
       <c r="I113" s="92"/>
       <c r="K113" s="27"/>
     </row>
-    <row r="114" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A114" s="28">
         <v>10</v>
       </c>
@@ -3387,7 +3385,7 @@
       <c r="I114" s="92"/>
       <c r="K114" s="27"/>
     </row>
-    <row r="115" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A115" s="28"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
@@ -3399,7 +3397,7 @@
       <c r="I115" s="92"/>
       <c r="K115" s="27"/>
     </row>
-    <row r="116" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A116" s="29"/>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
@@ -3411,7 +3409,7 @@
       <c r="I116" s="92"/>
       <c r="K116" s="27"/>
     </row>
-    <row r="117" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A117" s="28"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
@@ -3423,7 +3421,7 @@
       <c r="I117" s="92"/>
       <c r="K117" s="27"/>
     </row>
-    <row r="118" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A118" s="30"/>
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
@@ -3434,7 +3432,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="92"/>
     </row>
-    <row r="119" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A119" s="28">
         <v>11</v>
       </c>
@@ -3447,7 +3445,7 @@
       <c r="H119" s="15"/>
       <c r="I119" s="92"/>
     </row>
-    <row r="120" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A120" s="30"/>
       <c r="B120" s="39"/>
       <c r="C120" s="40"/>
@@ -3458,7 +3456,7 @@
       <c r="H120" s="42"/>
       <c r="I120" s="92"/>
     </row>
-    <row r="121" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A121" s="29"/>
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
@@ -3472,6 +3470,19 @@
   </sheetData>
   <autoFilter ref="A6:H6"/>
   <mergeCells count="29">
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B65"/>
     <mergeCell ref="B94:B99"/>
     <mergeCell ref="B100:B104"/>
     <mergeCell ref="B66:B68"/>
@@ -3488,19 +3499,6 @@
     <mergeCell ref="A84:A106"/>
     <mergeCell ref="B90:B93"/>
     <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A54:A73"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3508,14 +3506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="47" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="48"/>
@@ -3530,19 +3528,19 @@
     <col min="11" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="E2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="D3" s="49"/>
       <c r="J3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3554,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1">
       <c r="C5" s="53"/>
       <c r="J5" s="49" t="s">
         <v>13</v>
@@ -3565,7 +3563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="26.25" thickBot="1">
       <c r="A6" s="54" t="s">
         <v>0</v>
       </c>
@@ -3595,11 +3593,11 @@
       </c>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A7" s="109">
         <v>1</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="97">
         <v>41052</v>
       </c>
       <c r="C7" s="58">
@@ -3623,9 +3621,9 @@
       </c>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
+    <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A8" s="110"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="58">
         <v>0.51041666666666663</v>
       </c>
@@ -3647,9 +3645,9 @@
       </c>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="112"/>
+    <row r="9" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="110"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="58">
         <v>0.5625</v>
       </c>
@@ -3673,9 +3671,9 @@
       </c>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="113"/>
+    <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="58">
         <v>0.59722222222222221</v>
       </c>
@@ -3699,8 +3697,8 @@
       </c>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+    <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A11" s="110"/>
       <c r="B11" s="61">
         <v>41053</v>
       </c>
@@ -3725,8 +3723,8 @@
       </c>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A12" s="110"/>
       <c r="B12" s="61">
         <v>41054</v>
       </c>
@@ -3751,8 +3749,8 @@
       </c>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A13" s="111"/>
       <c r="B13" s="61"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -3765,11 +3763,11 @@
       </c>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A14" s="109">
         <v>2</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="112">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -3790,9 +3788,9 @@
       <c r="H14" s="71"/>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="106"/>
+    <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1">
+      <c r="A15" s="110"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -3810,9 +3808,9 @@
       </c>
       <c r="H15" s="75"/>
     </row>
-    <row r="16" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="107"/>
+    <row r="16" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A16" s="110"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="58">
         <v>0.92708333333333337</v>
       </c>
@@ -3832,9 +3830,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="105">
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A17" s="110"/>
+      <c r="B17" s="112">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -3854,9 +3852,9 @@
       </c>
       <c r="H17" s="75"/>
     </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="106"/>
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A18" s="110"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="58">
         <v>0.54861111111111105</v>
       </c>
@@ -3874,9 +3872,9 @@
       </c>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="107"/>
+    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A19" s="110"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -3896,8 +3894,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
+    <row r="20" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A20" s="110"/>
       <c r="B20" s="89">
         <v>41061</v>
       </c>
@@ -3918,9 +3916,9 @@
       </c>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="105">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="110"/>
+      <c r="B21" s="112">
         <v>41063</v>
       </c>
       <c r="C21" s="80" t="s">
@@ -3940,9 +3938,9 @@
       </c>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="107"/>
+    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A22" s="110"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -3960,8 +3958,8 @@
       </c>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
+    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A23" s="110"/>
       <c r="B23" s="87">
         <v>41064</v>
       </c>
@@ -3982,8 +3980,8 @@
       </c>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
+    <row r="24" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A24" s="111"/>
       <c r="B24" s="76"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
@@ -3992,8 +3990,8 @@
       <c r="G24" s="60"/>
       <c r="H24" s="86"/>
     </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A25" s="109">
         <v>3</v>
       </c>
       <c r="B25" s="61">
@@ -4017,8 +4015,8 @@
       <c r="H25" s="60"/>
       <c r="K25" s="56"/>
     </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A26" s="110"/>
       <c r="B26" s="61">
         <v>41067</v>
       </c>
@@ -4040,8 +4038,8 @@
       <c r="H26" s="60"/>
       <c r="K26" s="56"/>
     </row>
-    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A27" s="110"/>
       <c r="B27" s="61"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -4051,8 +4049,8 @@
       <c r="H27" s="60"/>
       <c r="K27" s="56"/>
     </row>
-    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
+    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A28" s="110"/>
       <c r="B28" s="61"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -4062,8 +4060,8 @@
       <c r="H28" s="60"/>
       <c r="K28" s="56"/>
     </row>
-    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A29" s="110"/>
       <c r="B29" s="61"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -4073,8 +4071,8 @@
       <c r="H29" s="60"/>
       <c r="K29" s="56"/>
     </row>
-    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="110"/>
       <c r="B30" s="61"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -4084,8 +4082,8 @@
       <c r="H30" s="60"/>
       <c r="K30" s="56"/>
     </row>
-    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
+    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A31" s="110"/>
       <c r="B31" s="61"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -4095,8 +4093,8 @@
       <c r="H31" s="60"/>
       <c r="K31" s="56"/>
     </row>
-    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
+    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="110"/>
       <c r="B32" s="61"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -4106,8 +4104,8 @@
       <c r="H32" s="60"/>
       <c r="K32" s="56"/>
     </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="111"/>
       <c r="B33" s="61"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
@@ -4117,8 +4115,8 @@
       <c r="H33" s="60"/>
       <c r="K33" s="56"/>
     </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108">
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A34" s="109">
         <v>4</v>
       </c>
       <c r="B34" s="61"/>
@@ -4130,8 +4128,8 @@
       <c r="H34" s="60"/>
       <c r="K34" s="56"/>
     </row>
-    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A35" s="110"/>
       <c r="B35" s="63"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -4140,8 +4138,8 @@
       <c r="G35" s="66"/>
       <c r="H35" s="60"/>
     </row>
-    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
+    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A36" s="110"/>
       <c r="B36" s="67"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -4150,8 +4148,8 @@
       <c r="G36" s="70"/>
       <c r="H36" s="71"/>
     </row>
-    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A37" s="110"/>
       <c r="B37" s="72"/>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -4160,8 +4158,8 @@
       <c r="G37" s="75"/>
       <c r="H37" s="75"/>
     </row>
-    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
+    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="111"/>
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
@@ -4170,8 +4168,8 @@
       <c r="G38" s="79"/>
       <c r="H38" s="79"/>
     </row>
-    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A39" s="109">
         <v>5</v>
       </c>
       <c r="B39" s="61"/>
@@ -4183,8 +4181,8 @@
       <c r="H39" s="60"/>
       <c r="K39" s="56"/>
     </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="110"/>
       <c r="B40" s="61"/>
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
@@ -4194,8 +4192,8 @@
       <c r="H40" s="60"/>
       <c r="K40" s="56"/>
     </row>
-    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="110"/>
       <c r="B41" s="61"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
@@ -4205,8 +4203,8 @@
       <c r="H41" s="60"/>
       <c r="K41" s="56"/>
     </row>
-    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A42" s="110"/>
       <c r="B42" s="61"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
@@ -4216,8 +4214,8 @@
       <c r="H42" s="60"/>
       <c r="K42" s="56"/>
     </row>
-    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A43" s="111"/>
       <c r="B43" s="61"/>
       <c r="C43" s="58"/>
       <c r="D43" s="58"/>
@@ -4227,8 +4225,8 @@
       <c r="H43" s="60"/>
       <c r="K43" s="56"/>
     </row>
-    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="108">
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A44" s="109">
         <v>6</v>
       </c>
       <c r="B44" s="61"/>
@@ -4240,8 +4238,8 @@
       <c r="H44" s="60"/>
       <c r="K44" s="56"/>
     </row>
-    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
+    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A45" s="110"/>
       <c r="B45" s="63"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
@@ -4250,8 +4248,8 @@
       <c r="G45" s="66"/>
       <c r="H45" s="60"/>
     </row>
-    <row r="46" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
+    <row r="46" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="110"/>
       <c r="B46" s="67"/>
       <c r="C46" s="68"/>
       <c r="D46" s="68"/>
@@ -4260,8 +4258,8 @@
       <c r="G46" s="70"/>
       <c r="H46" s="71"/>
     </row>
-    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
+    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A47" s="110"/>
       <c r="B47" s="72"/>
       <c r="C47" s="73"/>
       <c r="D47" s="73"/>
@@ -4270,8 +4268,8 @@
       <c r="G47" s="75"/>
       <c r="H47" s="75"/>
     </row>
-    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
+    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="111"/>
       <c r="B48" s="76"/>
       <c r="C48" s="77"/>
       <c r="D48" s="77"/>
@@ -4280,8 +4278,8 @@
       <c r="G48" s="79"/>
       <c r="H48" s="79"/>
     </row>
-    <row r="49" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108">
+    <row r="49" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="109">
         <v>7</v>
       </c>
       <c r="B49" s="61"/>
@@ -4293,8 +4291,8 @@
       <c r="H49" s="60"/>
       <c r="K49" s="56"/>
     </row>
-    <row r="50" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
+    <row r="50" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A50" s="110"/>
       <c r="B50" s="61"/>
       <c r="C50" s="58"/>
       <c r="D50" s="58"/>
@@ -4304,8 +4302,8 @@
       <c r="H50" s="60"/>
       <c r="K50" s="56"/>
     </row>
-    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A51" s="110"/>
       <c r="B51" s="61"/>
       <c r="C51" s="58"/>
       <c r="D51" s="58"/>
@@ -4315,8 +4313,8 @@
       <c r="H51" s="60"/>
       <c r="K51" s="56"/>
     </row>
-    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
+    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A52" s="110"/>
       <c r="B52" s="61"/>
       <c r="C52" s="58"/>
       <c r="D52" s="58"/>
@@ -4326,8 +4324,8 @@
       <c r="H52" s="60"/>
       <c r="K52" s="56"/>
     </row>
-    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
+    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A53" s="111"/>
       <c r="B53" s="61"/>
       <c r="C53" s="58"/>
       <c r="D53" s="58"/>
@@ -4337,11 +4335,11 @@
       <c r="H53" s="60"/>
       <c r="K53" s="56"/>
     </row>
-    <row r="54" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="108">
+    <row r="54" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="109">
         <v>8</v>
       </c>
-      <c r="B54" s="114">
+      <c r="B54" s="96">
         <v>41100</v>
       </c>
       <c r="C54" s="4">
@@ -4362,8 +4360,8 @@
       <c r="H54" s="60"/>
       <c r="K54" s="56"/>
     </row>
-    <row r="55" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
+    <row r="55" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A55" s="110"/>
       <c r="B55" s="76"/>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
@@ -4372,8 +4370,8 @@
       <c r="G55" s="66"/>
       <c r="H55" s="60"/>
     </row>
-    <row r="56" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
+    <row r="56" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A56" s="110"/>
       <c r="B56" s="76"/>
       <c r="C56" s="94"/>
       <c r="D56" s="94"/>
@@ -4382,8 +4380,8 @@
       <c r="G56" s="86"/>
       <c r="H56" s="86"/>
     </row>
-    <row r="57" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
+    <row r="57" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A57" s="110"/>
       <c r="B57" s="76"/>
       <c r="C57" s="94"/>
       <c r="D57" s="94"/>
@@ -4392,8 +4390,8 @@
       <c r="G57" s="86"/>
       <c r="H57" s="86"/>
     </row>
-    <row r="58" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
+    <row r="58" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A58" s="110"/>
       <c r="B58" s="76"/>
       <c r="C58" s="94"/>
       <c r="D58" s="94"/>
@@ -4402,8 +4400,8 @@
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
     </row>
-    <row r="59" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
+    <row r="59" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A59" s="110"/>
       <c r="B59" s="76"/>
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
@@ -4412,8 +4410,8 @@
       <c r="G59" s="86"/>
       <c r="H59" s="86"/>
     </row>
-    <row r="60" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
+    <row r="60" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A60" s="110"/>
       <c r="B60" s="76"/>
       <c r="C60" s="94"/>
       <c r="D60" s="94"/>
@@ -4422,8 +4420,8 @@
       <c r="G60" s="86"/>
       <c r="H60" s="86"/>
     </row>
-    <row r="61" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
+    <row r="61" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A61" s="110"/>
       <c r="B61" s="76"/>
       <c r="C61" s="94"/>
       <c r="D61" s="94"/>
@@ -4432,8 +4430,8 @@
       <c r="G61" s="86"/>
       <c r="H61" s="86"/>
     </row>
-    <row r="62" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
+    <row r="62" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A62" s="110"/>
       <c r="B62" s="76"/>
       <c r="C62" s="94"/>
       <c r="D62" s="94"/>
@@ -4442,8 +4440,8 @@
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
     </row>
-    <row r="63" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="109"/>
+    <row r="63" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A63" s="110"/>
       <c r="B63" s="76"/>
       <c r="C63" s="94"/>
       <c r="D63" s="94"/>
@@ -4452,8 +4450,8 @@
       <c r="G63" s="86"/>
       <c r="H63" s="86"/>
     </row>
-    <row r="64" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
+    <row r="64" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A64" s="110"/>
       <c r="B64" s="76"/>
       <c r="C64" s="94"/>
       <c r="D64" s="94"/>
@@ -4462,8 +4460,8 @@
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
     </row>
-    <row r="65" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="109"/>
+    <row r="65" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A65" s="110"/>
       <c r="B65" s="76"/>
       <c r="C65" s="94"/>
       <c r="D65" s="94"/>
@@ -4472,8 +4470,8 @@
       <c r="G65" s="86"/>
       <c r="H65" s="86"/>
     </row>
-    <row r="66" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="109"/>
+    <row r="66" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A66" s="110"/>
       <c r="B66" s="76"/>
       <c r="C66" s="94"/>
       <c r="D66" s="94"/>
@@ -4482,8 +4480,8 @@
       <c r="G66" s="86"/>
       <c r="H66" s="86"/>
     </row>
-    <row r="67" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="109"/>
+    <row r="67" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="A67" s="110"/>
       <c r="B67" s="76"/>
       <c r="C67" s="94"/>
       <c r="D67" s="94"/>
@@ -4492,8 +4490,8 @@
       <c r="G67" s="86"/>
       <c r="H67" s="86"/>
     </row>
-    <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
+    <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A68" s="110"/>
       <c r="B68" s="76"/>
       <c r="C68" s="94"/>
       <c r="D68" s="94"/>
@@ -4502,8 +4500,8 @@
       <c r="G68" s="86"/>
       <c r="H68" s="86"/>
     </row>
-    <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
+    <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A69" s="110"/>
       <c r="B69" s="72"/>
       <c r="C69" s="73"/>
       <c r="D69" s="73"/>
@@ -4512,8 +4510,8 @@
       <c r="G69" s="75"/>
       <c r="H69" s="75"/>
     </row>
-    <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
+    <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A70" s="111"/>
       <c r="B70" s="76"/>
       <c r="C70" s="77"/>
       <c r="D70" s="77"/>
@@ -4522,8 +4520,8 @@
       <c r="G70" s="79"/>
       <c r="H70" s="79"/>
     </row>
-    <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="108">
+    <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A71" s="109">
         <v>9</v>
       </c>
       <c r="B71" s="61"/>
@@ -4535,8 +4533,8 @@
       <c r="H71" s="60"/>
       <c r="K71" s="56"/>
     </row>
-    <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
+    <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A72" s="110"/>
       <c r="B72" s="63"/>
       <c r="C72" s="64"/>
       <c r="D72" s="64"/>
@@ -4545,8 +4543,8 @@
       <c r="G72" s="66"/>
       <c r="H72" s="60"/>
     </row>
-    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
+    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A73" s="110"/>
       <c r="B73" s="67"/>
       <c r="C73" s="68"/>
       <c r="D73" s="68"/>
@@ -4555,8 +4553,8 @@
       <c r="G73" s="70"/>
       <c r="H73" s="71"/>
     </row>
-    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
+    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A74" s="110"/>
       <c r="B74" s="72"/>
       <c r="C74" s="73"/>
       <c r="D74" s="73"/>
@@ -4565,8 +4563,8 @@
       <c r="G74" s="75"/>
       <c r="H74" s="75"/>
     </row>
-    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
+    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A75" s="111"/>
       <c r="B75" s="76"/>
       <c r="C75" s="77"/>
       <c r="D75" s="77"/>
@@ -4575,7 +4573,7 @@
       <c r="G75" s="79"/>
       <c r="H75" s="79"/>
     </row>
-    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A76" s="57"/>
       <c r="B76" s="61"/>
       <c r="C76" s="58"/>
@@ -4586,7 +4584,7 @@
       <c r="H76" s="60"/>
       <c r="K76" s="56"/>
     </row>
-    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A77" s="57"/>
       <c r="B77" s="61"/>
       <c r="C77" s="58"/>
@@ -4597,7 +4595,7 @@
       <c r="H77" s="60"/>
       <c r="K77" s="56"/>
     </row>
-    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A78" s="57">
         <v>10</v>
       </c>
@@ -4610,7 +4608,7 @@
       <c r="H78" s="60"/>
       <c r="K78" s="56"/>
     </row>
-    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A79" s="57"/>
       <c r="B79" s="61"/>
       <c r="C79" s="58"/>
@@ -4621,7 +4619,7 @@
       <c r="H79" s="60"/>
       <c r="K79" s="56"/>
     </row>
-    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A80" s="62"/>
       <c r="B80" s="61"/>
       <c r="C80" s="58"/>
@@ -4632,8 +4630,8 @@
       <c r="H80" s="60"/>
       <c r="K80" s="56"/>
     </row>
-    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="108">
+    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A81" s="109">
         <v>11</v>
       </c>
       <c r="B81" s="61"/>
@@ -4645,8 +4643,8 @@
       <c r="H81" s="60"/>
       <c r="K81" s="56"/>
     </row>
-    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="109"/>
+    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A82" s="110"/>
       <c r="B82" s="63"/>
       <c r="C82" s="64"/>
       <c r="D82" s="64"/>
@@ -4655,8 +4653,8 @@
       <c r="G82" s="66"/>
       <c r="H82" s="60"/>
     </row>
-    <row r="83" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="109"/>
+    <row r="83" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A83" s="110"/>
       <c r="B83" s="67"/>
       <c r="C83" s="68"/>
       <c r="D83" s="68"/>
@@ -4665,8 +4663,8 @@
       <c r="G83" s="70"/>
       <c r="H83" s="71"/>
     </row>
-    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="109"/>
+    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A84" s="110"/>
       <c r="B84" s="72"/>
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
@@ -4675,8 +4673,8 @@
       <c r="G84" s="75"/>
       <c r="H84" s="75"/>
     </row>
-    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
+    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A85" s="111"/>
       <c r="B85" s="76"/>
       <c r="C85" s="77"/>
       <c r="D85" s="77"/>
@@ -4708,14 +4706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
@@ -4732,19 +4730,19 @@
     <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="D3" s="24"/>
       <c r="L3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -4758,7 +4756,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1">
       <c r="C5" s="26"/>
       <c r="L5" s="24" t="s">
         <v>13</v>
@@ -4767,7 +4765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="26.25" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4800,7 +4798,7 @@
       </c>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -4813,7 +4811,7 @@
       <c r="J7" s="5"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -4826,7 +4824,7 @@
       <c r="J8" s="5"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="28">
         <v>1</v>
       </c>
@@ -4841,7 +4839,7 @@
       <c r="J9" s="5"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -4854,7 +4852,7 @@
       <c r="J10" s="8"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="29"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -4870,7 +4868,7 @@
       </c>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="28"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -4886,7 +4884,7 @@
       </c>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="30"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -4898,7 +4896,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="28">
         <v>2</v>
       </c>
@@ -4912,7 +4910,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="30"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -4924,7 +4922,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="29"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -4936,7 +4934,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="28"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -4949,7 +4947,7 @@
       <c r="J17" s="5"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -4962,7 +4960,7 @@
       <c r="J18" s="5"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="28">
         <v>3</v>
       </c>
@@ -4977,7 +4975,7 @@
       <c r="J19" s="5"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="28"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -4990,7 +4988,7 @@
       <c r="J20" s="8"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -5003,7 +5001,7 @@
       <c r="J21" s="8"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -5016,7 +5014,7 @@
       <c r="J22" s="5"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -5028,7 +5026,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -5042,7 +5040,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="30"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -5054,7 +5052,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -5066,7 +5064,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -5079,7 +5077,7 @@
       <c r="J27" s="5"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="28"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -5092,7 +5090,7 @@
       <c r="J28" s="5"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="28">
         <v>5</v>
       </c>
@@ -5107,7 +5105,7 @@
       <c r="J29" s="5"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -5120,7 +5118,7 @@
       <c r="J30" s="8"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="29"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -5133,7 +5131,7 @@
       <c r="J31" s="8"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -5146,7 +5144,7 @@
       <c r="J32" s="5"/>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -5158,7 +5156,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="28">
         <v>6</v>
       </c>
@@ -5172,7 +5170,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="30"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -5184,7 +5182,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
@@ -5196,7 +5194,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="28"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -5209,7 +5207,7 @@
       <c r="J37" s="5"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -5222,7 +5220,7 @@
       <c r="J38" s="5"/>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="28">
         <v>7</v>
       </c>
@@ -5237,7 +5235,7 @@
       <c r="J39" s="5"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="28"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -5250,7 +5248,7 @@
       <c r="J40" s="8"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="29"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -5263,7 +5261,7 @@
       <c r="J41" s="8"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="28"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -5276,7 +5274,7 @@
       <c r="J42" s="5"/>
       <c r="M42" s="27"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="30"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -5288,7 +5286,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="28">
         <v>8</v>
       </c>
@@ -5302,7 +5300,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
@@ -5314,7 +5312,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="29"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
@@ -5326,7 +5324,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -5339,7 +5337,7 @@
       <c r="J47" s="5"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="30"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -5351,7 +5349,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="28">
         <v>9</v>
       </c>
@@ -5365,7 +5363,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="30"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
@@ -5377,7 +5375,7 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="29"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
@@ -5389,7 +5387,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -5402,7 +5400,7 @@
       <c r="J52" s="5"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -5415,7 +5413,7 @@
       <c r="J53" s="5"/>
       <c r="M53" s="27"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="28">
         <v>10</v>
       </c>
@@ -5430,7 +5428,7 @@
       <c r="J54" s="5"/>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="28"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -5443,7 +5441,7 @@
       <c r="J55" s="8"/>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="29"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -5456,7 +5454,7 @@
       <c r="J56" s="8"/>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -5469,7 +5467,7 @@
       <c r="J57" s="5"/>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="30"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -5481,7 +5479,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="28">
         <v>11</v>
       </c>
@@ -5495,7 +5493,7 @@
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="30"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
@@ -5507,7 +5505,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="29"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
     <sheet name="SAD" sheetId="2" r:id="rId2"/>
-    <sheet name="SAD-Rework" sheetId="3" r:id="rId3"/>
+    <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEP!$A$6:$H$6</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
   <si>
     <t>Week</t>
   </si>
@@ -322,16 +322,49 @@
   </si>
   <si>
     <t>Use case description v2.0</t>
+  </si>
+  <si>
+    <t>Analyze requirements by context diagram</t>
+  </si>
+  <si>
+    <t>Analyze drivers + design</t>
+  </si>
+  <si>
+    <t>SAD-Team meeting</t>
+  </si>
+  <si>
+    <t>List Function v0.1</t>
+  </si>
+  <si>
+    <t>List Function v0.2</t>
+  </si>
+  <si>
+    <t>List Function v0.3</t>
+  </si>
+  <si>
+    <t>Analyze GUI booking room</t>
+  </si>
+  <si>
+    <t>Rework GUI booking room</t>
+  </si>
+  <si>
+    <t>Install</t>
+  </si>
+  <si>
+    <t>How to use MVC 3 tool by install Visual Studio SP1, SQL Server 2008 R2 Developer</t>
+  </si>
+  <si>
+    <t>MRBS v5.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,9 +675,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -657,9 +687,6 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -763,6 +790,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,15 +821,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -905,6 +938,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -939,6 +973,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1114,14 +1149,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
@@ -1136,19 +1171,19 @@
     <col min="11" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" s="24"/>
       <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1198,7 @@
       </c>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26"/>
       <c r="J5" s="24" t="s">
         <v>13</v>
@@ -1172,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.25" thickBot="1">
+    <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1202,11 +1237,11 @@
       </c>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A7" s="103">
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="97">
         <v>1</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="103">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1225,15 +1260,15 @@
         <v>20</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="92"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="101"/>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="98"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1250,15 +1285,15 @@
         <v>46</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="92"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="102"/>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1277,15 +1312,15 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="92"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="100">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="103">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1304,15 +1339,15 @@
         <v>20</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="92"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="101"/>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="98"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1329,15 +1364,15 @@
         <v>46</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="92"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="102"/>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1356,15 +1391,15 @@
       <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="92"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="100">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="98"/>
+      <c r="B13" s="103">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1385,15 +1420,15 @@
       <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="92"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="23" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="101"/>
+    <row r="14" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1412,15 +1447,15 @@
       <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="92"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="23" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="101"/>
+    <row r="15" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="98"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1437,15 +1472,15 @@
         <v>20</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="92"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="101"/>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="98"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1462,12 +1497,12 @@
         <v>50</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="92"/>
+      <c r="I16" s="90"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="102"/>
+    <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1484,12 +1519,12 @@
         <v>45</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="92"/>
+      <c r="I17" s="90"/>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="100">
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="98"/>
+      <c r="B18" s="103">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1508,12 +1543,12 @@
         <v>46</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="92"/>
+      <c r="I18" s="90"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="102"/>
+    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1530,29 +1565,29 @@
         <v>20</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="92"/>
+      <c r="I19" s="90"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="105"/>
+    <row r="20" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="99"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="84"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="44"/>
       <c r="E20" s="45"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="92"/>
+      <c r="I20" s="90"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="103">
+    <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="97">
         <v>2</v>
       </c>
-      <c r="B21" s="100">
+      <c r="B21" s="103">
         <v>41057</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="83" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="10">
@@ -1568,12 +1603,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="92"/>
+      <c r="I21" s="90"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="101"/>
+    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1590,12 +1625,12 @@
         <v>51</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="92"/>
+      <c r="I22" s="90"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="101"/>
+    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="98"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1612,11 +1647,11 @@
         <v>52</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="92"/>
+      <c r="I23" s="90"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="104"/>
+    <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="98"/>
       <c r="B24" s="39">
         <v>41058</v>
       </c>
@@ -1636,230 +1671,230 @@
         <v>20</v>
       </c>
       <c r="H24" s="42"/>
-      <c r="I24" s="92"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="100">
+      <c r="I24" s="90"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98"/>
+      <c r="B25" s="103">
         <v>41059</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="79">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="79">
         <v>0.26319444444444445</v>
       </c>
-      <c r="E25" s="82">
+      <c r="E25" s="80">
         <v>0</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="92"/>
-    </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="81">
+      <c r="H25" s="81"/>
+      <c r="I25" s="90"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="79">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="79">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="80">
         <v>1</v>
       </c>
-      <c r="F26" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="88" t="s">
+      <c r="F26" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="86" t="s">
         <v>57</v>
       </c>
       <c r="H26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="92"/>
-    </row>
-    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="100">
+      <c r="I26" s="90"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="98"/>
+      <c r="B27" s="103">
         <v>41060</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="79">
         <v>0.40625</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="79">
         <v>0.46875</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E27" s="80">
         <v>1.5</v>
       </c>
-      <c r="F27" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="83" t="s">
+      <c r="F27" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="92"/>
-    </row>
-    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="81">
+      <c r="H27" s="81"/>
+      <c r="I27" s="90"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="98"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="79">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="79">
         <v>0.54513888888888895</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="80">
         <v>0</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="92"/>
-    </row>
-    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="100">
+      <c r="H28" s="81"/>
+      <c r="I28" s="90"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="98"/>
+      <c r="B29" s="103">
         <v>41062</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="79">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="79">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E29" s="82">
+      <c r="E29" s="80">
         <v>0.5</v>
       </c>
-      <c r="F29" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="83" t="s">
+      <c r="F29" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="92"/>
-    </row>
-    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="81">
+      <c r="H29" s="81"/>
+      <c r="I29" s="90"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="98"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="79">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="79">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="80">
         <v>1</v>
       </c>
-      <c r="F30" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="83" t="s">
+      <c r="F30" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="92"/>
-    </row>
-    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="81">
+      <c r="H30" s="81"/>
+      <c r="I30" s="90"/>
+    </row>
+    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="98"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="79">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="79">
         <v>0.13194444444444445</v>
       </c>
-      <c r="E31" s="82">
+      <c r="E31" s="80">
         <v>2.5</v>
       </c>
-      <c r="F31" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="83" t="s">
+      <c r="F31" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="92"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="81">
+      <c r="H31" s="81"/>
+      <c r="I31" s="90"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="98"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="79">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D32" s="81">
+      <c r="D32" s="79">
         <v>0.20138888888888887</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="80">
         <v>0.25</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="83" t="s">
+      <c r="G32" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="92"/>
-    </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="81">
+      <c r="H32" s="81"/>
+      <c r="I32" s="90"/>
+    </row>
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="98"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="79">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D33" s="81">
+      <c r="D33" s="79">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E33" s="82">
+      <c r="E33" s="80">
         <v>2.75</v>
       </c>
-      <c r="F33" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="83" t="s">
+      <c r="F33" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="83"/>
-      <c r="I33" s="92"/>
-    </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="90">
+      <c r="H33" s="81"/>
+      <c r="I33" s="90"/>
+    </row>
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="98"/>
+      <c r="B34" s="88">
         <v>41063</v>
       </c>
-      <c r="C34" s="81">
+      <c r="C34" s="79">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D34" s="81">
+      <c r="D34" s="79">
         <v>0.9375</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="80">
         <v>1</v>
       </c>
-      <c r="F34" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="83" t="s">
+      <c r="F34" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="83"/>
-      <c r="I34" s="92"/>
-    </row>
-    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="105"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="90"/>
+    </row>
+    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="99"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1867,13 +1902,13 @@
       <c r="F35" s="46"/>
       <c r="G35" s="46"/>
       <c r="H35" s="46"/>
-      <c r="I35" s="92"/>
-    </row>
-    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="103">
+      <c r="I35" s="90"/>
+    </row>
+    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="97">
         <v>3</v>
       </c>
-      <c r="B36" s="100">
+      <c r="B36" s="103">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1892,12 +1927,12 @@
         <v>20</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="92"/>
+      <c r="I36" s="90"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="104"/>
-      <c r="B37" s="102"/>
+    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="98"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1914,15 +1949,15 @@
         <v>64</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="92"/>
+      <c r="I37" s="90"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="100">
+    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="98"/>
+      <c r="B38" s="103">
         <v>41068</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="83" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="4">
@@ -1938,12 +1973,12 @@
         <v>64</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="92"/>
+      <c r="I38" s="90"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A39" s="104"/>
-      <c r="B39" s="101"/>
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="98"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -1960,12 +1995,12 @@
         <v>20</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="92"/>
+      <c r="I39" s="90"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="102"/>
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="98"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -1982,11 +2017,11 @@
         <v>46</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="92"/>
+      <c r="I40" s="90"/>
       <c r="K40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="104"/>
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="98"/>
       <c r="B41" s="3">
         <v>41069</v>
       </c>
@@ -2006,11 +2041,11 @@
         <v>65</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="92"/>
+      <c r="I41" s="90"/>
       <c r="K41" s="27"/>
     </row>
-    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="105"/>
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="99"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2018,14 +2053,14 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="92"/>
+      <c r="I42" s="90"/>
       <c r="K42" s="27"/>
     </row>
-    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="103">
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="97">
         <v>4</v>
       </c>
-      <c r="B43" s="100">
+      <c r="B43" s="103">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -2044,12 +2079,12 @@
         <v>20</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="92"/>
+      <c r="I43" s="90"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="104"/>
-      <c r="B44" s="101"/>
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="98"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2066,12 +2101,12 @@
         <v>46</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="92"/>
+      <c r="I44" s="90"/>
       <c r="K44" s="27"/>
     </row>
-    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="104"/>
-      <c r="B45" s="102"/>
+    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="98"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2088,11 +2123,11 @@
         <v>66</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="92"/>
+      <c r="I45" s="90"/>
       <c r="K45" s="27"/>
     </row>
-    <row r="46" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A46" s="104"/>
+    <row r="46" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="98"/>
       <c r="B46" s="9">
         <v>41072</v>
       </c>
@@ -2112,11 +2147,11 @@
         <v>67</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="92"/>
-    </row>
-    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="104"/>
-      <c r="B47" s="100">
+      <c r="I46" s="90"/>
+    </row>
+    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="98"/>
+      <c r="B47" s="103">
         <v>41073</v>
       </c>
       <c r="C47" s="13">
@@ -2135,11 +2170,11 @@
         <v>20</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="92"/>
-    </row>
-    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="102"/>
+      <c r="I47" s="90"/>
+    </row>
+    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="98"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="40">
         <v>0.44791666666666669</v>
       </c>
@@ -2156,101 +2191,101 @@
         <v>46</v>
       </c>
       <c r="H48" s="42"/>
-      <c r="I48" s="92"/>
-    </row>
-    <row r="49" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A49" s="104"/>
-      <c r="B49" s="91">
+      <c r="I48" s="90"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="98"/>
+      <c r="B49" s="89">
         <v>41075</v>
       </c>
-      <c r="C49" s="81">
+      <c r="C49" s="79">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="79">
         <v>0.25</v>
       </c>
-      <c r="E49" s="82">
+      <c r="E49" s="80">
         <v>2.5</v>
       </c>
-      <c r="F49" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="83" t="s">
+      <c r="F49" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="83"/>
-      <c r="I49" s="92"/>
-    </row>
-    <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1">
-      <c r="A50" s="104"/>
-      <c r="B50" s="91">
+      <c r="H49" s="81"/>
+      <c r="I49" s="90"/>
+    </row>
+    <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="98"/>
+      <c r="B50" s="89">
         <v>41076</v>
       </c>
-      <c r="C50" s="81">
+      <c r="C50" s="79">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="79">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E50" s="82">
+      <c r="E50" s="80">
         <v>4</v>
       </c>
-      <c r="F50" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="83" t="s">
+      <c r="F50" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="83"/>
-      <c r="I50" s="92"/>
-    </row>
-    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="104"/>
-      <c r="B51" s="100">
+      <c r="H50" s="81"/>
+      <c r="I50" s="90"/>
+    </row>
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="98"/>
+      <c r="B51" s="103">
         <v>41077</v>
       </c>
-      <c r="C51" s="81">
+      <c r="C51" s="79">
         <v>0.30208333333333331</v>
       </c>
-      <c r="D51" s="81">
+      <c r="D51" s="79">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E51" s="82">
+      <c r="E51" s="80">
         <v>3.75</v>
       </c>
-      <c r="F51" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="83" t="s">
+      <c r="F51" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="83"/>
-      <c r="I51" s="92"/>
-    </row>
-    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="104"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="81">
+      <c r="H51" s="81"/>
+      <c r="I51" s="90"/>
+    </row>
+    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="98"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="79">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D52" s="81">
+      <c r="D52" s="79">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E52" s="82">
+      <c r="E52" s="80">
         <v>4.5</v>
       </c>
-      <c r="F52" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="83" t="s">
+      <c r="F52" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="83"/>
-      <c r="I52" s="92"/>
-    </row>
-    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="105"/>
-      <c r="B53" s="102"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="90"/>
+    </row>
+    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="99"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="44">
         <v>0.35416666666666669</v>
       </c>
@@ -2267,13 +2302,13 @@
         <v>69</v>
       </c>
       <c r="H53" s="46"/>
-      <c r="I53" s="92"/>
-    </row>
-    <row r="54" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A54" s="103">
+      <c r="I53" s="90"/>
+    </row>
+    <row r="54" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="97">
         <v>5</v>
       </c>
-      <c r="B54" s="100">
+      <c r="B54" s="103">
         <v>41078</v>
       </c>
       <c r="C54" s="4">
@@ -2292,12 +2327,12 @@
         <v>71</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="92"/>
+      <c r="I54" s="90"/>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="104"/>
-      <c r="B55" s="102"/>
+    <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="98"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="4">
         <v>0.375</v>
       </c>
@@ -2314,12 +2349,12 @@
         <v>51</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="92"/>
+      <c r="I55" s="90"/>
       <c r="K55" s="27"/>
     </row>
-    <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="104"/>
-      <c r="B56" s="100">
+    <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="98"/>
+      <c r="B56" s="103">
         <v>41079</v>
       </c>
       <c r="C56" s="4">
@@ -2338,12 +2373,12 @@
         <v>51</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="92"/>
+      <c r="I56" s="90"/>
       <c r="K56" s="27"/>
     </row>
-    <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="104"/>
-      <c r="B57" s="102"/>
+    <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="98"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="4">
         <v>0.55208333333333337</v>
       </c>
@@ -2360,12 +2395,12 @@
         <v>72</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="92"/>
+      <c r="I57" s="90"/>
       <c r="K57" s="27"/>
     </row>
-    <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="104"/>
-      <c r="B58" s="100">
+    <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="98"/>
+      <c r="B58" s="103">
         <v>41080</v>
       </c>
       <c r="C58" s="4">
@@ -2384,12 +2419,12 @@
         <v>73</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="92"/>
+      <c r="I58" s="90"/>
       <c r="K58" s="27"/>
     </row>
-    <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A59" s="104"/>
-      <c r="B59" s="102"/>
+    <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="98"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -2406,12 +2441,12 @@
         <v>52</v>
       </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="92"/>
+      <c r="I59" s="90"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="104"/>
-      <c r="B60" s="100">
+    <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="98"/>
+      <c r="B60" s="103">
         <v>41081</v>
       </c>
       <c r="C60" s="4">
@@ -2430,12 +2465,12 @@
         <v>48</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="92"/>
+      <c r="I60" s="90"/>
       <c r="K60" s="27"/>
     </row>
-    <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="104"/>
-      <c r="B61" s="101"/>
+    <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="98"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2452,12 +2487,12 @@
         <v>74</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="92"/>
+      <c r="I61" s="90"/>
       <c r="K61" s="27"/>
     </row>
-    <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A62" s="104"/>
-      <c r="B62" s="101"/>
+    <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="98"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="4">
         <v>0.5625</v>
       </c>
@@ -2474,12 +2509,12 @@
         <v>75</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="92"/>
+      <c r="I62" s="90"/>
       <c r="K62" s="27"/>
     </row>
-    <row r="63" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A63" s="104"/>
-      <c r="B63" s="101"/>
+    <row r="63" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="98"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2496,12 +2531,12 @@
         <v>81</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="92"/>
+      <c r="I63" s="90"/>
       <c r="K63" s="27"/>
     </row>
-    <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A64" s="104"/>
-      <c r="B64" s="101"/>
+    <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="98"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -2518,12 +2553,12 @@
         <v>76</v>
       </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="92"/>
+      <c r="I64" s="90"/>
       <c r="K64" s="27"/>
     </row>
-    <row r="65" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A65" s="104"/>
-      <c r="B65" s="102"/>
+    <row r="65" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="98"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="4">
         <v>0.90625</v>
       </c>
@@ -2540,12 +2575,12 @@
         <v>77</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="92"/>
+      <c r="I65" s="90"/>
       <c r="K65" s="27"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A66" s="104"/>
-      <c r="B66" s="100">
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="98"/>
+      <c r="B66" s="103">
         <v>41082</v>
       </c>
       <c r="C66" s="4">
@@ -2564,12 +2599,12 @@
         <v>78</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="92"/>
+      <c r="I66" s="90"/>
       <c r="K66" s="27"/>
     </row>
-    <row r="67" spans="1:11" ht="51.75" thickBot="1">
-      <c r="A67" s="104"/>
-      <c r="B67" s="101"/>
+    <row r="67" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="98"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -2586,12 +2621,12 @@
         <v>79</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="92"/>
+      <c r="I67" s="90"/>
       <c r="K67" s="27"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A68" s="104"/>
-      <c r="B68" s="102"/>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="98"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="4">
         <v>0.74652777777777779</v>
       </c>
@@ -2608,11 +2643,11 @@
         <v>80</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="92"/>
+      <c r="I68" s="90"/>
       <c r="K68" s="27"/>
     </row>
-    <row r="69" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A69" s="104"/>
+    <row r="69" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="98"/>
       <c r="B69" s="3">
         <v>41083</v>
       </c>
@@ -2632,11 +2667,11 @@
         <v>82</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="92"/>
+      <c r="I69" s="90"/>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A70" s="104"/>
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="98"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2644,11 +2679,11 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="92"/>
+      <c r="I70" s="90"/>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A71" s="104"/>
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="98"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2656,11 +2691,11 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="92"/>
+      <c r="I71" s="90"/>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A72" s="104"/>
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="98"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2668,11 +2703,11 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="92"/>
+      <c r="I72" s="90"/>
       <c r="K72" s="27"/>
     </row>
-    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A73" s="105"/>
+    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="99"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2680,10 +2715,10 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="92"/>
+      <c r="I73" s="90"/>
       <c r="K73" s="27"/>
     </row>
-    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -2692,10 +2727,10 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="92"/>
+      <c r="I74" s="90"/>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -2704,9 +2739,9 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="92"/>
-    </row>
-    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="I75" s="90"/>
+    </row>
+    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>6</v>
       </c>
@@ -2717,9 +2752,9 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="92"/>
-    </row>
-    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="I76" s="90"/>
+    </row>
+    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="39"/>
       <c r="C77" s="40"/>
@@ -2728,9 +2763,9 @@
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
       <c r="H77" s="42"/>
-      <c r="I77" s="92"/>
-    </row>
-    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="I77" s="90"/>
+    </row>
+    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
@@ -2739,9 +2774,9 @@
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
       <c r="H78" s="46"/>
-      <c r="I78" s="92"/>
-    </row>
-    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="I78" s="90"/>
+    </row>
+    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -2750,10 +2785,10 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="92"/>
+      <c r="I79" s="90"/>
       <c r="K79" s="27"/>
     </row>
-    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -2762,10 +2797,10 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="92"/>
+      <c r="I80" s="90"/>
       <c r="K80" s="27"/>
     </row>
-    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>7</v>
       </c>
@@ -2776,10 +2811,10 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="92"/>
+      <c r="I81" s="90"/>
       <c r="K81" s="27"/>
     </row>
-    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -2788,12 +2823,12 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="92"/>
+      <c r="I82" s="90"/>
       <c r="K82" s="27"/>
     </row>
-    <row r="83" spans="1:11" ht="26.25" thickBot="1">
+    <row r="83" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
-      <c r="B83" s="93">
+      <c r="B83" s="91">
         <v>41098</v>
       </c>
       <c r="C83" s="4">
@@ -2812,11 +2847,11 @@
         <v>84</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="92"/>
+      <c r="I83" s="90"/>
       <c r="K83" s="27"/>
     </row>
-    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A84" s="104">
+    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="98">
         <v>8</v>
       </c>
       <c r="B84" s="106">
@@ -2838,11 +2873,11 @@
         <v>91</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="92"/>
+      <c r="I84" s="90"/>
       <c r="K84" s="27"/>
     </row>
-    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A85" s="104"/>
+    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="98"/>
       <c r="B85" s="107"/>
       <c r="C85" s="4">
         <v>0.4993055555555555</v>
@@ -2860,11 +2895,11 @@
         <v>91</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="92"/>
+      <c r="I85" s="90"/>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A86" s="104"/>
+    <row r="86" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="98"/>
       <c r="B86" s="108"/>
       <c r="C86" s="4">
         <v>0.72916666666666663</v>
@@ -2882,11 +2917,11 @@
         <v>90</v>
       </c>
       <c r="H86" s="5"/>
-      <c r="I86" s="92"/>
+      <c r="I86" s="90"/>
       <c r="K86" s="27"/>
     </row>
-    <row r="87" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A87" s="104"/>
+    <row r="87" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="98"/>
       <c r="B87" s="106">
         <v>41100</v>
       </c>
@@ -2906,11 +2941,11 @@
         <v>88</v>
       </c>
       <c r="H87" s="5"/>
-      <c r="I87" s="92"/>
+      <c r="I87" s="90"/>
       <c r="K87" s="27"/>
     </row>
-    <row r="88" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A88" s="104"/>
+    <row r="88" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="98"/>
       <c r="B88" s="107"/>
       <c r="C88" s="4">
         <v>0.73958333333333337</v>
@@ -2928,11 +2963,11 @@
         <v>86</v>
       </c>
       <c r="H88" s="5"/>
-      <c r="I88" s="92"/>
+      <c r="I88" s="90"/>
       <c r="K88" s="27"/>
     </row>
-    <row r="89" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A89" s="104"/>
+    <row r="89" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="98"/>
       <c r="B89" s="108"/>
       <c r="C89" s="4">
         <v>0.90625</v>
@@ -2950,11 +2985,11 @@
         <v>86</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="92"/>
+      <c r="I89" s="90"/>
       <c r="K89" s="27"/>
     </row>
-    <row r="90" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A90" s="104"/>
+    <row r="90" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="98"/>
       <c r="B90" s="106">
         <v>41101</v>
       </c>
@@ -2976,11 +3011,11 @@
       <c r="H90" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I90" s="92"/>
+      <c r="I90" s="90"/>
       <c r="K90" s="27"/>
     </row>
-    <row r="91" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A91" s="104"/>
+    <row r="91" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="98"/>
       <c r="B91" s="107"/>
       <c r="C91" s="4">
         <v>0.40972222222222227</v>
@@ -2998,11 +3033,11 @@
         <v>86</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="I91" s="92"/>
+      <c r="I91" s="90"/>
       <c r="K91" s="27"/>
     </row>
-    <row r="92" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A92" s="104"/>
+    <row r="92" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="98"/>
       <c r="B92" s="107"/>
       <c r="C92" s="4">
         <v>0.51041666666666663</v>
@@ -3022,11 +3057,11 @@
       <c r="H92" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="92"/>
+      <c r="I92" s="90"/>
       <c r="K92" s="27"/>
     </row>
-    <row r="93" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A93" s="104"/>
+    <row r="93" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="98"/>
       <c r="B93" s="108"/>
       <c r="C93" s="4">
         <v>0.65625</v>
@@ -3046,251 +3081,306 @@
       <c r="H93" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I93" s="92"/>
+      <c r="I93" s="90"/>
       <c r="K93" s="27"/>
     </row>
-    <row r="94" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A94" s="104"/>
-      <c r="B94" s="97">
+    <row r="94" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="98"/>
+      <c r="B94" s="100">
         <v>41102</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="62">
         <v>0.40625</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="62">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E94" s="65">
+      <c r="E94" s="63">
         <v>1.75</v>
       </c>
-      <c r="F94" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" s="66" t="s">
+      <c r="F94" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="H94" s="60" t="s">
+      <c r="H94" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="92"/>
+      <c r="I94" s="90"/>
       <c r="K94" s="27"/>
     </row>
-    <row r="95" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A95" s="104"/>
-      <c r="B95" s="98"/>
-      <c r="C95" s="94">
+    <row r="95" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="98"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="92">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D95" s="94">
+      <c r="D95" s="92">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E95" s="95">
+      <c r="E95" s="93">
         <v>0.5</v>
       </c>
-      <c r="F95" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" s="86" t="s">
+      <c r="F95" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="H95" s="86"/>
-      <c r="I95" s="92"/>
+      <c r="H95" s="84"/>
+      <c r="I95" s="90"/>
       <c r="K95" s="27"/>
     </row>
-    <row r="96" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A96" s="104"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="94">
+    <row r="96" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="98"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="92">
         <v>0.625</v>
       </c>
-      <c r="D96" s="94">
+      <c r="D96" s="92">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E96" s="95">
+      <c r="E96" s="93">
         <v>1.25</v>
       </c>
-      <c r="F96" s="86" t="s">
+      <c r="F96" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="G96" s="86" t="s">
+      <c r="G96" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="H96" s="86"/>
-      <c r="I96" s="92"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="90"/>
       <c r="K96" s="27"/>
     </row>
-    <row r="97" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A97" s="104"/>
-      <c r="B97" s="98"/>
-      <c r="C97" s="94">
+    <row r="97" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="98"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="92">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D97" s="94">
+      <c r="D97" s="92">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E97" s="95">
+      <c r="E97" s="93">
         <v>0.75</v>
       </c>
-      <c r="F97" s="86" t="s">
+      <c r="F97" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="G97" s="86" t="s">
+      <c r="G97" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="H97" s="86"/>
-      <c r="I97" s="92"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="90"/>
       <c r="K97" s="27"/>
     </row>
-    <row r="98" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A98" s="104"/>
-      <c r="B98" s="98"/>
-      <c r="C98" s="94">
+    <row r="98" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="98"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="92">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D98" s="94">
+      <c r="D98" s="92">
         <v>0.75694444444444453</v>
       </c>
-      <c r="E98" s="95">
+      <c r="E98" s="93">
         <v>1</v>
       </c>
-      <c r="F98" s="86" t="s">
+      <c r="F98" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="86" t="s">
+      <c r="G98" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H98" s="86"/>
-      <c r="I98" s="92"/>
+      <c r="H98" s="84"/>
+      <c r="I98" s="90"/>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A99" s="104"/>
-      <c r="B99" s="99"/>
-      <c r="C99" s="94">
+    <row r="99" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="98"/>
+      <c r="B99" s="102"/>
+      <c r="C99" s="92">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D99" s="94">
+      <c r="D99" s="92">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E99" s="95">
+      <c r="E99" s="93">
         <v>2</v>
       </c>
-      <c r="F99" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" s="86" t="s">
+      <c r="F99" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="H99" s="86"/>
-      <c r="I99" s="92"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="90"/>
       <c r="K99" s="27"/>
     </row>
-    <row r="100" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A100" s="104"/>
-      <c r="B100" s="97">
+    <row r="100" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="98"/>
+      <c r="B100" s="100">
         <v>41103</v>
       </c>
-      <c r="C100" s="94">
+      <c r="C100" s="92">
         <v>0.91319444444444453</v>
       </c>
-      <c r="D100" s="94">
+      <c r="D100" s="92">
         <v>0.99652777777777779</v>
       </c>
-      <c r="E100" s="95">
+      <c r="E100" s="93">
         <v>2</v>
       </c>
-      <c r="F100" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" s="86" t="s">
+      <c r="F100" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="H100" s="86"/>
-      <c r="I100" s="92"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="90"/>
       <c r="K100" s="27"/>
     </row>
-    <row r="101" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A101" s="104"/>
-      <c r="B101" s="98"/>
-      <c r="C101" s="94">
+    <row r="101" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="98"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="92">
         <v>0.19097222222222221</v>
       </c>
-      <c r="D101" s="94">
+      <c r="D101" s="92">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E101" s="95">
+      <c r="E101" s="93">
         <v>3.5</v>
       </c>
-      <c r="F101" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" s="86" t="s">
+      <c r="F101" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="H101" s="86" t="s">
+      <c r="H101" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I101" s="92"/>
+      <c r="I101" s="90"/>
       <c r="K101" s="27"/>
     </row>
-    <row r="102" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A102" s="104"/>
-      <c r="B102" s="98"/>
-      <c r="C102" s="94"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="95"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="86"/>
-      <c r="I102" s="92"/>
-      <c r="K102" s="27"/>
-    </row>
-    <row r="103" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A103" s="104"/>
-      <c r="B103" s="98"/>
-      <c r="C103" s="94"/>
-      <c r="D103" s="94"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="92"/>
-    </row>
-    <row r="104" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A104" s="104"/>
-      <c r="B104" s="99"/>
-      <c r="C104" s="94"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="95"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="86"/>
-      <c r="I104" s="92"/>
-    </row>
-    <row r="105" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A105" s="104"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="92"/>
-    </row>
-    <row r="106" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A106" s="105"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="92"/>
-    </row>
-    <row r="107" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A107" s="28"/>
+    <row r="102" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="99"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="90"/>
+    </row>
+    <row r="103" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="97">
+        <v>9</v>
+      </c>
+      <c r="B103" s="3">
+        <v>41106</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E103" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="90"/>
+      <c r="K103" s="27"/>
+    </row>
+    <row r="104" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="98"/>
+      <c r="B104" s="3">
+        <v>41108</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E104" s="33">
+        <v>11</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="90"/>
+      <c r="K104" s="27"/>
+    </row>
+    <row r="105" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="98"/>
+      <c r="B105" s="3">
+        <v>41109</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="E105" s="33">
+        <v>9.75</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="90"/>
+      <c r="K105" s="27"/>
+    </row>
+    <row r="106" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="98"/>
+      <c r="B106" s="3">
+        <v>41110</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="E106" s="33">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I106" s="90"/>
+      <c r="K106" s="27"/>
+    </row>
+    <row r="107" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="98"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3298,107 +3388,103 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
-      <c r="I107" s="92"/>
+      <c r="I107" s="90"/>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A108" s="30"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+    <row r="108" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="98"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
       <c r="H108" s="5"/>
-      <c r="I108" s="92"/>
-    </row>
-    <row r="109" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A109" s="28">
-        <v>9</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="92"/>
-    </row>
-    <row r="110" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A110" s="30"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="92"/>
-    </row>
-    <row r="111" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A111" s="29"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="92"/>
-    </row>
-    <row r="112" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A112" s="28"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+      <c r="I108" s="90"/>
+      <c r="K108" s="27"/>
+    </row>
+    <row r="109" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="98"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="90"/>
+      <c r="K109" s="27"/>
+    </row>
+    <row r="110" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="98"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="90"/>
+      <c r="K110" s="27"/>
+    </row>
+    <row r="111" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="98"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="90"/>
+      <c r="K111" s="27"/>
+    </row>
+    <row r="112" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="98"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="92"/>
-      <c r="K112" s="27"/>
-    </row>
-    <row r="113" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A113" s="28"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="92"/>
-      <c r="K113" s="27"/>
-    </row>
-    <row r="114" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A114" s="28">
-        <v>10</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="92"/>
-      <c r="K114" s="27"/>
-    </row>
-    <row r="115" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A115" s="28"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="92"/>
-      <c r="K115" s="27"/>
-    </row>
-    <row r="116" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A116" s="29"/>
+      <c r="I112" s="90"/>
+    </row>
+    <row r="113" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="98"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="90"/>
+    </row>
+    <row r="114" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="98"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="90"/>
+    </row>
+    <row r="115" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="99"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="90"/>
+    </row>
+    <row r="116" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="28"/>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -3406,10 +3492,10 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="92"/>
+      <c r="I116" s="90"/>
       <c r="K116" s="27"/>
     </row>
-    <row r="117" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="117" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
@@ -3418,58 +3504,109 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="92"/>
+      <c r="I117" s="90"/>
       <c r="K117" s="27"/>
     </row>
-    <row r="118" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A118" s="30"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+    <row r="118" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="28">
+        <v>10</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
       <c r="H118" s="5"/>
-      <c r="I118" s="92"/>
-    </row>
-    <row r="119" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A119" s="28">
+      <c r="I118" s="90"/>
+      <c r="K118" s="27"/>
+    </row>
+    <row r="119" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="28"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="90"/>
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="29"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="90"/>
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="28"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="90"/>
+      <c r="K121" s="27"/>
+    </row>
+    <row r="122" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="30"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="90"/>
+    </row>
+    <row r="123" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="28">
         <v>11</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="92"/>
-    </row>
-    <row r="120" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A120" s="30"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="92"/>
-    </row>
-    <row r="121" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A121" s="29"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="92"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="90"/>
+    </row>
+    <row r="124" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="30"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="90"/>
+    </row>
+    <row r="125" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="90"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:H6"/>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="B87:B89"/>
     <mergeCell ref="B84:B86"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:B37"/>
@@ -3483,8 +3620,9 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A103:A115"/>
     <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B100:B101"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A20"/>
@@ -3496,9 +3634,8 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A84:A106"/>
+    <mergeCell ref="A84:A102"/>
     <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B87:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3506,14 +3643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="47" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="48"/>
@@ -3528,19 +3665,19 @@
     <col min="11" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" s="49"/>
       <c r="J3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
@@ -3554,7 +3691,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="53"/>
       <c r="J5" s="49" t="s">
         <v>13</v>
@@ -3563,7 +3700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.25" thickBot="1">
+    <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>0</v>
       </c>
@@ -3593,77 +3730,77 @@
       </c>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="109">
         <v>1</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="100">
         <v>41052</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="57">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="57">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="58">
         <v>2.5</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="60" t="s">
+      <c r="F7" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="59"/>
       <c r="J7" s="48" t="s">
         <v>38</v>
       </c>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="58">
+      <c r="B8" s="101"/>
+      <c r="C8" s="57">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>0.51736111111111105</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="58">
         <v>0.25</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="59"/>
       <c r="J8" s="48" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="58">
+      <c r="B9" s="101"/>
+      <c r="C9" s="57">
         <v>0.5625</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>0.59722222222222221</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <v>1</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="59" t="s">
         <v>55</v>
       </c>
       <c r="J9" s="48" t="s">
@@ -3671,25 +3808,25 @@
       </c>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="58">
+      <c r="B10" s="102"/>
+      <c r="C10" s="57">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>0.64236111111111105</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <v>1</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="59" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="48" t="s">
@@ -3697,73 +3834,73 @@
       </c>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
-      <c r="B11" s="61">
+      <c r="B11" s="60">
         <v>41053</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="57">
         <v>0.8125</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="58">
         <v>5.5</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="60" t="s">
+      <c r="F11" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="60"/>
+      <c r="H11" s="59"/>
       <c r="J11" s="48" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
-      <c r="B12" s="61">
+      <c r="B12" s="60">
         <v>41054</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="58">
         <v>4</v>
       </c>
-      <c r="F12" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="60" t="s">
+      <c r="F12" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="59"/>
       <c r="J12" s="48" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="56"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
       <c r="J13" s="48" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="56"/>
     </row>
-    <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109">
         <v>2</v>
       </c>
@@ -3785,10 +3922,10 @@
       <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="71"/>
+      <c r="H14" s="69"/>
       <c r="K14" s="56"/>
     </row>
-    <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="110"/>
       <c r="B15" s="113"/>
       <c r="C15" s="10">
@@ -3806,31 +3943,31 @@
       <c r="G15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="75"/>
-    </row>
-    <row r="16" spans="1:11" ht="26.25" thickBot="1">
+      <c r="H15" s="73"/>
+    </row>
+    <row r="16" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="114"/>
-      <c r="C16" s="58">
+      <c r="C16" s="57">
         <v>0.92708333333333337</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="57">
         <v>0.98333333333333339</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="58">
         <v>1.25</v>
       </c>
-      <c r="F16" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="60" t="s">
+      <c r="F16" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="84" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="112">
         <v>41059</v>
@@ -3850,29 +3987,29 @@
       <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="75"/>
-    </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="110"/>
       <c r="B18" s="113"/>
-      <c r="C18" s="58">
+      <c r="C18" s="57">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="57">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="58">
         <v>0</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="75"/>
-    </row>
-    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="H18" s="73"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="114"/>
       <c r="C19" s="4">
@@ -3890,13 +4027,13 @@
       <c r="G19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="26.25" thickBot="1">
+    <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
-      <c r="B20" s="89">
+      <c r="B20" s="87">
         <v>41061</v>
       </c>
       <c r="C20" s="4">
@@ -3914,14 +4051,14 @@
       <c r="G20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="75"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H20" s="73"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="112">
         <v>41063</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="78" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="4">
@@ -3936,9 +4073,9 @@
       <c r="G21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="75"/>
-    </row>
-    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="H21" s="73"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="114"/>
       <c r="C22" s="4">
@@ -3956,11 +4093,11 @@
       <c r="G22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="75"/>
-    </row>
-    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="H22" s="73"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
-      <c r="B23" s="87">
+      <c r="B23" s="85">
         <v>41064</v>
       </c>
       <c r="C23" s="4">
@@ -3978,368 +4115,368 @@
       <c r="G23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="75"/>
-    </row>
-    <row r="24" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="H23" s="73"/>
+    </row>
+    <row r="24" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="111"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="86"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B24" s="74"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="84"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="109">
         <v>3</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="60">
         <v>41066</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="57">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="57">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="58">
         <v>2.5</v>
       </c>
-      <c r="F25" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="60" t="s">
+      <c r="F25" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="60"/>
+      <c r="H25" s="59"/>
       <c r="K25" s="56"/>
     </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
-      <c r="B26" s="61">
+      <c r="B26" s="60">
         <v>41067</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="57">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="57">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="58">
         <v>1.5</v>
       </c>
-      <c r="F26" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="60" t="s">
+      <c r="F26" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="60"/>
+      <c r="H26" s="59"/>
       <c r="K26" s="56"/>
     </row>
-    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
       <c r="K27" s="56"/>
     </row>
-    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
       <c r="K28" s="56"/>
     </row>
-    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
       <c r="K29" s="56"/>
     </row>
-    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
       <c r="K30" s="56"/>
     </row>
-    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
       <c r="K31" s="56"/>
     </row>
-    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="K32" s="56"/>
     </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="111"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
       <c r="K33" s="56"/>
     </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="109">
         <v>4</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
       <c r="K34" s="56"/>
     </row>
-    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="60"/>
-    </row>
-    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="59"/>
+    </row>
+    <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="71"/>
-    </row>
-    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="69"/>
+    </row>
+    <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-    </row>
-    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+    </row>
+    <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="111"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-    </row>
-    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+    </row>
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="109">
         <v>5</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
       <c r="K39" s="56"/>
     </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
       <c r="K40" s="56"/>
     </row>
-    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="110"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
       <c r="K41" s="56"/>
     </row>
-    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
       <c r="K42" s="56"/>
     </row>
-    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="111"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
       <c r="K43" s="56"/>
     </row>
-    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="109">
         <v>6</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
       <c r="K44" s="56"/>
     </row>
-    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="60"/>
-    </row>
-    <row r="46" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="71"/>
-    </row>
-    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="69"/>
+    </row>
+    <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-    </row>
-    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+    </row>
+    <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="111"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-    </row>
-    <row r="49" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B48" s="74"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+    </row>
+    <row r="49" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="109">
         <v>7</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
       <c r="K49" s="56"/>
     </row>
-    <row r="50" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="110"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
       <c r="K50" s="56"/>
     </row>
-    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="110"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
       <c r="K51" s="56"/>
     </row>
-    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="110"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
       <c r="K52" s="56"/>
     </row>
-    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="111"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
       <c r="K53" s="56"/>
     </row>
-    <row r="54" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="109">
         <v>8</v>
       </c>
-      <c r="B54" s="96">
+      <c r="B54" s="94">
         <v>41100</v>
       </c>
       <c r="C54" s="4">
@@ -4348,357 +4485,410 @@
       <c r="D54" s="4">
         <v>0.73958333333333337</v>
       </c>
-      <c r="E54" s="59">
+      <c r="E54" s="58">
         <v>1</v>
       </c>
-      <c r="F54" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="60" t="s">
+      <c r="F54" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="60"/>
+      <c r="H54" s="59"/>
       <c r="K54" s="56"/>
     </row>
-    <row r="55" spans="1:11" ht="21" customHeight="1" thickBot="1">
+    <row r="55" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="110"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="60"/>
-    </row>
-    <row r="56" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="A56" s="110"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-    </row>
-    <row r="57" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="A57" s="110"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-    </row>
-    <row r="58" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B55" s="96">
+        <v>41103</v>
+      </c>
+      <c r="C55" s="62">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D55" s="62">
+        <v>0.6875</v>
+      </c>
+      <c r="E55" s="63">
+        <v>4</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="59"/>
+    </row>
+    <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="111"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+    </row>
+    <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="109">
+        <v>9</v>
+      </c>
+      <c r="B57" s="100">
+        <v>41106</v>
+      </c>
+      <c r="C57" s="57">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="D57" s="57">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="E57" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="F57" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="59"/>
+      <c r="K57" s="56"/>
+    </row>
+    <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="110"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-    </row>
-    <row r="59" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B58" s="101"/>
+      <c r="C58" s="57">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D58" s="57">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E58" s="58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="59"/>
+      <c r="K58" s="56"/>
+    </row>
+    <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="110"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-    </row>
-    <row r="60" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B59" s="101"/>
+      <c r="C59" s="57">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D59" s="57">
+        <v>0.71875</v>
+      </c>
+      <c r="E59" s="58">
+        <v>0</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="59"/>
+      <c r="K59" s="56"/>
+    </row>
+    <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="110"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-    </row>
-    <row r="61" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B60" s="101"/>
+      <c r="C60" s="57">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D60" s="57">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E60" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="59"/>
+      <c r="K60" s="56"/>
+    </row>
+    <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="110"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="95"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-    </row>
-    <row r="62" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B61" s="102"/>
+      <c r="C61" s="57">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D61" s="57">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E61" s="58">
+        <v>3</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="59"/>
+      <c r="K61" s="56"/>
+    </row>
+    <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="110"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-    </row>
-    <row r="63" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B62" s="100">
+        <v>41107</v>
+      </c>
+      <c r="C62" s="57">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D62" s="57">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="E62" s="58">
+        <v>4.75</v>
+      </c>
+      <c r="F62" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H62" s="69"/>
+    </row>
+    <row r="63" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="110"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
-    </row>
-    <row r="64" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B63" s="102"/>
+      <c r="C63" s="71">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D63" s="71">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E63" s="72">
+        <v>5.25</v>
+      </c>
+      <c r="F63" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H63" s="73"/>
+    </row>
+    <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="110"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-    </row>
-    <row r="65" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B64" s="95"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+    </row>
+    <row r="65" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="110"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="86"/>
-    </row>
-    <row r="66" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B65" s="95"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+    </row>
+    <row r="66" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="110"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-    </row>
-    <row r="67" spans="1:11" ht="21" customHeight="1" thickBot="1">
+      <c r="B66" s="95"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+    </row>
+    <row r="67" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="110"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-    </row>
-    <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B67" s="95"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+    </row>
+    <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="110"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-    </row>
-    <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B68" s="95"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+    </row>
+    <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="110"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-    </row>
-    <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A70" s="111"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-    </row>
-    <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A71" s="109">
-        <v>9</v>
-      </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="K71" s="56"/>
-    </row>
-    <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A72" s="110"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="60"/>
-    </row>
-    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B69" s="95"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+    </row>
+    <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="110"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+    </row>
+    <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="111"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+    </row>
+    <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="109">
+        <v>10</v>
+      </c>
+      <c r="B72" s="60"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="K72" s="56"/>
+    </row>
+    <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="110"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="71"/>
-    </row>
-    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B73" s="60"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="K73" s="56"/>
+    </row>
+    <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="110"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="75"/>
-    </row>
-    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A75" s="111"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-    </row>
-    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A76" s="57"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="K74" s="56"/>
+    </row>
+    <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="110"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="K75" s="56"/>
+    </row>
+    <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="111"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
       <c r="K76" s="56"/>
     </row>
-    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A77" s="57"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
+    <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="109">
+        <v>11</v>
+      </c>
+      <c r="B77" s="60"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
       <c r="K77" s="56"/>
     </row>
-    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A78" s="57">
-        <v>10</v>
-      </c>
+    <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="110"/>
       <c r="B78" s="61"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="K78" s="56"/>
-    </row>
-    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A79" s="57"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="K79" s="56"/>
-    </row>
-    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A80" s="62"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="K80" s="56"/>
-    </row>
-    <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A81" s="109">
-        <v>11</v>
-      </c>
-      <c r="B81" s="61"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="K81" s="56"/>
-    </row>
-    <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A82" s="110"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="60"/>
-    </row>
-    <row r="83" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A83" s="110"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="71"/>
-    </row>
-    <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A84" s="110"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-    </row>
-    <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A85" s="111"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="79"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="59"/>
+    </row>
+    <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="110"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="69"/>
+    </row>
+    <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="110"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+    </row>
+    <row r="81" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="111"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A25:A33"/>
+  <mergeCells count="17">
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A14:A24"/>
     <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A25:A33"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A54:A70"/>
-    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B57:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4706,14 +4896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
@@ -4730,19 +4920,19 @@
     <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D3" s="24"/>
       <c r="L3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -4756,7 +4946,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26"/>
       <c r="L5" s="24" t="s">
         <v>13</v>
@@ -4765,7 +4955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1">
+    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4798,7 +4988,7 @@
       </c>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -4811,7 +5001,7 @@
       <c r="J7" s="5"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -4824,7 +5014,7 @@
       <c r="J8" s="5"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>1</v>
       </c>
@@ -4839,7 +5029,7 @@
       <c r="J9" s="5"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -4852,7 +5042,7 @@
       <c r="J10" s="8"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -4868,7 +5058,7 @@
       </c>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -4884,7 +5074,7 @@
       </c>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -4896,7 +5086,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>2</v>
       </c>
@@ -4910,7 +5100,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -4922,7 +5112,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -4934,7 +5124,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -4947,7 +5137,7 @@
       <c r="J17" s="5"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -4960,7 +5150,7 @@
       <c r="J18" s="5"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>3</v>
       </c>
@@ -4975,7 +5165,7 @@
       <c r="J19" s="5"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -4988,7 +5178,7 @@
       <c r="J20" s="8"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -5001,7 +5191,7 @@
       <c r="J21" s="8"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -5014,7 +5204,7 @@
       <c r="J22" s="5"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -5026,7 +5216,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -5040,7 +5230,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -5052,7 +5242,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -5064,7 +5254,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -5077,7 +5267,7 @@
       <c r="J27" s="5"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -5090,7 +5280,7 @@
       <c r="J28" s="5"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>5</v>
       </c>
@@ -5105,7 +5295,7 @@
       <c r="J29" s="5"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -5118,7 +5308,7 @@
       <c r="J30" s="8"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -5131,7 +5321,7 @@
       <c r="J31" s="8"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -5144,7 +5334,7 @@
       <c r="J32" s="5"/>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -5156,7 +5346,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>6</v>
       </c>
@@ -5170,7 +5360,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -5182,7 +5372,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
@@ -5194,7 +5384,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -5207,7 +5397,7 @@
       <c r="J37" s="5"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -5220,7 +5410,7 @@
       <c r="J38" s="5"/>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>7</v>
       </c>
@@ -5235,7 +5425,7 @@
       <c r="J39" s="5"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -5248,7 +5438,7 @@
       <c r="J40" s="8"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -5261,7 +5451,7 @@
       <c r="J41" s="8"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -5274,7 +5464,7 @@
       <c r="J42" s="5"/>
       <c r="M42" s="27"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -5286,7 +5476,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>8</v>
       </c>
@@ -5300,7 +5490,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
@@ -5312,7 +5502,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
@@ -5324,7 +5514,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -5337,7 +5527,7 @@
       <c r="J47" s="5"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -5349,7 +5539,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>9</v>
       </c>
@@ -5363,7 +5553,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
@@ -5375,7 +5565,7 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
@@ -5387,7 +5577,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -5400,7 +5590,7 @@
       <c r="J52" s="5"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -5413,7 +5603,7 @@
       <c r="J53" s="5"/>
       <c r="M53" s="27"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>10</v>
       </c>
@@ -5428,7 +5618,7 @@
       <c r="J54" s="5"/>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -5441,7 +5631,7 @@
       <c r="J55" s="8"/>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -5454,7 +5644,7 @@
       <c r="J56" s="8"/>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -5467,7 +5657,7 @@
       <c r="J57" s="5"/>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -5479,7 +5669,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>11</v>
       </c>
@@ -5493,7 +5683,7 @@
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
@@ -5505,7 +5695,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="117">
   <si>
     <t>Week</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>MRBS v5.1</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>Make List Function Difficulty</t>
+  </si>
+  <si>
+    <t>Update Use Case Diagram</t>
+  </si>
+  <si>
+    <t>v3.1</t>
+  </si>
+  <si>
+    <t>Update Use Case Description</t>
+  </si>
+  <si>
+    <t>v2.1</t>
   </si>
 </sst>
 </file>
@@ -525,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -631,9 +649,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -641,9 +656,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,12 +780,6 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -795,6 +801,24 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,23 +837,14 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,14 +855,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,14 +1161,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23"/>
+    <col min="2" max="2" width="9.140625" style="32"/>
     <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="23" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="32"/>
@@ -1187,7 +1196,7 @@
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="32" t="s">
@@ -1238,10 +1247,10 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97">
+      <c r="A7" s="99">
         <v>1</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="96">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1260,15 +1269,15 @@
         <v>20</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="90"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1285,15 +1294,15 @@
         <v>46</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="90"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1312,15 +1321,15 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="103">
+      <c r="A10" s="100"/>
+      <c r="B10" s="96">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1339,15 +1348,15 @@
         <v>20</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="90"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1364,15 +1373,15 @@
         <v>46</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="90"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1391,15 +1400,15 @@
       <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="90"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="103">
+      <c r="A13" s="100"/>
+      <c r="B13" s="96">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1420,15 +1429,15 @@
       <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="90"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="23" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="104"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1447,15 +1456,15 @@
       <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="90"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="23" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1472,15 +1481,15 @@
         <v>20</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="90"/>
+      <c r="I15" s="86"/>
       <c r="J15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1497,12 +1506,12 @@
         <v>50</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="90"/>
+      <c r="I16" s="86"/>
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1519,12 +1528,12 @@
         <v>45</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="90"/>
+      <c r="I17" s="86"/>
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="103">
+      <c r="A18" s="100"/>
+      <c r="B18" s="96">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1543,12 +1552,12 @@
         <v>46</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="90"/>
+      <c r="I18" s="86"/>
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1565,29 +1574,29 @@
         <v>20</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="90"/>
+      <c r="I19" s="86"/>
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="90"/>
+      <c r="I20" s="86"/>
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97">
+      <c r="A21" s="99">
         <v>2</v>
       </c>
-      <c r="B21" s="103">
+      <c r="B21" s="96">
         <v>41057</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="81" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="10">
@@ -1603,12 +1612,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="90"/>
+      <c r="I21" s="86"/>
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="104"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1625,12 +1634,12 @@
         <v>51</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="90"/>
+      <c r="I22" s="86"/>
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1647,268 +1656,268 @@
         <v>52</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="90"/>
+      <c r="I23" s="86"/>
       <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="39">
+      <c r="A24" s="100"/>
+      <c r="B24" s="93">
         <v>41058</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="39">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="39">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="40">
         <v>1.5</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="42" t="s">
+      <c r="F24" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="90"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="103">
+      <c r="A25" s="100"/>
+      <c r="B25" s="96">
         <v>41059</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="77">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="77">
         <v>0.26319444444444445</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="78">
         <v>0</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="90"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="86"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="79">
+      <c r="A26" s="100"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="77">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="77">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="78">
         <v>1</v>
       </c>
-      <c r="F26" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="86" t="s">
+      <c r="F26" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="90"/>
+      <c r="I26" s="86"/>
     </row>
     <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="103">
+      <c r="A27" s="100"/>
+      <c r="B27" s="96">
         <v>41060</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="77">
         <v>0.40625</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="77">
         <v>0.46875</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="78">
         <v>1.5</v>
       </c>
-      <c r="F27" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="81" t="s">
+      <c r="F27" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="90"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="86"/>
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="79">
+      <c r="A28" s="100"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="77">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="77">
         <v>0.54513888888888895</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="78">
         <v>0</v>
       </c>
-      <c r="F28" s="81" t="s">
+      <c r="F28" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="81"/>
-      <c r="I28" s="90"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="103">
+      <c r="A29" s="100"/>
+      <c r="B29" s="96">
         <v>41062</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="77">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D29" s="79">
+      <c r="D29" s="77">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="78">
         <v>0.5</v>
       </c>
-      <c r="F29" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="81" t="s">
+      <c r="F29" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="81"/>
-      <c r="I29" s="90"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="79">
+      <c r="A30" s="100"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="77">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="77">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="78">
         <v>1</v>
       </c>
-      <c r="F30" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="81" t="s">
+      <c r="F30" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="81"/>
-      <c r="I30" s="90"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="86"/>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="79">
+      <c r="A31" s="100"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="77">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="77">
         <v>0.13194444444444445</v>
       </c>
-      <c r="E31" s="80">
+      <c r="E31" s="78">
         <v>2.5</v>
       </c>
-      <c r="F31" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="81" t="s">
+      <c r="F31" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="90"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="86"/>
     </row>
     <row r="32" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="79">
+      <c r="A32" s="100"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="77">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="77">
         <v>0.20138888888888887</v>
       </c>
-      <c r="E32" s="80">
+      <c r="E32" s="78">
         <v>0.25</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="81" t="s">
+      <c r="G32" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="81"/>
-      <c r="I32" s="90"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="79">
+      <c r="A33" s="100"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="77">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D33" s="79">
+      <c r="D33" s="77">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="78">
         <v>2.75</v>
       </c>
-      <c r="F33" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="81" t="s">
+      <c r="F33" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="81"/>
-      <c r="I33" s="90"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
-      <c r="B34" s="88">
+      <c r="A34" s="100"/>
+      <c r="B34" s="95">
         <v>41063</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="77">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="77">
         <v>0.9375</v>
       </c>
-      <c r="E34" s="80">
+      <c r="E34" s="78">
         <v>1</v>
       </c>
-      <c r="F34" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="81" t="s">
+      <c r="F34" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="90"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="86"/>
     </row>
     <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="90"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="86"/>
     </row>
     <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97">
+      <c r="A36" s="99">
         <v>3</v>
       </c>
-      <c r="B36" s="103">
+      <c r="B36" s="96">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1927,12 +1936,12 @@
         <v>20</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="90"/>
+      <c r="I36" s="86"/>
       <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98"/>
-      <c r="B37" s="105"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1949,15 +1958,15 @@
         <v>64</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="90"/>
+      <c r="I37" s="86"/>
       <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="98"/>
-      <c r="B38" s="103">
+      <c r="A38" s="100"/>
+      <c r="B38" s="96">
         <v>41068</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="81" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="4">
@@ -1973,12 +1982,12 @@
         <v>64</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="90"/>
+      <c r="I38" s="86"/>
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98"/>
-      <c r="B39" s="104"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -1995,12 +2004,12 @@
         <v>20</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="90"/>
+      <c r="I39" s="86"/>
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="98"/>
-      <c r="B40" s="105"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -2017,12 +2026,12 @@
         <v>46</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="90"/>
+      <c r="I40" s="86"/>
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
-      <c r="B41" s="3">
+      <c r="A41" s="100"/>
+      <c r="B41" s="87">
         <v>41069</v>
       </c>
       <c r="C41" s="4">
@@ -2041,26 +2050,26 @@
         <v>65</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="90"/>
+      <c r="I41" s="86"/>
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="33"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="90"/>
+      <c r="I42" s="86"/>
       <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="97">
+      <c r="A43" s="99">
         <v>4</v>
       </c>
-      <c r="B43" s="103">
+      <c r="B43" s="96">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -2079,12 +2088,12 @@
         <v>20</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="90"/>
+      <c r="I43" s="86"/>
       <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
-      <c r="B44" s="104"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2101,12 +2110,12 @@
         <v>46</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="90"/>
+      <c r="I44" s="86"/>
       <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98"/>
-      <c r="B45" s="105"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2123,12 +2132,12 @@
         <v>66</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="90"/>
+      <c r="I45" s="86"/>
       <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="98"/>
-      <c r="B46" s="9">
+      <c r="A46" s="100"/>
+      <c r="B46" s="95">
         <v>41072</v>
       </c>
       <c r="C46" s="10">
@@ -2147,11 +2156,11 @@
         <v>67</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="90"/>
+      <c r="I46" s="86"/>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="98"/>
-      <c r="B47" s="103">
+      <c r="A47" s="100"/>
+      <c r="B47" s="96">
         <v>41073</v>
       </c>
       <c r="C47" s="13">
@@ -2170,145 +2179,145 @@
         <v>20</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="90"/>
+      <c r="I47" s="86"/>
     </row>
     <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="40">
+      <c r="A48" s="100"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="39">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="39">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="40">
         <v>0</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="90"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="86"/>
     </row>
     <row r="49" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="98"/>
-      <c r="B49" s="89">
+      <c r="A49" s="100"/>
+      <c r="B49" s="93">
         <v>41075</v>
       </c>
-      <c r="C49" s="79">
+      <c r="C49" s="77">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D49" s="79">
+      <c r="D49" s="77">
         <v>0.25</v>
       </c>
-      <c r="E49" s="80">
+      <c r="E49" s="78">
         <v>2.5</v>
       </c>
-      <c r="F49" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="81" t="s">
+      <c r="F49" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="81"/>
-      <c r="I49" s="90"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="86"/>
     </row>
     <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="98"/>
-      <c r="B50" s="89">
+      <c r="A50" s="100"/>
+      <c r="B50" s="93">
         <v>41076</v>
       </c>
-      <c r="C50" s="79">
+      <c r="C50" s="77">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D50" s="79">
+      <c r="D50" s="77">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E50" s="80">
+      <c r="E50" s="78">
         <v>4</v>
       </c>
-      <c r="F50" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="81" t="s">
+      <c r="F50" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="81"/>
-      <c r="I50" s="90"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="98"/>
-      <c r="B51" s="103">
+      <c r="A51" s="100"/>
+      <c r="B51" s="96">
         <v>41077</v>
       </c>
-      <c r="C51" s="79">
+      <c r="C51" s="77">
         <v>0.30208333333333331</v>
       </c>
-      <c r="D51" s="79">
+      <c r="D51" s="77">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E51" s="80">
+      <c r="E51" s="78">
         <v>3.75</v>
       </c>
-      <c r="F51" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="81" t="s">
+      <c r="F51" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="81"/>
-      <c r="I51" s="90"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="86"/>
     </row>
     <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="98"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="79">
+      <c r="A52" s="100"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="77">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D52" s="79">
+      <c r="D52" s="77">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E52" s="80">
+      <c r="E52" s="78">
         <v>4.5</v>
       </c>
-      <c r="F52" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="81" t="s">
+      <c r="F52" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="81"/>
-      <c r="I52" s="90"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="86"/>
     </row>
     <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="44">
+      <c r="A53" s="101"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="42">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D53" s="42">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E53" s="43">
         <v>3</v>
       </c>
-      <c r="F53" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="46" t="s">
+      <c r="F53" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="90"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="86"/>
     </row>
     <row r="54" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="97">
+      <c r="A54" s="99">
         <v>5</v>
       </c>
-      <c r="B54" s="103">
+      <c r="B54" s="96">
         <v>41078</v>
       </c>
       <c r="C54" s="4">
@@ -2327,12 +2336,12 @@
         <v>71</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="90"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="98"/>
-      <c r="B55" s="105"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="4">
         <v>0.375</v>
       </c>
@@ -2349,12 +2358,12 @@
         <v>51</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="90"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="27"/>
     </row>
     <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="98"/>
-      <c r="B56" s="103">
+      <c r="A56" s="100"/>
+      <c r="B56" s="96">
         <v>41079</v>
       </c>
       <c r="C56" s="4">
@@ -2373,12 +2382,12 @@
         <v>51</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="90"/>
+      <c r="I56" s="86"/>
       <c r="K56" s="27"/>
     </row>
     <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="98"/>
-      <c r="B57" s="105"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="4">
         <v>0.55208333333333337</v>
       </c>
@@ -2395,12 +2404,12 @@
         <v>72</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="90"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="27"/>
     </row>
     <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="98"/>
-      <c r="B58" s="103">
+      <c r="A58" s="100"/>
+      <c r="B58" s="96">
         <v>41080</v>
       </c>
       <c r="C58" s="4">
@@ -2419,12 +2428,12 @@
         <v>73</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="90"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="27"/>
     </row>
     <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="98"/>
-      <c r="B59" s="105"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="98"/>
       <c r="C59" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -2441,12 +2450,12 @@
         <v>52</v>
       </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="90"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="27"/>
     </row>
     <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="98"/>
-      <c r="B60" s="103">
+      <c r="A60" s="100"/>
+      <c r="B60" s="96">
         <v>41081</v>
       </c>
       <c r="C60" s="4">
@@ -2465,12 +2474,12 @@
         <v>48</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="90"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="27"/>
     </row>
     <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2487,12 +2496,12 @@
         <v>74</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="90"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="27"/>
     </row>
     <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
-      <c r="B62" s="104"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="4">
         <v>0.5625</v>
       </c>
@@ -2509,12 +2518,12 @@
         <v>75</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="90"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="27"/>
     </row>
     <row r="63" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="98"/>
-      <c r="B63" s="104"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="97"/>
       <c r="C63" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2531,12 +2540,12 @@
         <v>81</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="90"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="27"/>
     </row>
     <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="98"/>
-      <c r="B64" s="104"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="97"/>
       <c r="C64" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -2553,12 +2562,12 @@
         <v>76</v>
       </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="90"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="27"/>
     </row>
     <row r="65" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="98"/>
-      <c r="B65" s="105"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="4">
         <v>0.90625</v>
       </c>
@@ -2575,12 +2584,12 @@
         <v>77</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="90"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="27"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="98"/>
-      <c r="B66" s="103">
+      <c r="A66" s="100"/>
+      <c r="B66" s="96">
         <v>41082</v>
       </c>
       <c r="C66" s="4">
@@ -2599,12 +2608,12 @@
         <v>78</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="90"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="27"/>
     </row>
     <row r="67" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="98"/>
-      <c r="B67" s="104"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -2621,12 +2630,12 @@
         <v>79</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="90"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="27"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="98"/>
-      <c r="B68" s="105"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="4">
         <v>0.74652777777777779</v>
       </c>
@@ -2643,12 +2652,12 @@
         <v>80</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="90"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="27"/>
     </row>
     <row r="69" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="98"/>
-      <c r="B69" s="3">
+      <c r="A69" s="100"/>
+      <c r="B69" s="87">
         <v>41083</v>
       </c>
       <c r="C69" s="4">
@@ -2667,168 +2676,168 @@
         <v>82</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="90"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="27"/>
     </row>
     <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="100"/>
+      <c r="B70" s="87"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="33"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="90"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="27"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="98"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="100"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="33"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="90"/>
+      <c r="I71" s="86"/>
       <c r="K71" s="27"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="87"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="33"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="90"/>
+      <c r="I72" s="86"/>
       <c r="K72" s="27"/>
     </row>
     <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="99"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="101"/>
+      <c r="B73" s="87"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="33"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="90"/>
+      <c r="I73" s="86"/>
       <c r="K73" s="27"/>
     </row>
     <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="87"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="33"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="90"/>
+      <c r="I74" s="86"/>
       <c r="K74" s="27"/>
     </row>
     <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="95"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="35"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="90"/>
+      <c r="I75" s="86"/>
     </row>
     <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>6</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="36"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="90"/>
+      <c r="I76" s="86"/>
     </row>
     <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="90"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="86"/>
     </row>
     <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="90"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="86"/>
     </row>
     <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="87"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="33"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="90"/>
+      <c r="I79" s="86"/>
       <c r="K79" s="27"/>
     </row>
     <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="87"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="33"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="90"/>
+      <c r="I80" s="86"/>
       <c r="K80" s="27"/>
     </row>
     <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>7</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="87"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="33"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="90"/>
+      <c r="I81" s="86"/>
       <c r="K81" s="27"/>
     </row>
     <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="87"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="33"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="90"/>
+      <c r="I82" s="86"/>
       <c r="K82" s="27"/>
     </row>
     <row r="83" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
-      <c r="B83" s="91">
+      <c r="B83" s="87">
         <v>41098</v>
       </c>
       <c r="C83" s="4">
@@ -2847,14 +2856,14 @@
         <v>84</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="90"/>
+      <c r="I83" s="86"/>
       <c r="K83" s="27"/>
     </row>
     <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="98">
+      <c r="A84" s="100">
         <v>8</v>
       </c>
-      <c r="B84" s="106">
+      <c r="B84" s="96">
         <v>41099</v>
       </c>
       <c r="C84" s="4">
@@ -2873,12 +2882,12 @@
         <v>91</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="90"/>
+      <c r="I84" s="86"/>
       <c r="K84" s="27"/>
     </row>
     <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="98"/>
-      <c r="B85" s="107"/>
+      <c r="A85" s="100"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="4">
         <v>0.4993055555555555</v>
       </c>
@@ -2895,12 +2904,12 @@
         <v>91</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="90"/>
+      <c r="I85" s="86"/>
       <c r="K85" s="27"/>
     </row>
     <row r="86" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="98"/>
-      <c r="B86" s="108"/>
+      <c r="A86" s="100"/>
+      <c r="B86" s="98"/>
       <c r="C86" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2917,12 +2926,12 @@
         <v>90</v>
       </c>
       <c r="H86" s="5"/>
-      <c r="I86" s="90"/>
+      <c r="I86" s="86"/>
       <c r="K86" s="27"/>
     </row>
     <row r="87" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="98"/>
-      <c r="B87" s="106">
+      <c r="A87" s="100"/>
+      <c r="B87" s="96">
         <v>41100</v>
       </c>
       <c r="C87" s="4">
@@ -2941,12 +2950,12 @@
         <v>88</v>
       </c>
       <c r="H87" s="5"/>
-      <c r="I87" s="90"/>
+      <c r="I87" s="86"/>
       <c r="K87" s="27"/>
     </row>
     <row r="88" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="98"/>
-      <c r="B88" s="107"/>
+      <c r="A88" s="100"/>
+      <c r="B88" s="97"/>
       <c r="C88" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -2963,12 +2972,12 @@
         <v>86</v>
       </c>
       <c r="H88" s="5"/>
-      <c r="I88" s="90"/>
+      <c r="I88" s="86"/>
       <c r="K88" s="27"/>
     </row>
     <row r="89" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="98"/>
-      <c r="B89" s="108"/>
+      <c r="A89" s="100"/>
+      <c r="B89" s="98"/>
       <c r="C89" s="4">
         <v>0.90625</v>
       </c>
@@ -2985,12 +2994,12 @@
         <v>86</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="90"/>
+      <c r="I89" s="86"/>
       <c r="K89" s="27"/>
     </row>
     <row r="90" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="98"/>
-      <c r="B90" s="106">
+      <c r="A90" s="100"/>
+      <c r="B90" s="96">
         <v>41101</v>
       </c>
       <c r="C90" s="4">
@@ -3011,12 +3020,12 @@
       <c r="H90" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I90" s="90"/>
+      <c r="I90" s="86"/>
       <c r="K90" s="27"/>
     </row>
     <row r="91" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="107"/>
+      <c r="A91" s="100"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -3033,12 +3042,12 @@
         <v>86</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="I91" s="90"/>
+      <c r="I91" s="86"/>
       <c r="K91" s="27"/>
     </row>
     <row r="92" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="98"/>
-      <c r="B92" s="107"/>
+      <c r="A92" s="100"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -3057,12 +3066,12 @@
       <c r="H92" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="90"/>
+      <c r="I92" s="86"/>
       <c r="K92" s="27"/>
     </row>
     <row r="93" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="98"/>
-      <c r="B93" s="108"/>
+      <c r="A93" s="100"/>
+      <c r="B93" s="98"/>
       <c r="C93" s="4">
         <v>0.65625</v>
       </c>
@@ -3081,209 +3090,209 @@
       <c r="H93" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I93" s="90"/>
+      <c r="I93" s="86"/>
       <c r="K93" s="27"/>
     </row>
     <row r="94" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="98"/>
-      <c r="B94" s="100">
+      <c r="A94" s="100"/>
+      <c r="B94" s="102">
         <v>41102</v>
       </c>
-      <c r="C94" s="62">
+      <c r="C94" s="60">
         <v>0.40625</v>
       </c>
-      <c r="D94" s="62">
+      <c r="D94" s="60">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E94" s="63">
+      <c r="E94" s="61">
         <v>1.75</v>
       </c>
-      <c r="F94" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" s="64" t="s">
+      <c r="F94" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="H94" s="59" t="s">
+      <c r="H94" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="90"/>
+      <c r="I94" s="86"/>
       <c r="K94" s="27"/>
     </row>
     <row r="95" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="98"/>
-      <c r="B95" s="101"/>
-      <c r="C95" s="92">
+      <c r="A95" s="100"/>
+      <c r="B95" s="103"/>
+      <c r="C95" s="88">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D95" s="92">
+      <c r="D95" s="88">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E95" s="93">
+      <c r="E95" s="89">
         <v>0.5</v>
       </c>
-      <c r="F95" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" s="84" t="s">
+      <c r="F95" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="H95" s="84"/>
-      <c r="I95" s="90"/>
+      <c r="H95" s="82"/>
+      <c r="I95" s="86"/>
       <c r="K95" s="27"/>
     </row>
     <row r="96" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
-      <c r="B96" s="101"/>
-      <c r="C96" s="92">
+      <c r="A96" s="100"/>
+      <c r="B96" s="103"/>
+      <c r="C96" s="88">
         <v>0.625</v>
       </c>
-      <c r="D96" s="92">
+      <c r="D96" s="88">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E96" s="93">
+      <c r="E96" s="89">
         <v>1.25</v>
       </c>
-      <c r="F96" s="84" t="s">
+      <c r="F96" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G96" s="84" t="s">
+      <c r="G96" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="H96" s="84"/>
-      <c r="I96" s="90"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="86"/>
       <c r="K96" s="27"/>
     </row>
     <row r="97" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="98"/>
-      <c r="B97" s="101"/>
-      <c r="C97" s="92">
+      <c r="A97" s="100"/>
+      <c r="B97" s="103"/>
+      <c r="C97" s="88">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D97" s="92">
+      <c r="D97" s="88">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E97" s="93">
+      <c r="E97" s="89">
         <v>0.75</v>
       </c>
-      <c r="F97" s="84" t="s">
+      <c r="F97" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G97" s="84" t="s">
+      <c r="G97" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="H97" s="84"/>
-      <c r="I97" s="90"/>
+      <c r="H97" s="82"/>
+      <c r="I97" s="86"/>
       <c r="K97" s="27"/>
     </row>
     <row r="98" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="98"/>
-      <c r="B98" s="101"/>
-      <c r="C98" s="92">
+      <c r="A98" s="100"/>
+      <c r="B98" s="103"/>
+      <c r="C98" s="88">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D98" s="92">
+      <c r="D98" s="88">
         <v>0.75694444444444453</v>
       </c>
-      <c r="E98" s="93">
+      <c r="E98" s="89">
         <v>1</v>
       </c>
-      <c r="F98" s="84" t="s">
+      <c r="F98" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="84" t="s">
+      <c r="G98" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="H98" s="84"/>
-      <c r="I98" s="90"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="86"/>
       <c r="K98" s="27"/>
     </row>
     <row r="99" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="98"/>
-      <c r="B99" s="102"/>
-      <c r="C99" s="92">
+      <c r="A99" s="100"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="88">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D99" s="92">
+      <c r="D99" s="88">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E99" s="93">
+      <c r="E99" s="89">
         <v>2</v>
       </c>
-      <c r="F99" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" s="84" t="s">
+      <c r="F99" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="H99" s="84"/>
-      <c r="I99" s="90"/>
+      <c r="H99" s="82"/>
+      <c r="I99" s="86"/>
       <c r="K99" s="27"/>
     </row>
     <row r="100" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="98"/>
-      <c r="B100" s="100">
+      <c r="A100" s="100"/>
+      <c r="B100" s="102">
         <v>41103</v>
       </c>
-      <c r="C100" s="92">
+      <c r="C100" s="88">
         <v>0.91319444444444453</v>
       </c>
-      <c r="D100" s="92">
+      <c r="D100" s="88">
         <v>0.99652777777777779</v>
       </c>
-      <c r="E100" s="93">
+      <c r="E100" s="89">
         <v>2</v>
       </c>
-      <c r="F100" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" s="84" t="s">
+      <c r="F100" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="H100" s="84"/>
-      <c r="I100" s="90"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="86"/>
       <c r="K100" s="27"/>
     </row>
     <row r="101" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="98"/>
-      <c r="B101" s="101"/>
-      <c r="C101" s="92">
+      <c r="A101" s="100"/>
+      <c r="B101" s="103"/>
+      <c r="C101" s="88">
         <v>0.19097222222222221</v>
       </c>
-      <c r="D101" s="92">
+      <c r="D101" s="88">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E101" s="93">
+      <c r="E101" s="89">
         <v>3.5</v>
       </c>
-      <c r="F101" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" s="84" t="s">
+      <c r="F101" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="H101" s="84" t="s">
+      <c r="H101" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="I101" s="90"/>
+      <c r="I101" s="86"/>
       <c r="K101" s="27"/>
     </row>
     <row r="102" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="90"/>
+      <c r="A102" s="101"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="86"/>
     </row>
     <row r="103" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="97">
+      <c r="A103" s="99">
         <v>9</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="87">
         <v>41106</v>
       </c>
       <c r="C103" s="4">
@@ -3302,12 +3311,12 @@
         <v>106</v>
       </c>
       <c r="H103" s="5"/>
-      <c r="I103" s="90"/>
+      <c r="I103" s="86"/>
       <c r="K103" s="27"/>
     </row>
     <row r="104" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="98"/>
-      <c r="B104" s="3">
+      <c r="A104" s="100"/>
+      <c r="B104" s="87">
         <v>41108</v>
       </c>
       <c r="C104" s="4">
@@ -3326,12 +3335,12 @@
         <v>107</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="90"/>
+      <c r="I104" s="86"/>
       <c r="K104" s="27"/>
     </row>
     <row r="105" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="98"/>
-      <c r="B105" s="3">
+      <c r="A105" s="100"/>
+      <c r="B105" s="87">
         <v>41109</v>
       </c>
       <c r="C105" s="4">
@@ -3350,12 +3359,12 @@
         <v>107</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="90"/>
+      <c r="I105" s="86"/>
       <c r="K105" s="27"/>
     </row>
     <row r="106" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="98"/>
-      <c r="B106" s="3">
+      <c r="A106" s="100"/>
+      <c r="B106" s="96">
         <v>41110</v>
       </c>
       <c r="C106" s="4">
@@ -3376,250 +3385,271 @@
       <c r="H106" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I106" s="90"/>
+      <c r="I106" s="86"/>
       <c r="K106" s="27"/>
     </row>
     <row r="107" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="98"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+      <c r="A107" s="100"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="4">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E107" s="33">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="90"/>
+      <c r="I107" s="86"/>
       <c r="K107" s="27"/>
     </row>
     <row r="108" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="98"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="90"/>
+      <c r="A108" s="100"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="4">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E108" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I108" s="86"/>
       <c r="K108" s="27"/>
     </row>
     <row r="109" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="98"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="90"/>
+      <c r="A109" s="100"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E109" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I109" s="86"/>
       <c r="K109" s="27"/>
     </row>
     <row r="110" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="98"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="100"/>
+      <c r="B110" s="87"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="33"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="90"/>
+      <c r="I110" s="86"/>
       <c r="K110" s="27"/>
     </row>
     <row r="111" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="98"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="100"/>
+      <c r="B111" s="87"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="33"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
-      <c r="I111" s="90"/>
+      <c r="I111" s="86"/>
       <c r="K111" s="27"/>
     </row>
     <row r="112" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="98"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="100"/>
+      <c r="B112" s="95"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="35"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="90"/>
+      <c r="I112" s="86"/>
     </row>
     <row r="113" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="98"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="100"/>
+      <c r="B113" s="94"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="36"/>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
-      <c r="I113" s="90"/>
+      <c r="I113" s="86"/>
     </row>
     <row r="114" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="98"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="42"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="90"/>
+      <c r="A114" s="100"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="86"/>
     </row>
     <row r="115" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="99"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="90"/>
+      <c r="A115" s="101"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="86"/>
     </row>
     <row r="116" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="87"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="33"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="90"/>
+      <c r="I116" s="86"/>
       <c r="K116" s="27"/>
     </row>
     <row r="117" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="87"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="33"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="90"/>
+      <c r="I117" s="86"/>
       <c r="K117" s="27"/>
     </row>
     <row r="118" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>10</v>
       </c>
-      <c r="B118" s="3"/>
+      <c r="B118" s="87"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="33"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
-      <c r="I118" s="90"/>
+      <c r="I118" s="86"/>
       <c r="K118" s="27"/>
     </row>
     <row r="119" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="87"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="33"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
-      <c r="I119" s="90"/>
+      <c r="I119" s="86"/>
       <c r="K119" s="27"/>
     </row>
     <row r="120" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="87"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="33"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="90"/>
+      <c r="I120" s="86"/>
       <c r="K120" s="27"/>
     </row>
     <row r="121" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="87"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="33"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="90"/>
+      <c r="I121" s="86"/>
       <c r="K121" s="27"/>
     </row>
     <row r="122" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30"/>
-      <c r="B122" s="9"/>
+      <c r="B122" s="95"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="35"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="5"/>
-      <c r="I122" s="90"/>
+      <c r="I122" s="86"/>
     </row>
     <row r="123" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>11</v>
       </c>
-      <c r="B123" s="12"/>
+      <c r="B123" s="94"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="36"/>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
       <c r="H123" s="15"/>
-      <c r="I123" s="90"/>
+      <c r="I123" s="86"/>
     </row>
     <row r="124" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="90"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="86"/>
     </row>
     <row r="125" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="90"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="44"/>
+      <c r="I125" s="86"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:H6"/>
-  <mergeCells count="30">
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A54:A73"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B65"/>
+  <mergeCells count="31">
+    <mergeCell ref="B106:B109"/>
     <mergeCell ref="A103:A115"/>
     <mergeCell ref="B94:B99"/>
     <mergeCell ref="B100:B101"/>
@@ -3636,6 +3666,20 @@
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="A84:A102"/>
     <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A54:A73"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3652,259 +3696,259 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="48"/>
-    <col min="3" max="3" width="10.7109375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="48"/>
-    <col min="5" max="5" width="9.140625" style="50"/>
-    <col min="6" max="6" width="9.140625" style="48"/>
-    <col min="7" max="7" width="30.28515625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="48"/>
-    <col min="10" max="10" width="26" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="7.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="46"/>
+    <col min="3" max="3" width="10.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="46"/>
+    <col min="5" max="5" width="9.140625" style="48"/>
+    <col min="6" max="6" width="9.140625" style="46"/>
+    <col min="7" max="7" width="30.28515625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="46"/>
+    <col min="10" max="10" width="26" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D3" s="49"/>
-      <c r="J3" s="51" t="s">
+      <c r="D3" s="47"/>
+      <c r="J3" s="49" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="50">
         <v>41050</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="53"/>
-      <c r="J5" s="49" t="s">
+      <c r="C5" s="51"/>
+      <c r="J5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="108">
         <v>1</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="102">
         <v>41052</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="55">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="55">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="56">
         <v>2.5</v>
       </c>
-      <c r="F7" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="J7" s="48" t="s">
+      <c r="H7" s="57"/>
+      <c r="J7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="56"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="57">
+      <c r="A8" s="109"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="55">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="55">
         <v>0.51736111111111105</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="56">
         <v>0.25</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="J8" s="48" t="s">
+      <c r="H8" s="57"/>
+      <c r="J8" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="56"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="57">
+      <c r="A9" s="109"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="55">
         <v>0.5625</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="55">
         <v>0.59722222222222221</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="56">
         <v>1</v>
       </c>
-      <c r="F9" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="56"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="57">
+      <c r="A10" s="109"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="55">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="55">
         <v>0.64236111111111105</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="56">
         <v>1</v>
       </c>
-      <c r="F10" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="59" t="s">
+      <c r="F10" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="56"/>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="60">
+      <c r="A11" s="109"/>
+      <c r="B11" s="58">
         <v>41053</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="55">
         <v>0.8125</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="55">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="56">
         <v>5.5</v>
       </c>
-      <c r="F11" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="59" t="s">
+      <c r="F11" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="J11" s="48" t="s">
+      <c r="H11" s="57"/>
+      <c r="J11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="56"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="60">
+      <c r="A12" s="109"/>
+      <c r="B12" s="58">
         <v>41054</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="55">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="56">
         <v>4</v>
       </c>
-      <c r="F12" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="59" t="s">
+      <c r="F12" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="J12" s="48" t="s">
+      <c r="H12" s="57"/>
+      <c r="J12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="56"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="J13" s="48" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="J13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="56"/>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109">
+      <c r="A14" s="108">
         <v>2</v>
       </c>
-      <c r="B14" s="112">
+      <c r="B14" s="105">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -3922,12 +3966,12 @@
       <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="K14" s="56"/>
+      <c r="H14" s="67"/>
+      <c r="K14" s="54"/>
     </row>
     <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -3943,33 +3987,33 @@
       <c r="G15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="73"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="57">
+      <c r="A16" s="109"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="55">
         <v>0.92708333333333337</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="55">
         <v>0.98333333333333339</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="56">
         <v>1.25</v>
       </c>
-      <c r="F16" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="59" t="s">
+      <c r="F16" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="82" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="112">
+      <c r="A17" s="109"/>
+      <c r="B17" s="105">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -3987,31 +4031,31 @@
       <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="73"/>
+      <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="57">
+      <c r="A18" s="109"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="55">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="55">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="56">
         <v>0</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="73"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4027,13 +4071,13 @@
       <c r="G19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="82" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="87">
+      <c r="A20" s="109"/>
+      <c r="B20" s="85">
         <v>41061</v>
       </c>
       <c r="C20" s="4">
@@ -4051,14 +4095,14 @@
       <c r="G20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="73"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="112">
+      <c r="A21" s="109"/>
+      <c r="B21" s="105">
         <v>41063</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="76" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="4">
@@ -4073,11 +4117,11 @@
       <c r="G21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="114"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -4093,11 +4137,11 @@
       <c r="G22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="85">
+      <c r="A23" s="109"/>
+      <c r="B23" s="83">
         <v>41064</v>
       </c>
       <c r="C23" s="4">
@@ -4115,368 +4159,368 @@
       <c r="G23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="73"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="84"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="82"/>
     </row>
     <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="109">
+      <c r="A25" s="108">
         <v>3</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="58">
         <v>41066</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="55">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="56">
         <v>2.5</v>
       </c>
-      <c r="F25" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="59" t="s">
+      <c r="F25" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="K25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="K25" s="54"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="60">
+      <c r="A26" s="109"/>
+      <c r="B26" s="58">
         <v>41067</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="55">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="56">
         <v>1.5</v>
       </c>
-      <c r="F26" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="59" t="s">
+      <c r="F26" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="K26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="K27" s="56"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="K27" s="54"/>
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="K28" s="56"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="K28" s="54"/>
     </row>
     <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="K29" s="56"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="K29" s="54"/>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="K30" s="56"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="K31" s="56"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="K31" s="54"/>
     </row>
     <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="K32" s="56"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="K32" s="54"/>
     </row>
     <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="K33" s="56"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="K33" s="54"/>
     </row>
     <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="109">
+      <c r="A34" s="108">
         <v>4</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="K34" s="56"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="K34" s="54"/>
     </row>
     <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="59"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="69"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
     </row>
     <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="109">
+      <c r="A39" s="108">
         <v>5</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="K39" s="56"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="K40" s="56"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="K40" s="54"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="K41" s="56"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="K41" s="54"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="K42" s="56"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="K42" s="54"/>
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="K43" s="56"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="K43" s="54"/>
     </row>
     <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="109">
+      <c r="A44" s="108">
         <v>6</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="K44" s="56"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="K44" s="54"/>
     </row>
     <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="110"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="59"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
     </row>
     <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="111"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
+      <c r="A48" s="110"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
     </row>
     <row r="49" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="109">
+      <c r="A49" s="108">
         <v>7</v>
       </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="K49" s="56"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="K49" s="54"/>
     </row>
     <row r="50" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="K50" s="56"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="K50" s="54"/>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="110"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="K51" s="56"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="K51" s="54"/>
     </row>
     <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="K52" s="56"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="K52" s="54"/>
     </row>
     <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="111"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="K53" s="56"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="K53" s="54"/>
     </row>
     <row r="54" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="109">
+      <c r="A54" s="108">
         <v>8</v>
       </c>
-      <c r="B54" s="94">
+      <c r="B54" s="90">
         <v>41100</v>
       </c>
       <c r="C54" s="4">
@@ -4485,399 +4529,393 @@
       <c r="D54" s="4">
         <v>0.73958333333333337</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="56">
         <v>1</v>
       </c>
-      <c r="F54" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="59" t="s">
+      <c r="F54" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="59"/>
-      <c r="K54" s="56"/>
+      <c r="H54" s="57"/>
+      <c r="K54" s="54"/>
     </row>
     <row r="55" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
-      <c r="B55" s="96">
+      <c r="A55" s="109"/>
+      <c r="B55" s="92">
         <v>41103</v>
       </c>
-      <c r="C55" s="62">
+      <c r="C55" s="60">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D55" s="62">
+      <c r="D55" s="60">
         <v>0.6875</v>
       </c>
-      <c r="E55" s="63">
+      <c r="E55" s="61">
         <v>4</v>
       </c>
-      <c r="F55" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="64" t="s">
+      <c r="F55" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="H55" s="59"/>
+      <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="111"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
     </row>
     <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="109">
+      <c r="A57" s="108">
         <v>9</v>
       </c>
-      <c r="B57" s="100">
+      <c r="B57" s="102">
         <v>41106</v>
       </c>
-      <c r="C57" s="57">
+      <c r="C57" s="55">
         <v>0.55069444444444449</v>
       </c>
-      <c r="D57" s="57">
+      <c r="D57" s="55">
         <v>0.61319444444444449</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="56">
         <v>1.5</v>
       </c>
-      <c r="F57" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="59" t="s">
+      <c r="F57" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="H57" s="59"/>
-      <c r="K57" s="56"/>
+      <c r="H57" s="57"/>
+      <c r="K57" s="54"/>
     </row>
     <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="57">
+      <c r="A58" s="109"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="55">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D58" s="57">
+      <c r="D58" s="55">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="56">
         <v>0</v>
       </c>
-      <c r="F58" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="59" t="s">
+      <c r="F58" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="H58" s="59"/>
-      <c r="K58" s="56"/>
+      <c r="H58" s="57"/>
+      <c r="K58" s="54"/>
     </row>
     <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="57">
+      <c r="A59" s="109"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="55">
         <v>0.71527777777777779</v>
       </c>
-      <c r="D59" s="57">
+      <c r="D59" s="55">
         <v>0.71875</v>
       </c>
-      <c r="E59" s="58">
+      <c r="E59" s="56">
         <v>0</v>
       </c>
-      <c r="F59" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="59" t="s">
+      <c r="F59" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="H59" s="59"/>
-      <c r="K59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="K59" s="54"/>
     </row>
     <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="110"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="57">
+      <c r="A60" s="109"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="55">
         <v>0.73263888888888884</v>
       </c>
-      <c r="D60" s="57">
+      <c r="D60" s="55">
         <v>0.73611111111111116</v>
       </c>
-      <c r="E60" s="58">
+      <c r="E60" s="56">
         <v>0.25</v>
       </c>
-      <c r="F60" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="59" t="s">
+      <c r="F60" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="59"/>
-      <c r="K60" s="56"/>
+      <c r="H60" s="57"/>
+      <c r="K60" s="54"/>
     </row>
     <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="57">
+      <c r="A61" s="109"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="55">
         <v>0.86805555555555547</v>
       </c>
-      <c r="D61" s="57">
+      <c r="D61" s="55">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E61" s="58">
+      <c r="E61" s="56">
         <v>3</v>
       </c>
-      <c r="F61" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="59" t="s">
+      <c r="F61" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H61" s="59"/>
-      <c r="K61" s="56"/>
+      <c r="H61" s="57"/>
+      <c r="K61" s="54"/>
     </row>
     <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
-      <c r="B62" s="100">
+      <c r="A62" s="109"/>
+      <c r="B62" s="102">
         <v>41107</v>
       </c>
-      <c r="C62" s="57">
+      <c r="C62" s="55">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D62" s="57">
+      <c r="D62" s="55">
         <v>0.19791666666666666</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E62" s="56">
         <v>4.75</v>
       </c>
-      <c r="F62" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="59" t="s">
+      <c r="F62" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H62" s="69"/>
+      <c r="H62" s="67"/>
     </row>
     <row r="63" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="110"/>
-      <c r="B63" s="102"/>
-      <c r="C63" s="71">
+      <c r="A63" s="109"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="69">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D63" s="71">
+      <c r="D63" s="69">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E63" s="72">
+      <c r="E63" s="70">
         <v>5.25</v>
       </c>
-      <c r="F63" s="73" t="s">
+      <c r="F63" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="G63" s="73" t="s">
+      <c r="G63" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="H63" s="73"/>
+      <c r="H63" s="71"/>
     </row>
     <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="110"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
     </row>
     <row r="65" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
     </row>
     <row r="66" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="110"/>
-      <c r="B66" s="95"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
+      <c r="A66" s="109"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
     </row>
     <row r="67" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="110"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
+      <c r="A67" s="109"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
     </row>
     <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="110"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
+      <c r="A68" s="109"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
     </row>
     <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="110"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
+      <c r="A69" s="109"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
     </row>
     <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
     </row>
     <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="111"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
     </row>
     <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="109">
+      <c r="A72" s="108">
         <v>10</v>
       </c>
-      <c r="B72" s="60"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="K72" s="56"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="K72" s="54"/>
     </row>
     <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="K73" s="56"/>
+      <c r="A73" s="109"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="K73" s="54"/>
     </row>
     <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="K74" s="56"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="K74" s="54"/>
     </row>
     <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="K75" s="56"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="K75" s="54"/>
     </row>
     <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="111"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="K76" s="56"/>
+      <c r="A76" s="110"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="K76" s="54"/>
     </row>
     <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="109">
+      <c r="A77" s="108">
         <v>11</v>
       </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="K77" s="56"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="K77" s="54"/>
     </row>
     <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="59"/>
+      <c r="A78" s="109"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="69"/>
+      <c r="A79" s="109"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="67"/>
     </row>
     <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
+      <c r="A80" s="109"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
     </row>
     <row r="81" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="111"/>
-      <c r="B81" s="74"/>
-      <c r="C81" s="75"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
+      <c r="A81" s="110"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A7:A13"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A77:A81"/>
     <mergeCell ref="A49:A53"/>
@@ -4889,6 +4927,12 @@
     <mergeCell ref="A57:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A7:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="121">
   <si>
     <t>Week</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>v2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo MVC 3 </t>
+  </si>
+  <si>
+    <t>Analyze List Function</t>
+  </si>
+  <si>
+    <t>Make List Function</t>
+  </si>
+  <si>
+    <t>v0.2</t>
   </si>
 </sst>
 </file>
@@ -543,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -696,12 +708,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -711,9 +717,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -726,9 +729,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -738,9 +738,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -771,15 +768,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -795,9 +786,6 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -810,6 +798,18 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -837,15 +837,6 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
@@ -1247,10 +1235,10 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99">
+      <c r="A7" s="95">
         <v>1</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="92">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1269,15 +1257,15 @@
         <v>20</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="86"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1294,15 +1282,15 @@
         <v>46</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1321,15 +1309,15 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="96">
+      <c r="A10" s="96"/>
+      <c r="B10" s="92">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1348,15 +1336,15 @@
         <v>20</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1373,15 +1361,15 @@
         <v>46</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="86"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1400,15 +1388,15 @@
       <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="79"/>
       <c r="J12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="96">
+      <c r="A13" s="96"/>
+      <c r="B13" s="92">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1429,15 +1417,15 @@
       <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="86"/>
+      <c r="I13" s="79"/>
       <c r="J13" s="23" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1456,15 +1444,15 @@
       <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="79"/>
       <c r="J14" s="23" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1481,15 +1469,15 @@
         <v>20</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="86"/>
+      <c r="I15" s="79"/>
       <c r="J15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1506,12 +1494,12 @@
         <v>50</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="86"/>
+      <c r="I16" s="79"/>
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1528,12 +1516,12 @@
         <v>45</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="86"/>
+      <c r="I17" s="79"/>
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="96">
+      <c r="A18" s="96"/>
+      <c r="B18" s="92">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1552,12 +1540,12 @@
         <v>46</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="86"/>
+      <c r="I18" s="79"/>
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1574,29 +1562,29 @@
         <v>20</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="86"/>
+      <c r="I19" s="79"/>
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="42"/>
       <c r="E20" s="43"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="86"/>
+      <c r="I20" s="79"/>
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99">
+      <c r="A21" s="95">
         <v>2</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="92">
         <v>41057</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="76" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="10">
@@ -1612,12 +1600,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="86"/>
+      <c r="I21" s="79"/>
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="97"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1634,12 +1622,12 @@
         <v>51</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="86"/>
+      <c r="I22" s="79"/>
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="97"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1656,12 +1644,12 @@
         <v>52</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="86"/>
+      <c r="I23" s="79"/>
       <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="93">
+      <c r="A24" s="96"/>
+      <c r="B24" s="85">
         <v>41058</v>
       </c>
       <c r="C24" s="39">
@@ -1680,244 +1668,244 @@
         <v>20</v>
       </c>
       <c r="H24" s="41"/>
-      <c r="I24" s="86"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="96">
+      <c r="A25" s="96"/>
+      <c r="B25" s="92">
         <v>41059</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="72">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="72">
         <v>0.26319444444444445</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="73">
         <v>0</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="79"/>
-      <c r="I25" s="86"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="77">
+      <c r="A26" s="96"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="72">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="72">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="73">
         <v>1</v>
       </c>
-      <c r="F26" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="84" t="s">
+      <c r="F26" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="78" t="s">
         <v>57</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="86"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="96">
+      <c r="A27" s="96"/>
+      <c r="B27" s="92">
         <v>41060</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="72">
         <v>0.40625</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="72">
         <v>0.46875</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="73">
         <v>1.5</v>
       </c>
-      <c r="F27" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="79" t="s">
+      <c r="F27" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="79"/>
-      <c r="I27" s="86"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="77">
+      <c r="A28" s="96"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="72">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="72">
         <v>0.54513888888888895</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E28" s="73">
         <v>0</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="79"/>
-      <c r="I28" s="86"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="79"/>
     </row>
     <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="96">
+      <c r="A29" s="96"/>
+      <c r="B29" s="92">
         <v>41062</v>
       </c>
-      <c r="C29" s="77">
+      <c r="C29" s="72">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="72">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="73">
         <v>0.5</v>
       </c>
-      <c r="F29" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="79" t="s">
+      <c r="F29" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="79"/>
-      <c r="I29" s="86"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="77">
+      <c r="A30" s="96"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="72">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="72">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="73">
         <v>1</v>
       </c>
-      <c r="F30" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="79" t="s">
+      <c r="F30" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="79"/>
-      <c r="I30" s="86"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="77">
+      <c r="A31" s="96"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="72">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="72">
         <v>0.13194444444444445</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="73">
         <v>2.5</v>
       </c>
-      <c r="F31" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="79" t="s">
+      <c r="F31" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="79"/>
-      <c r="I31" s="86"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="79"/>
     </row>
     <row r="32" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="77">
+      <c r="A32" s="96"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="72">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="72">
         <v>0.20138888888888887</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="73">
         <v>0.25</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="79" t="s">
+      <c r="G32" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="79"/>
-      <c r="I32" s="86"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="79"/>
     </row>
     <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="77">
+      <c r="A33" s="96"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="72">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="72">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="73">
         <v>2.75</v>
       </c>
-      <c r="F33" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="79" t="s">
+      <c r="F33" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="79"/>
-      <c r="I33" s="86"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="79"/>
     </row>
     <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="100"/>
-      <c r="B34" s="95">
+      <c r="A34" s="96"/>
+      <c r="B34" s="87">
         <v>41063</v>
       </c>
-      <c r="C34" s="77">
+      <c r="C34" s="72">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D34" s="77">
+      <c r="D34" s="72">
         <v>0.9375</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="73">
         <v>1</v>
       </c>
-      <c r="F34" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="79" t="s">
+      <c r="F34" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="79"/>
-      <c r="I34" s="86"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="43"/>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
-      <c r="I35" s="86"/>
+      <c r="I35" s="79"/>
     </row>
     <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99">
+      <c r="A36" s="95">
         <v>3</v>
       </c>
-      <c r="B36" s="96">
+      <c r="B36" s="92">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1936,12 +1924,12 @@
         <v>20</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="86"/>
+      <c r="I36" s="79"/>
       <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="98"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1958,15 +1946,15 @@
         <v>64</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="86"/>
+      <c r="I37" s="79"/>
       <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="96">
+      <c r="A38" s="96"/>
+      <c r="B38" s="92">
         <v>41068</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="76" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="4">
@@ -1982,12 +1970,12 @@
         <v>64</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="86"/>
+      <c r="I38" s="79"/>
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="100"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -2004,12 +1992,12 @@
         <v>20</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="86"/>
+      <c r="I39" s="79"/>
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -2026,12 +2014,12 @@
         <v>46</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="86"/>
+      <c r="I40" s="79"/>
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="87">
+      <c r="A41" s="96"/>
+      <c r="B41" s="80">
         <v>41069</v>
       </c>
       <c r="C41" s="4">
@@ -2050,26 +2038,26 @@
         <v>65</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="86"/>
+      <c r="I41" s="79"/>
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
-      <c r="B42" s="87"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="33"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="86"/>
+      <c r="I42" s="79"/>
       <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99">
+      <c r="A43" s="95">
         <v>4</v>
       </c>
-      <c r="B43" s="96">
+      <c r="B43" s="92">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -2088,12 +2076,12 @@
         <v>20</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="86"/>
+      <c r="I43" s="79"/>
       <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="100"/>
-      <c r="B44" s="97"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="93"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2110,12 +2098,12 @@
         <v>46</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="86"/>
+      <c r="I44" s="79"/>
       <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="100"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2132,12 +2120,12 @@
         <v>66</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="86"/>
+      <c r="I45" s="79"/>
       <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="100"/>
-      <c r="B46" s="95">
+      <c r="A46" s="96"/>
+      <c r="B46" s="87">
         <v>41072</v>
       </c>
       <c r="C46" s="10">
@@ -2156,11 +2144,11 @@
         <v>67</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="86"/>
+      <c r="I46" s="79"/>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="100"/>
-      <c r="B47" s="96">
+      <c r="A47" s="96"/>
+      <c r="B47" s="92">
         <v>41073</v>
       </c>
       <c r="C47" s="13">
@@ -2179,11 +2167,11 @@
         <v>20</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="86"/>
+      <c r="I47" s="79"/>
     </row>
     <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="100"/>
-      <c r="B48" s="98"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="94"/>
       <c r="C48" s="39">
         <v>0.44791666666666669</v>
       </c>
@@ -2200,101 +2188,101 @@
         <v>46</v>
       </c>
       <c r="H48" s="41"/>
-      <c r="I48" s="86"/>
+      <c r="I48" s="79"/>
     </row>
     <row r="49" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="100"/>
-      <c r="B49" s="93">
+      <c r="A49" s="96"/>
+      <c r="B49" s="85">
         <v>41075</v>
       </c>
-      <c r="C49" s="77">
+      <c r="C49" s="72">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D49" s="77">
+      <c r="D49" s="72">
         <v>0.25</v>
       </c>
-      <c r="E49" s="78">
+      <c r="E49" s="73">
         <v>2.5</v>
       </c>
-      <c r="F49" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="79" t="s">
+      <c r="F49" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="86"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="79"/>
     </row>
     <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="100"/>
-      <c r="B50" s="93">
+      <c r="A50" s="96"/>
+      <c r="B50" s="85">
         <v>41076</v>
       </c>
-      <c r="C50" s="77">
+      <c r="C50" s="72">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D50" s="72">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E50" s="78">
+      <c r="E50" s="73">
         <v>4</v>
       </c>
-      <c r="F50" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="79" t="s">
+      <c r="F50" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="79"/>
-      <c r="I50" s="86"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="79"/>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="100"/>
-      <c r="B51" s="96">
+      <c r="A51" s="96"/>
+      <c r="B51" s="92">
         <v>41077</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C51" s="72">
         <v>0.30208333333333331</v>
       </c>
-      <c r="D51" s="77">
+      <c r="D51" s="72">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E51" s="78">
+      <c r="E51" s="73">
         <v>3.75</v>
       </c>
-      <c r="F51" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="79" t="s">
+      <c r="F51" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="79"/>
-      <c r="I51" s="86"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="79"/>
     </row>
     <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="100"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="77">
+      <c r="A52" s="96"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="72">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D52" s="77">
+      <c r="D52" s="72">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E52" s="78">
+      <c r="E52" s="73">
         <v>4.5</v>
       </c>
-      <c r="F52" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="79" t="s">
+      <c r="F52" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="79"/>
-      <c r="I52" s="86"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="79"/>
     </row>
     <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
-      <c r="B53" s="98"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="42">
         <v>0.35416666666666669</v>
       </c>
@@ -2311,13 +2299,13 @@
         <v>69</v>
       </c>
       <c r="H53" s="44"/>
-      <c r="I53" s="86"/>
+      <c r="I53" s="79"/>
     </row>
     <row r="54" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="99">
+      <c r="A54" s="95">
         <v>5</v>
       </c>
-      <c r="B54" s="96">
+      <c r="B54" s="92">
         <v>41078</v>
       </c>
       <c r="C54" s="4">
@@ -2336,12 +2324,12 @@
         <v>71</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="86"/>
+      <c r="I54" s="79"/>
       <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="4">
         <v>0.375</v>
       </c>
@@ -2358,12 +2346,12 @@
         <v>51</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="86"/>
+      <c r="I55" s="79"/>
       <c r="K55" s="27"/>
     </row>
     <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
-      <c r="B56" s="96">
+      <c r="A56" s="96"/>
+      <c r="B56" s="92">
         <v>41079</v>
       </c>
       <c r="C56" s="4">
@@ -2382,12 +2370,12 @@
         <v>51</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="86"/>
+      <c r="I56" s="79"/>
       <c r="K56" s="27"/>
     </row>
     <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
-      <c r="B57" s="98"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="4">
         <v>0.55208333333333337</v>
       </c>
@@ -2404,12 +2392,12 @@
         <v>72</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" s="86"/>
+      <c r="I57" s="79"/>
       <c r="K57" s="27"/>
     </row>
     <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
-      <c r="B58" s="96">
+      <c r="A58" s="96"/>
+      <c r="B58" s="92">
         <v>41080</v>
       </c>
       <c r="C58" s="4">
@@ -2428,12 +2416,12 @@
         <v>73</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="86"/>
+      <c r="I58" s="79"/>
       <c r="K58" s="27"/>
     </row>
     <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="100"/>
-      <c r="B59" s="98"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="94"/>
       <c r="C59" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -2450,12 +2438,12 @@
         <v>52</v>
       </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="86"/>
+      <c r="I59" s="79"/>
       <c r="K59" s="27"/>
     </row>
     <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="B60" s="96">
+      <c r="A60" s="96"/>
+      <c r="B60" s="92">
         <v>41081</v>
       </c>
       <c r="C60" s="4">
@@ -2474,12 +2462,12 @@
         <v>48</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="86"/>
+      <c r="I60" s="79"/>
       <c r="K60" s="27"/>
     </row>
     <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="100"/>
-      <c r="B61" s="97"/>
+      <c r="A61" s="96"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2496,12 +2484,12 @@
         <v>74</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="86"/>
+      <c r="I61" s="79"/>
       <c r="K61" s="27"/>
     </row>
     <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="100"/>
-      <c r="B62" s="97"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="4">
         <v>0.5625</v>
       </c>
@@ -2518,12 +2506,12 @@
         <v>75</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="86"/>
+      <c r="I62" s="79"/>
       <c r="K62" s="27"/>
     </row>
     <row r="63" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
-      <c r="B63" s="97"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2540,12 +2528,12 @@
         <v>81</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="86"/>
+      <c r="I63" s="79"/>
       <c r="K63" s="27"/>
     </row>
     <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="100"/>
-      <c r="B64" s="97"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="93"/>
       <c r="C64" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -2562,12 +2550,12 @@
         <v>76</v>
       </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="86"/>
+      <c r="I64" s="79"/>
       <c r="K64" s="27"/>
     </row>
     <row r="65" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
-      <c r="B65" s="98"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="94"/>
       <c r="C65" s="4">
         <v>0.90625</v>
       </c>
@@ -2584,12 +2572,12 @@
         <v>77</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="86"/>
+      <c r="I65" s="79"/>
       <c r="K65" s="27"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="100"/>
-      <c r="B66" s="96">
+      <c r="A66" s="96"/>
+      <c r="B66" s="92">
         <v>41082</v>
       </c>
       <c r="C66" s="4">
@@ -2608,12 +2596,12 @@
         <v>78</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="86"/>
+      <c r="I66" s="79"/>
       <c r="K66" s="27"/>
     </row>
     <row r="67" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="100"/>
-      <c r="B67" s="97"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="93"/>
       <c r="C67" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -2630,12 +2618,12 @@
         <v>79</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="86"/>
+      <c r="I67" s="79"/>
       <c r="K67" s="27"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
-      <c r="B68" s="98"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="94"/>
       <c r="C68" s="4">
         <v>0.74652777777777779</v>
       </c>
@@ -2652,12 +2640,12 @@
         <v>80</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="86"/>
+      <c r="I68" s="79"/>
       <c r="K68" s="27"/>
     </row>
     <row r="69" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="100"/>
-      <c r="B69" s="87">
+      <c r="A69" s="96"/>
+      <c r="B69" s="80">
         <v>41083</v>
       </c>
       <c r="C69" s="4">
@@ -2676,168 +2664,168 @@
         <v>82</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="86"/>
+      <c r="I69" s="79"/>
       <c r="K69" s="27"/>
     </row>
     <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="100"/>
-      <c r="B70" s="87"/>
+      <c r="A70" s="96"/>
+      <c r="B70" s="80"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="33"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="86"/>
+      <c r="I70" s="79"/>
       <c r="K70" s="27"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="100"/>
-      <c r="B71" s="87"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="80"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="33"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="86"/>
+      <c r="I71" s="79"/>
       <c r="K71" s="27"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="100"/>
-      <c r="B72" s="87"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="80"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="33"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="86"/>
+      <c r="I72" s="79"/>
       <c r="K72" s="27"/>
     </row>
     <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="101"/>
-      <c r="B73" s="87"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="80"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="33"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="86"/>
+      <c r="I73" s="79"/>
       <c r="K73" s="27"/>
     </row>
     <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
-      <c r="B74" s="87"/>
+      <c r="B74" s="80"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="33"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="86"/>
+      <c r="I74" s="79"/>
       <c r="K74" s="27"/>
     </row>
     <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
-      <c r="B75" s="95"/>
+      <c r="B75" s="87"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="35"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="86"/>
+      <c r="I75" s="79"/>
     </row>
     <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>6</v>
       </c>
-      <c r="B76" s="94"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="36"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="86"/>
+      <c r="I76" s="79"/>
     </row>
     <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
-      <c r="B77" s="93"/>
+      <c r="B77" s="85"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="40"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
-      <c r="I77" s="86"/>
+      <c r="I77" s="79"/>
     </row>
     <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
-      <c r="B78" s="111"/>
+      <c r="B78" s="88"/>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
       <c r="E78" s="43"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
-      <c r="I78" s="86"/>
+      <c r="I78" s="79"/>
     </row>
     <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
-      <c r="B79" s="87"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="33"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="86"/>
+      <c r="I79" s="79"/>
       <c r="K79" s="27"/>
     </row>
     <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
-      <c r="B80" s="87"/>
+      <c r="B80" s="80"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="33"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="86"/>
+      <c r="I80" s="79"/>
       <c r="K80" s="27"/>
     </row>
     <row r="81" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>7</v>
       </c>
-      <c r="B81" s="87"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="33"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="86"/>
+      <c r="I81" s="79"/>
       <c r="K81" s="27"/>
     </row>
     <row r="82" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
-      <c r="B82" s="87"/>
+      <c r="B82" s="80"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="33"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="86"/>
+      <c r="I82" s="79"/>
       <c r="K82" s="27"/>
     </row>
     <row r="83" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
-      <c r="B83" s="87">
+      <c r="B83" s="80">
         <v>41098</v>
       </c>
       <c r="C83" s="4">
@@ -2856,14 +2844,14 @@
         <v>84</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="86"/>
+      <c r="I83" s="79"/>
       <c r="K83" s="27"/>
     </row>
     <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="100">
+      <c r="A84" s="96">
         <v>8</v>
       </c>
-      <c r="B84" s="96">
+      <c r="B84" s="92">
         <v>41099</v>
       </c>
       <c r="C84" s="4">
@@ -2882,12 +2870,12 @@
         <v>91</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="86"/>
+      <c r="I84" s="79"/>
       <c r="K84" s="27"/>
     </row>
     <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="100"/>
-      <c r="B85" s="97"/>
+      <c r="A85" s="96"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="4">
         <v>0.4993055555555555</v>
       </c>
@@ -2904,12 +2892,12 @@
         <v>91</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="86"/>
+      <c r="I85" s="79"/>
       <c r="K85" s="27"/>
     </row>
     <row r="86" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="100"/>
-      <c r="B86" s="98"/>
+      <c r="A86" s="96"/>
+      <c r="B86" s="94"/>
       <c r="C86" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2926,12 +2914,12 @@
         <v>90</v>
       </c>
       <c r="H86" s="5"/>
-      <c r="I86" s="86"/>
+      <c r="I86" s="79"/>
       <c r="K86" s="27"/>
     </row>
     <row r="87" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="100"/>
-      <c r="B87" s="96">
+      <c r="A87" s="96"/>
+      <c r="B87" s="92">
         <v>41100</v>
       </c>
       <c r="C87" s="4">
@@ -2950,12 +2938,12 @@
         <v>88</v>
       </c>
       <c r="H87" s="5"/>
-      <c r="I87" s="86"/>
+      <c r="I87" s="79"/>
       <c r="K87" s="27"/>
     </row>
     <row r="88" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="100"/>
-      <c r="B88" s="97"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="93"/>
       <c r="C88" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -2972,12 +2960,12 @@
         <v>86</v>
       </c>
       <c r="H88" s="5"/>
-      <c r="I88" s="86"/>
+      <c r="I88" s="79"/>
       <c r="K88" s="27"/>
     </row>
     <row r="89" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="100"/>
-      <c r="B89" s="98"/>
+      <c r="A89" s="96"/>
+      <c r="B89" s="94"/>
       <c r="C89" s="4">
         <v>0.90625</v>
       </c>
@@ -2994,12 +2982,12 @@
         <v>86</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="86"/>
+      <c r="I89" s="79"/>
       <c r="K89" s="27"/>
     </row>
     <row r="90" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="100"/>
-      <c r="B90" s="96">
+      <c r="A90" s="96"/>
+      <c r="B90" s="92">
         <v>41101</v>
       </c>
       <c r="C90" s="4">
@@ -3020,12 +3008,12 @@
       <c r="H90" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I90" s="86"/>
+      <c r="I90" s="79"/>
       <c r="K90" s="27"/>
     </row>
     <row r="91" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="100"/>
-      <c r="B91" s="97"/>
+      <c r="A91" s="96"/>
+      <c r="B91" s="93"/>
       <c r="C91" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -3042,12 +3030,12 @@
         <v>86</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="I91" s="86"/>
+      <c r="I91" s="79"/>
       <c r="K91" s="27"/>
     </row>
     <row r="92" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="100"/>
-      <c r="B92" s="97"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="93"/>
       <c r="C92" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -3066,12 +3054,12 @@
       <c r="H92" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="86"/>
+      <c r="I92" s="79"/>
       <c r="K92" s="27"/>
     </row>
     <row r="93" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="100"/>
-      <c r="B93" s="98"/>
+      <c r="A93" s="96"/>
+      <c r="B93" s="94"/>
       <c r="C93" s="4">
         <v>0.65625</v>
       </c>
@@ -3090,209 +3078,209 @@
       <c r="H93" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I93" s="86"/>
+      <c r="I93" s="79"/>
       <c r="K93" s="27"/>
     </row>
     <row r="94" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="100"/>
-      <c r="B94" s="102">
+      <c r="A94" s="96"/>
+      <c r="B94" s="98">
         <v>41102</v>
       </c>
-      <c r="C94" s="60">
+      <c r="C94" s="58">
         <v>0.40625</v>
       </c>
-      <c r="D94" s="60">
+      <c r="D94" s="58">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E94" s="61">
+      <c r="E94" s="59">
         <v>1.75</v>
       </c>
-      <c r="F94" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" s="62" t="s">
+      <c r="F94" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="60" t="s">
         <v>92</v>
       </c>
       <c r="H94" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="86"/>
+      <c r="I94" s="79"/>
       <c r="K94" s="27"/>
     </row>
     <row r="95" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="100"/>
-      <c r="B95" s="103"/>
-      <c r="C95" s="88">
+      <c r="A95" s="96"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="81">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D95" s="88">
+      <c r="D95" s="81">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E95" s="89">
+      <c r="E95" s="82">
         <v>0.5</v>
       </c>
-      <c r="F95" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" s="82" t="s">
+      <c r="F95" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="H95" s="82"/>
-      <c r="I95" s="86"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="79"/>
       <c r="K95" s="27"/>
     </row>
     <row r="96" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="100"/>
-      <c r="B96" s="103"/>
-      <c r="C96" s="88">
+      <c r="A96" s="96"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="81">
         <v>0.625</v>
       </c>
-      <c r="D96" s="88">
+      <c r="D96" s="81">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E96" s="89">
+      <c r="E96" s="82">
         <v>1.25</v>
       </c>
-      <c r="F96" s="82" t="s">
+      <c r="F96" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="G96" s="82" t="s">
+      <c r="G96" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="H96" s="82"/>
-      <c r="I96" s="86"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="79"/>
       <c r="K96" s="27"/>
     </row>
     <row r="97" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="100"/>
-      <c r="B97" s="103"/>
-      <c r="C97" s="88">
+      <c r="A97" s="96"/>
+      <c r="B97" s="99"/>
+      <c r="C97" s="81">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D97" s="88">
+      <c r="D97" s="81">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E97" s="89">
+      <c r="E97" s="82">
         <v>0.75</v>
       </c>
-      <c r="F97" s="82" t="s">
+      <c r="F97" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="G97" s="82" t="s">
+      <c r="G97" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="H97" s="82"/>
-      <c r="I97" s="86"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="79"/>
       <c r="K97" s="27"/>
     </row>
     <row r="98" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="100"/>
-      <c r="B98" s="103"/>
-      <c r="C98" s="88">
+      <c r="A98" s="96"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="81">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D98" s="88">
+      <c r="D98" s="81">
         <v>0.75694444444444453</v>
       </c>
-      <c r="E98" s="89">
+      <c r="E98" s="82">
         <v>1</v>
       </c>
-      <c r="F98" s="82" t="s">
+      <c r="F98" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="82" t="s">
+      <c r="G98" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="H98" s="82"/>
-      <c r="I98" s="86"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="79"/>
       <c r="K98" s="27"/>
     </row>
     <row r="99" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="100"/>
-      <c r="B99" s="104"/>
-      <c r="C99" s="88">
+      <c r="A99" s="96"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="81">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D99" s="88">
+      <c r="D99" s="81">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E99" s="89">
+      <c r="E99" s="82">
         <v>2</v>
       </c>
-      <c r="F99" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" s="82" t="s">
+      <c r="F99" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="H99" s="82"/>
-      <c r="I99" s="86"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="79"/>
       <c r="K99" s="27"/>
     </row>
     <row r="100" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="100"/>
-      <c r="B100" s="102">
+      <c r="A100" s="96"/>
+      <c r="B100" s="98">
         <v>41103</v>
       </c>
-      <c r="C100" s="88">
+      <c r="C100" s="81">
         <v>0.91319444444444453</v>
       </c>
-      <c r="D100" s="88">
+      <c r="D100" s="81">
         <v>0.99652777777777779</v>
       </c>
-      <c r="E100" s="89">
+      <c r="E100" s="82">
         <v>2</v>
       </c>
-      <c r="F100" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" s="82" t="s">
+      <c r="F100" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="H100" s="82"/>
-      <c r="I100" s="86"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="79"/>
       <c r="K100" s="27"/>
     </row>
     <row r="101" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="100"/>
-      <c r="B101" s="103"/>
-      <c r="C101" s="88">
+      <c r="A101" s="96"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="81">
         <v>0.19097222222222221</v>
       </c>
-      <c r="D101" s="88">
+      <c r="D101" s="81">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E101" s="89">
+      <c r="E101" s="82">
         <v>3.5</v>
       </c>
-      <c r="F101" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" s="82" t="s">
+      <c r="F101" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="H101" s="82" t="s">
+      <c r="H101" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I101" s="86"/>
+      <c r="I101" s="79"/>
       <c r="K101" s="27"/>
     </row>
     <row r="102" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="101"/>
-      <c r="B102" s="111"/>
+      <c r="A102" s="97"/>
+      <c r="B102" s="88"/>
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
       <c r="E102" s="43"/>
       <c r="F102" s="44"/>
       <c r="G102" s="44"/>
       <c r="H102" s="44"/>
-      <c r="I102" s="86"/>
+      <c r="I102" s="79"/>
     </row>
     <row r="103" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="99">
+      <c r="A103" s="95">
         <v>9</v>
       </c>
-      <c r="B103" s="87">
+      <c r="B103" s="80">
         <v>41106</v>
       </c>
       <c r="C103" s="4">
@@ -3311,12 +3299,12 @@
         <v>106</v>
       </c>
       <c r="H103" s="5"/>
-      <c r="I103" s="86"/>
+      <c r="I103" s="79"/>
       <c r="K103" s="27"/>
     </row>
     <row r="104" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="100"/>
-      <c r="B104" s="87">
+      <c r="A104" s="96"/>
+      <c r="B104" s="80">
         <v>41108</v>
       </c>
       <c r="C104" s="4">
@@ -3335,12 +3323,12 @@
         <v>107</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="86"/>
+      <c r="I104" s="79"/>
       <c r="K104" s="27"/>
     </row>
     <row r="105" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="100"/>
-      <c r="B105" s="87">
+      <c r="A105" s="96"/>
+      <c r="B105" s="80">
         <v>41109</v>
       </c>
       <c r="C105" s="4">
@@ -3359,12 +3347,12 @@
         <v>107</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="86"/>
+      <c r="I105" s="79"/>
       <c r="K105" s="27"/>
     </row>
     <row r="106" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="100"/>
-      <c r="B106" s="96">
+      <c r="A106" s="96"/>
+      <c r="B106" s="92">
         <v>41110</v>
       </c>
       <c r="C106" s="4">
@@ -3385,12 +3373,12 @@
       <c r="H106" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I106" s="86"/>
+      <c r="I106" s="79"/>
       <c r="K106" s="27"/>
     </row>
     <row r="107" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="100"/>
-      <c r="B107" s="97"/>
+      <c r="A107" s="96"/>
+      <c r="B107" s="93"/>
       <c r="C107" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -3407,12 +3395,12 @@
         <v>112</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="86"/>
+      <c r="I107" s="79"/>
       <c r="K107" s="27"/>
     </row>
     <row r="108" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="100"/>
-      <c r="B108" s="97"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="93"/>
       <c r="C108" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -3431,12 +3419,12 @@
       <c r="H108" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I108" s="86"/>
+      <c r="I108" s="79"/>
       <c r="K108" s="27"/>
     </row>
     <row r="109" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="100"/>
-      <c r="B109" s="98"/>
+      <c r="A109" s="96"/>
+      <c r="B109" s="94"/>
       <c r="C109" s="4">
         <v>0.71875</v>
       </c>
@@ -3455,219 +3443,200 @@
       <c r="H109" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I109" s="86"/>
+      <c r="I109" s="79"/>
       <c r="K109" s="27"/>
     </row>
     <row r="110" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="100"/>
-      <c r="B110" s="87"/>
+      <c r="A110" s="96"/>
+      <c r="B110" s="80"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="33"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="86"/>
+      <c r="I110" s="79"/>
       <c r="K110" s="27"/>
     </row>
     <row r="111" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="100"/>
-      <c r="B111" s="87"/>
+      <c r="A111" s="96"/>
+      <c r="B111" s="80"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="33"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
-      <c r="I111" s="86"/>
+      <c r="I111" s="79"/>
       <c r="K111" s="27"/>
     </row>
     <row r="112" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="100"/>
-      <c r="B112" s="95"/>
+      <c r="A112" s="96"/>
+      <c r="B112" s="87"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="35"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="86"/>
+      <c r="I112" s="79"/>
     </row>
     <row r="113" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="100"/>
-      <c r="B113" s="94"/>
+      <c r="A113" s="96"/>
+      <c r="B113" s="86"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="36"/>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
-      <c r="I113" s="86"/>
+      <c r="I113" s="79"/>
     </row>
     <row r="114" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="100"/>
-      <c r="B114" s="93"/>
+      <c r="A114" s="96"/>
+      <c r="B114" s="85"/>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
       <c r="E114" s="40"/>
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
       <c r="H114" s="41"/>
-      <c r="I114" s="86"/>
+      <c r="I114" s="79"/>
     </row>
     <row r="115" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="101"/>
-      <c r="B115" s="111"/>
+      <c r="A115" s="97"/>
+      <c r="B115" s="88"/>
       <c r="C115" s="42"/>
       <c r="D115" s="42"/>
       <c r="E115" s="43"/>
       <c r="F115" s="44"/>
       <c r="G115" s="44"/>
       <c r="H115" s="44"/>
-      <c r="I115" s="86"/>
+      <c r="I115" s="79"/>
     </row>
     <row r="116" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28"/>
-      <c r="B116" s="87"/>
+      <c r="B116" s="80"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="33"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="86"/>
+      <c r="I116" s="79"/>
       <c r="K116" s="27"/>
     </row>
     <row r="117" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28"/>
-      <c r="B117" s="87"/>
+      <c r="B117" s="80"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="33"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="86"/>
+      <c r="I117" s="79"/>
       <c r="K117" s="27"/>
     </row>
     <row r="118" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>10</v>
       </c>
-      <c r="B118" s="87"/>
+      <c r="B118" s="80"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="33"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
-      <c r="I118" s="86"/>
+      <c r="I118" s="79"/>
       <c r="K118" s="27"/>
     </row>
     <row r="119" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28"/>
-      <c r="B119" s="87"/>
+      <c r="B119" s="80"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="33"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
-      <c r="I119" s="86"/>
+      <c r="I119" s="79"/>
       <c r="K119" s="27"/>
     </row>
     <row r="120" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
-      <c r="B120" s="87"/>
+      <c r="B120" s="80"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="33"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="86"/>
+      <c r="I120" s="79"/>
       <c r="K120" s="27"/>
     </row>
     <row r="121" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28"/>
-      <c r="B121" s="87"/>
+      <c r="B121" s="80"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="33"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="86"/>
+      <c r="I121" s="79"/>
       <c r="K121" s="27"/>
     </row>
     <row r="122" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30"/>
-      <c r="B122" s="95"/>
+      <c r="B122" s="87"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="35"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="5"/>
-      <c r="I122" s="86"/>
+      <c r="I122" s="79"/>
     </row>
     <row r="123" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>11</v>
       </c>
-      <c r="B123" s="94"/>
+      <c r="B123" s="86"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="36"/>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
       <c r="H123" s="15"/>
-      <c r="I123" s="86"/>
+      <c r="I123" s="79"/>
     </row>
     <row r="124" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
-      <c r="B124" s="93"/>
+      <c r="B124" s="85"/>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="40"/>
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="41"/>
-      <c r="I124" s="86"/>
+      <c r="I124" s="79"/>
     </row>
     <row r="125" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
-      <c r="B125" s="111"/>
+      <c r="B125" s="88"/>
       <c r="C125" s="42"/>
       <c r="D125" s="42"/>
       <c r="E125" s="43"/>
       <c r="F125" s="44"/>
       <c r="G125" s="44"/>
       <c r="H125" s="44"/>
-      <c r="I125" s="86"/>
+      <c r="I125" s="79"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:H6"/>
   <mergeCells count="31">
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A103:A115"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A84:A102"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B84:B86"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B40"/>
@@ -3680,6 +3649,25 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A103:A115"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A84:A102"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B84:B86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3690,14 +3678,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="46"/>
+    <col min="2" max="2" width="9.140625" style="48"/>
     <col min="3" max="3" width="10.7109375" style="46" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="46"/>
     <col min="5" max="5" width="9.140625" style="48"/>
@@ -3725,7 +3713,7 @@
       <c r="A4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="48" t="s">
@@ -3775,10 +3763,10 @@
       <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="101">
         <v>1</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="98">
         <v>41052</v>
       </c>
       <c r="C7" s="55">
@@ -3803,8 +3791,8 @@
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="55">
         <v>0.51041666666666663</v>
       </c>
@@ -3827,8 +3815,8 @@
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="55">
         <v>0.5625</v>
       </c>
@@ -3853,8 +3841,8 @@
       <c r="K9" s="54"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="55">
         <v>0.59722222222222221</v>
       </c>
@@ -3879,8 +3867,8 @@
       <c r="K10" s="54"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="58">
+      <c r="A11" s="102"/>
+      <c r="B11" s="83">
         <v>41053</v>
       </c>
       <c r="C11" s="55">
@@ -3905,11 +3893,11 @@
       <c r="K11" s="54"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="58">
+      <c r="A12" s="102"/>
+      <c r="B12" s="83">
         <v>41054</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="71" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="55">
@@ -3931,8 +3919,8 @@
       <c r="K12" s="54"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
       <c r="E13" s="56"/>
@@ -3945,10 +3933,10 @@
       <c r="K13" s="54"/>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="101">
         <v>2</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="98">
         <v>41057</v>
       </c>
       <c r="C14" s="4">
@@ -3966,12 +3954,12 @@
       <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="64"/>
       <c r="K14" s="54"/>
     </row>
     <row r="15" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="106"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="10">
         <v>0.72916666666666663</v>
       </c>
@@ -3987,11 +3975,11 @@
       <c r="G15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="71"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="55">
         <v>0.92708333333333337</v>
       </c>
@@ -4007,13 +3995,13 @@
       <c r="G16" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="77" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="105">
+      <c r="A17" s="102"/>
+      <c r="B17" s="98">
         <v>41059</v>
       </c>
       <c r="C17" s="10">
@@ -4031,11 +4019,11 @@
       <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="71"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="106"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="55">
         <v>0.54861111111111105</v>
       </c>
@@ -4051,11 +4039,11 @@
       <c r="G18" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="71"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="4">
         <v>0.56944444444444442</v>
       </c>
@@ -4071,13 +4059,13 @@
       <c r="G19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="82" t="s">
+      <c r="H19" s="77" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="85">
+      <c r="A20" s="102"/>
+      <c r="B20" s="90">
         <v>41061</v>
       </c>
       <c r="C20" s="4">
@@ -4095,14 +4083,14 @@
       <c r="G20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="71"/>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="105">
+      <c r="A21" s="102"/>
+      <c r="B21" s="98">
         <v>41063</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="71" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="4">
@@ -4117,11 +4105,11 @@
       <c r="G21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="71"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="107"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -4137,11 +4125,11 @@
       <c r="G22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="71"/>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="83">
+      <c r="A23" s="102"/>
+      <c r="B23" s="89">
         <v>41064</v>
       </c>
       <c r="C23" s="4">
@@ -4159,23 +4147,23 @@
       <c r="G23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="71"/>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
       <c r="G24" s="57"/>
-      <c r="H24" s="82"/>
+      <c r="H24" s="77"/>
     </row>
     <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
+      <c r="A25" s="101">
         <v>3</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="83">
         <v>41066</v>
       </c>
       <c r="C25" s="55">
@@ -4197,8 +4185,8 @@
       <c r="K25" s="54"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
-      <c r="B26" s="58">
+      <c r="A26" s="102"/>
+      <c r="B26" s="83">
         <v>41067</v>
       </c>
       <c r="C26" s="55">
@@ -4220,8 +4208,8 @@
       <c r="K26" s="54"/>
     </row>
     <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
       <c r="E27" s="56"/>
@@ -4231,8 +4219,8 @@
       <c r="K27" s="54"/>
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
       <c r="E28" s="56"/>
@@ -4242,8 +4230,8 @@
       <c r="K28" s="54"/>
     </row>
     <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
       <c r="E29" s="56"/>
@@ -4253,8 +4241,8 @@
       <c r="K29" s="54"/>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="56"/>
@@ -4264,8 +4252,8 @@
       <c r="K30" s="54"/>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="56"/>
@@ -4275,8 +4263,8 @@
       <c r="K31" s="54"/>
     </row>
     <row r="32" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
       <c r="E32" s="56"/>
@@ -4286,8 +4274,8 @@
       <c r="K32" s="54"/>
     </row>
     <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
       <c r="E33" s="56"/>
@@ -4297,10 +4285,10 @@
       <c r="K33" s="54"/>
     </row>
     <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108">
+      <c r="A34" s="101">
         <v>4</v>
       </c>
-      <c r="B34" s="58"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
       <c r="E34" s="56"/>
@@ -4310,50 +4298,50 @@
       <c r="K34" s="54"/>
     </row>
     <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
     </row>
     <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
     </row>
     <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
+      <c r="A39" s="101">
         <v>5</v>
       </c>
-      <c r="B39" s="58"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="56"/>
@@ -4363,8 +4351,8 @@
       <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="58"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
       <c r="E40" s="56"/>
@@ -4374,8 +4362,8 @@
       <c r="K40" s="54"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
       <c r="E41" s="56"/>
@@ -4385,8 +4373,8 @@
       <c r="K41" s="54"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
       <c r="E42" s="56"/>
@@ -4396,8 +4384,8 @@
       <c r="K42" s="54"/>
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
       <c r="E43" s="56"/>
@@ -4407,10 +4395,10 @@
       <c r="K43" s="54"/>
     </row>
     <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="108">
+      <c r="A44" s="101">
         <v>6</v>
       </c>
-      <c r="B44" s="58"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
       <c r="E44" s="56"/>
@@ -4420,50 +4408,50 @@
       <c r="K44" s="54"/>
     </row>
     <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="67"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="64"/>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
     </row>
     <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
     </row>
     <row r="49" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108">
+      <c r="A49" s="101">
         <v>7</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
       <c r="E49" s="56"/>
@@ -4473,8 +4461,8 @@
       <c r="K49" s="54"/>
     </row>
     <row r="50" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="56"/>
@@ -4484,8 +4472,8 @@
       <c r="K50" s="54"/>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
-      <c r="B51" s="58"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="83"/>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
       <c r="E51" s="56"/>
@@ -4495,8 +4483,8 @@
       <c r="K51" s="54"/>
     </row>
     <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
       <c r="E52" s="56"/>
@@ -4506,8 +4494,8 @@
       <c r="K52" s="54"/>
     </row>
     <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="83"/>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
       <c r="E53" s="56"/>
@@ -4517,10 +4505,10 @@
       <c r="K53" s="54"/>
     </row>
     <row r="54" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="108">
+      <c r="A54" s="101">
         <v>8</v>
       </c>
-      <c r="B54" s="90">
+      <c r="B54" s="83">
         <v>41100</v>
       </c>
       <c r="C54" s="4">
@@ -4542,42 +4530,42 @@
       <c r="K54" s="54"/>
     </row>
     <row r="55" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
-      <c r="B55" s="92">
+      <c r="A55" s="102"/>
+      <c r="B55" s="84">
         <v>41103</v>
       </c>
-      <c r="C55" s="60">
+      <c r="C55" s="58">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="58">
         <v>0.6875</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="59">
         <v>4</v>
       </c>
-      <c r="F55" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="62" t="s">
+      <c r="F55" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="60" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
     </row>
     <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108">
+      <c r="A57" s="101">
         <v>9</v>
       </c>
-      <c r="B57" s="102">
+      <c r="B57" s="98">
         <v>41106</v>
       </c>
       <c r="C57" s="55">
@@ -4599,8 +4587,8 @@
       <c r="K57" s="54"/>
     </row>
     <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
-      <c r="B58" s="103"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="99"/>
       <c r="C58" s="55">
         <v>0.69444444444444453</v>
       </c>
@@ -4620,8 +4608,8 @@
       <c r="K58" s="54"/>
     </row>
     <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
-      <c r="B59" s="103"/>
+      <c r="A59" s="102"/>
+      <c r="B59" s="99"/>
       <c r="C59" s="55">
         <v>0.71527777777777779</v>
       </c>
@@ -4641,8 +4629,8 @@
       <c r="K59" s="54"/>
     </row>
     <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="103"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="55">
         <v>0.73263888888888884</v>
       </c>
@@ -4662,8 +4650,8 @@
       <c r="K60" s="54"/>
     </row>
     <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="55">
         <v>0.86805555555555547</v>
       </c>
@@ -4683,8 +4671,8 @@
       <c r="K61" s="54"/>
     </row>
     <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
-      <c r="B62" s="102">
+      <c r="A62" s="102"/>
+      <c r="B62" s="98">
         <v>41107</v>
       </c>
       <c r="C62" s="55">
@@ -4702,113 +4690,161 @@
       <c r="G62" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H62" s="67"/>
+      <c r="H62" s="64"/>
     </row>
     <row r="63" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="109"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="69">
+      <c r="A63" s="102"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="65">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D63" s="69">
+      <c r="D63" s="65">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E63" s="70">
+      <c r="E63" s="66">
         <v>5.25</v>
       </c>
-      <c r="F63" s="71" t="s">
+      <c r="F63" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="H63" s="71"/>
+      <c r="H63" s="67"/>
     </row>
     <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="89">
+        <v>41110</v>
+      </c>
+      <c r="C64" s="65">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D64" s="65">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E64" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" s="67"/>
     </row>
     <row r="65" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="109"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="98">
+        <v>41111</v>
+      </c>
+      <c r="C65" s="65">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D65" s="65">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E65" s="66">
+        <v>3</v>
+      </c>
+      <c r="F65" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="67"/>
     </row>
     <row r="66" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="109"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="65">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D66" s="65">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E66" s="66">
+        <v>2.75</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" s="67"/>
     </row>
     <row r="67" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="109"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="89">
+        <v>41112</v>
+      </c>
+      <c r="C67" s="65">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D67" s="65">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="E67" s="66">
+        <v>2</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="67" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
     </row>
     <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
     </row>
     <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
     </row>
     <row r="71" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
+      <c r="A71" s="103"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
     </row>
     <row r="72" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="108">
+      <c r="A72" s="101">
         <v>10</v>
       </c>
-      <c r="B72" s="58"/>
+      <c r="B72" s="83"/>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
       <c r="E72" s="56"/>
@@ -4818,8 +4854,8 @@
       <c r="K72" s="54"/>
     </row>
     <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="83"/>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
       <c r="E73" s="56"/>
@@ -4829,8 +4865,8 @@
       <c r="K73" s="54"/>
     </row>
     <row r="74" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
-      <c r="B74" s="58"/>
+      <c r="A74" s="102"/>
+      <c r="B74" s="83"/>
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
       <c r="E74" s="56"/>
@@ -4840,8 +4876,8 @@
       <c r="K74" s="54"/>
     </row>
     <row r="75" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="109"/>
-      <c r="B75" s="58"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="83"/>
       <c r="C75" s="55"/>
       <c r="D75" s="55"/>
       <c r="E75" s="56"/>
@@ -4851,8 +4887,8 @@
       <c r="K75" s="54"/>
     </row>
     <row r="76" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
-      <c r="B76" s="58"/>
+      <c r="A76" s="103"/>
+      <c r="B76" s="83"/>
       <c r="C76" s="55"/>
       <c r="D76" s="55"/>
       <c r="E76" s="56"/>
@@ -4862,10 +4898,10 @@
       <c r="K76" s="54"/>
     </row>
     <row r="77" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="108">
+      <c r="A77" s="101">
         <v>11</v>
       </c>
-      <c r="B77" s="58"/>
+      <c r="B77" s="83"/>
       <c r="C77" s="55"/>
       <c r="D77" s="55"/>
       <c r="E77" s="56"/>
@@ -4875,47 +4911,53 @@
       <c r="K77" s="54"/>
     </row>
     <row r="78" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="67"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="64"/>
     </row>
     <row r="80" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="109"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
+      <c r="A80" s="102"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
     </row>
     <row r="81" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="75"/>
+      <c r="A81" s="103"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A7:A13"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A77:A81"/>
     <mergeCell ref="A49:A53"/>
@@ -4927,12 +4969,7 @@
     <mergeCell ref="A57:A71"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B65:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-TamDo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="124">
   <si>
     <t>Week</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t>v0.2</t>
+  </si>
+  <si>
+    <t>Make Architecture Drivers Document</t>
+  </si>
+  <si>
+    <t>Make Architecture Drivers Document (complete)</t>
+  </si>
+  <si>
+    <t>v2.0</t>
   </si>
 </sst>
 </file>
@@ -810,23 +819,23 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1235,10 +1244,10 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95">
+      <c r="A7" s="92">
         <v>1</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="95">
         <v>41050</v>
       </c>
       <c r="C7" s="4">
@@ -1264,8 +1273,8 @@
       <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="4">
         <v>0.51388888888888895</v>
       </c>
@@ -1289,8 +1298,8 @@
       <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="4">
         <v>0.625</v>
       </c>
@@ -1316,8 +1325,8 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="92">
+      <c r="A10" s="93"/>
+      <c r="B10" s="95">
         <v>41051</v>
       </c>
       <c r="C10" s="4">
@@ -1343,8 +1352,8 @@
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1368,8 +1377,8 @@
       <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="4">
         <v>0.59722222222222221</v>
       </c>
@@ -1395,8 +1404,8 @@
       <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="92">
+      <c r="A13" s="93"/>
+      <c r="B13" s="95">
         <v>41054</v>
       </c>
       <c r="C13" s="4">
@@ -1424,8 +1433,8 @@
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -1451,8 +1460,8 @@
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="4">
         <v>0.61458333333333337</v>
       </c>
@@ -1476,8 +1485,8 @@
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="4">
         <v>0.67361111111111116</v>
       </c>
@@ -1498,8 +1507,8 @@
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="4">
         <v>0.94097222222222221</v>
       </c>
@@ -1520,8 +1529,8 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="92">
+      <c r="A18" s="93"/>
+      <c r="B18" s="95">
         <v>41056</v>
       </c>
       <c r="C18" s="4">
@@ -1544,8 +1553,8 @@
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="4">
         <v>0.43055555555555558</v>
       </c>
@@ -1566,7 +1575,7 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="80"/>
       <c r="C20" s="75"/>
       <c r="D20" s="42"/>
@@ -1578,10 +1587,10 @@
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95">
+      <c r="A21" s="92">
         <v>2</v>
       </c>
-      <c r="B21" s="92">
+      <c r="B21" s="95">
         <v>41057</v>
       </c>
       <c r="C21" s="76" t="s">
@@ -1604,8 +1613,8 @@
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1626,8 +1635,8 @@
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -1648,7 +1657,7 @@
       <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="85">
         <v>41058</v>
       </c>
@@ -1671,8 +1680,8 @@
       <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="92">
+      <c r="A25" s="93"/>
+      <c r="B25" s="95">
         <v>41059</v>
       </c>
       <c r="C25" s="72">
@@ -1694,8 +1703,8 @@
       <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="72">
         <v>0.57986111111111105</v>
       </c>
@@ -1717,8 +1726,8 @@
       <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="92">
+      <c r="A27" s="93"/>
+      <c r="B27" s="95">
         <v>41060</v>
       </c>
       <c r="C27" s="72">
@@ -1740,8 +1749,8 @@
       <c r="I27" s="79"/>
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="72">
         <v>0.54166666666666663</v>
       </c>
@@ -1761,8 +1770,8 @@
       <c r="I28" s="79"/>
     </row>
     <row r="29" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96"/>
-      <c r="B29" s="92">
+      <c r="A29" s="93"/>
+      <c r="B29" s="95">
         <v>41062</v>
       </c>
       <c r="C29" s="72">
@@ -1784,8 +1793,8 @@
       <c r="I29" s="79"/>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="72">
         <v>0.41666666666666669</v>
       </c>
@@ -1805,8 +1814,8 @@
       <c r="I30" s="79"/>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="72">
         <v>0.52777777777777779</v>
       </c>
@@ -1826,8 +1835,8 @@
       <c r="I31" s="79"/>
     </row>
     <row r="32" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="96"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="72">
         <v>0.69097222222222221</v>
       </c>
@@ -1847,8 +1856,8 @@
       <c r="I32" s="79"/>
     </row>
     <row r="33" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96"/>
-      <c r="B33" s="94"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="72">
         <v>0.88541666666666663</v>
       </c>
@@ -1868,7 +1877,7 @@
       <c r="I33" s="79"/>
     </row>
     <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="87">
         <v>41063</v>
       </c>
@@ -1891,7 +1900,7 @@
       <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="88"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
@@ -1902,10 +1911,10 @@
       <c r="I35" s="79"/>
     </row>
     <row r="36" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="95">
+      <c r="A36" s="92">
         <v>3</v>
       </c>
-      <c r="B36" s="92">
+      <c r="B36" s="95">
         <v>41067</v>
       </c>
       <c r="C36" s="4">
@@ -1928,8 +1937,8 @@
       <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -1950,8 +1959,8 @@
       <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="92">
+      <c r="A38" s="93"/>
+      <c r="B38" s="95">
         <v>41068</v>
       </c>
       <c r="C38" s="76" t="s">
@@ -1974,8 +1983,8 @@
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -1996,8 +2005,8 @@
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="96"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -2018,7 +2027,7 @@
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="96"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="80">
         <v>41069</v>
       </c>
@@ -2042,7 +2051,7 @@
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="80"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2054,10 +2063,10 @@
       <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="95">
+      <c r="A43" s="92">
         <v>4</v>
       </c>
-      <c r="B43" s="92">
+      <c r="B43" s="95">
         <v>41071</v>
       </c>
       <c r="C43" s="4">
@@ -2080,8 +2089,8 @@
       <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="96"/>
-      <c r="B44" s="93"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="4">
         <v>0.53819444444444442</v>
       </c>
@@ -2102,8 +2111,8 @@
       <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="4">
         <v>0.59027777777777779</v>
       </c>
@@ -2124,7 +2133,7 @@
       <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="96"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="87">
         <v>41072</v>
       </c>
@@ -2147,8 +2156,8 @@
       <c r="I46" s="79"/>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="96"/>
-      <c r="B47" s="92">
+      <c r="A47" s="93"/>
+      <c r="B47" s="95">
         <v>41073</v>
       </c>
       <c r="C47" s="13">
@@ -2170,8 +2179,8 @@
       <c r="I47" s="79"/>
     </row>
     <row r="48" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="96"/>
-      <c r="B48" s="94"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="39">
         <v>0.44791666666666669</v>
       </c>
@@ -2191,7 +2200,7 @@
       <c r="I48" s="79"/>
     </row>
     <row r="49" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="96"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="85">
         <v>41075</v>
       </c>
@@ -2214,7 +2223,7 @@
       <c r="I49" s="79"/>
     </row>
     <row r="50" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="85">
         <v>41076</v>
       </c>
@@ -2237,8 +2246,8 @@
       <c r="I50" s="79"/>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="96"/>
-      <c r="B51" s="92">
+      <c r="A51" s="93"/>
+      <c r="B51" s="95">
         <v>41077</v>
       </c>
       <c r="C51" s="72">
@@ -2260,8 +2269,8 @@
       <c r="I51" s="79"/>
     </row>
     <row r="52" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="96"/>
-      <c r="B52" s="93"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="72">
         <v>0.57291666666666663</v>
       </c>
@@ -2281,8 +2290,8 @@
       <c r="I52" s="79"/>
     </row>
     <row r="53" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
-      <c r="B53" s="94"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="42">
         <v>0.35416666666666669</v>
       </c>
@@ -2302,10 +2311,10 @@
       <c r="I53" s="79"/>
     </row>
     <row r="54" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="95">
+      <c r="A54" s="92">
         <v>5</v>
       </c>
-      <c r="B54" s="92">
+      <c r="B54" s="95">
         <v>41078</v>
       </c>
       <c r="C54" s="4">
@@ -2328,8 +2337,8 @@
       <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="96"/>
-      <c r="B55" s="94"/>
+      <c r="A55" s="93"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="4">
         <v>0.375</v>
       </c>
@@ -2350,8 +2359,8 @@
       <c r="K55" s="27"/>
     </row>
     <row r="56" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="96"/>
-      <c r="B56" s="92">
+      <c r="A56" s="93"/>
+      <c r="B56" s="95">
         <v>41079</v>
       </c>
       <c r="C56" s="4">
@@ -2374,8 +2383,8 @@
       <c r="K56" s="27"/>
     </row>
     <row r="57" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="96"/>
-      <c r="B57" s="94"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="4">
         <v>0.55208333333333337</v>
       </c>
@@ -2396,8 +2405,8 @@
       <c r="K57" s="27"/>
     </row>
     <row r="58" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="96"/>
-      <c r="B58" s="92">
+      <c r="A58" s="93"/>
+      <c r="B58" s="95">
         <v>41080</v>
       </c>
       <c r="C58" s="4">
@@ -2420,8 +2429,8 @@
       <c r="K58" s="27"/>
     </row>
     <row r="59" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="96"/>
-      <c r="B59" s="94"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="4">
         <v>0.88541666666666663</v>
       </c>
@@ -2442,8 +2451,8 @@
       <c r="K59" s="27"/>
     </row>
     <row r="60" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="96"/>
-      <c r="B60" s="92">
+      <c r="A60" s="93"/>
+      <c r="B60" s="95">
         <v>41081</v>
       </c>
       <c r="C60" s="4">
@@ -2466,8 +2475,8 @@
       <c r="K60" s="27"/>
     </row>
     <row r="61" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="96"/>
-      <c r="B61" s="93"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="4">
         <v>0.44791666666666669</v>
       </c>
@@ -2488,8 +2497,8 @@
       <c r="K61" s="27"/>
     </row>
     <row r="62" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="96"/>
-      <c r="B62" s="93"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="4">
         <v>0.5625</v>
       </c>
@@ -2510,8 +2519,8 @@
       <c r="K62" s="27"/>
     </row>
     <row r="63" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="96"/>
-      <c r="B63" s="93"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="97"/>
       <c r="C63" s="4">
         <v>0.58333333333333337</v>
       </c>
@@ -2532,8 +2541,8 @@
       <c r="K63" s="27"/>
     </row>
     <row r="64" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="96"/>
-      <c r="B64" s="93"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="97"/>
       <c r="C64" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -2554,8 +2563,8 @@
       <c r="K64" s="27"/>
     </row>
     <row r="65" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="96"/>
-      <c r="B65" s="94"/>
+      <c r="A65" s="93"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="4">
         <v>0.90625</v>
       </c>
@@ -2576,8 +2585,8 @@
       <c r="K65" s="27"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="96"/>
-      <c r="B66" s="92">
+      <c r="A66" s="93"/>
+      <c r="B66" s="95">
         <v>41082</v>
       </c>
       <c r="C66" s="4">
@@ -2600,8 +2609,8 @@
       <c r="K66" s="27"/>
     </row>
     <row r="67" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="96"/>
-      <c r="B67" s="93"/>
+      <c r="A67" s="93"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -2622,8 +2631,8 @@
       <c r="K67" s="27"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="96"/>
-      <c r="B68" s="94"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="4">
         <v>0.74652777777777779</v>
       </c>
@@ -2644,7 +2653,7 @@
       <c r="K68" s="27"/>
     </row>
     <row r="69" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="96"/>
+      <c r="A69" s="93"/>
       <c r="B69" s="80">
         <v>41083</v>
       </c>
@@ -2668,7 +2677,7 @@
       <c r="K69" s="27"/>
     </row>
     <row r="70" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="96"/>
+      <c r="A70" s="93"/>
       <c r="B70" s="80"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2680,7 +2689,7 @@
       <c r="K70" s="27"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="96"/>
+      <c r="A71" s="93"/>
       <c r="B71" s="80"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2692,7 +2701,7 @@
       <c r="K71" s="27"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="96"/>
+      <c r="A72" s="93"/>
       <c r="B72" s="80"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2704,7 +2713,7 @@
       <c r="K72" s="27"/>
     </row>
     <row r="73" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="80"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2848,10 +2857,10 @@
       <c r="K83" s="27"/>
     </row>
     <row r="84" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="96">
+      <c r="A84" s="93">
         <v>8</v>
       </c>
-      <c r="B84" s="92">
+      <c r="B84" s="95">
         <v>41099</v>
       </c>
       <c r="C84" s="4">
@@ -2874,8 +2883,8 @@
       <c r="K84" s="27"/>
     </row>
     <row r="85" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="96"/>
-      <c r="B85" s="93"/>
+      <c r="A85" s="93"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="4">
         <v>0.4993055555555555</v>
       </c>
@@ -2896,8 +2905,8 @@
       <c r="K85" s="27"/>
     </row>
     <row r="86" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="96"/>
-      <c r="B86" s="94"/>
+      <c r="A86" s="93"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2918,8 +2927,8 @@
       <c r="K86" s="27"/>
     </row>
     <row r="87" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="96"/>
-      <c r="B87" s="92">
+      <c r="A87" s="93"/>
+      <c r="B87" s="95">
         <v>41100</v>
       </c>
       <c r="C87" s="4">
@@ -2942,8 +2951,8 @@
       <c r="K87" s="27"/>
     </row>
     <row r="88" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="96"/>
-      <c r="B88" s="93"/>
+      <c r="A88" s="93"/>
+      <c r="B88" s="97"/>
       <c r="C88" s="4">
         <v>0.73958333333333337</v>
       </c>
@@ -2964,8 +2973,8 @@
       <c r="K88" s="27"/>
     </row>
     <row r="89" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="96"/>
-      <c r="B89" s="94"/>
+      <c r="A89" s="93"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="4">
         <v>0.90625</v>
       </c>
@@ -2986,8 +2995,8 @@
       <c r="K89" s="27"/>
     </row>
     <row r="90" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="96"/>
-      <c r="B90" s="92">
+      <c r="A90" s="93"/>
+      <c r="B90" s="95">
         <v>41101</v>
       </c>
       <c r="C90" s="4">
@@ -3012,8 +3021,8 @@
       <c r="K90" s="27"/>
     </row>
     <row r="91" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="96"/>
-      <c r="B91" s="93"/>
+      <c r="A91" s="93"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="4">
         <v>0.40972222222222227</v>
       </c>
@@ -3034,8 +3043,8 @@
       <c r="K91" s="27"/>
     </row>
     <row r="92" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="96"/>
-      <c r="B92" s="93"/>
+      <c r="A92" s="93"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="4">
         <v>0.51041666666666663</v>
       </c>
@@ -3058,8 +3067,8 @@
       <c r="K92" s="27"/>
     </row>
     <row r="93" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="96"/>
-      <c r="B93" s="94"/>
+      <c r="A93" s="93"/>
+      <c r="B93" s="96"/>
       <c r="C93" s="4">
         <v>0.65625</v>
       </c>
@@ -3082,7 +3091,7 @@
       <c r="K93" s="27"/>
     </row>
     <row r="94" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="96"/>
+      <c r="A94" s="93"/>
       <c r="B94" s="98">
         <v>41102</v>
       </c>
@@ -3108,7 +3117,7 @@
       <c r="K94" s="27"/>
     </row>
     <row r="95" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="96"/>
+      <c r="A95" s="93"/>
       <c r="B95" s="99"/>
       <c r="C95" s="81">
         <v>0.47222222222222227</v>
@@ -3130,7 +3139,7 @@
       <c r="K95" s="27"/>
     </row>
     <row r="96" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="96"/>
+      <c r="A96" s="93"/>
       <c r="B96" s="99"/>
       <c r="C96" s="81">
         <v>0.625</v>
@@ -3152,7 +3161,7 @@
       <c r="K96" s="27"/>
     </row>
     <row r="97" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="96"/>
+      <c r="A97" s="93"/>
       <c r="B97" s="99"/>
       <c r="C97" s="81">
         <v>0.67708333333333337</v>
@@ -3174,7 +3183,7 @@
       <c r="K97" s="27"/>
     </row>
     <row r="98" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="96"/>
+      <c r="A98" s="93"/>
       <c r="B98" s="99"/>
       <c r="C98" s="81">
         <v>0.70833333333333337</v>
@@ -3196,7 +3205,7 @@
       <c r="K98" s="27"/>
     </row>
     <row r="99" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="96"/>
+      <c r="A99" s="93"/>
       <c r="B99" s="100"/>
       <c r="C99" s="81">
         <v>0.75694444444444453</v>
@@ -3218,7 +3227,7 @@
       <c r="K99" s="27"/>
     </row>
     <row r="100" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="96"/>
+      <c r="A100" s="93"/>
       <c r="B100" s="98">
         <v>41103</v>
       </c>
@@ -3242,7 +3251,7 @@
       <c r="K100" s="27"/>
     </row>
     <row r="101" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="96"/>
+      <c r="A101" s="93"/>
       <c r="B101" s="99"/>
       <c r="C101" s="81">
         <v>0.19097222222222221</v>
@@ -3266,7 +3275,7 @@
       <c r="K101" s="27"/>
     </row>
     <row r="102" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="97"/>
+      <c r="A102" s="94"/>
       <c r="B102" s="88"/>
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
@@ -3277,7 +3286,7 @@
       <c r="I102" s="79"/>
     </row>
     <row r="103" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="95">
+      <c r="A103" s="92">
         <v>9</v>
       </c>
       <c r="B103" s="80">
@@ -3303,7 +3312,7 @@
       <c r="K103" s="27"/>
     </row>
     <row r="104" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="96"/>
+      <c r="A104" s="93"/>
       <c r="B104" s="80">
         <v>41108</v>
       </c>
@@ -3327,7 +3336,7 @@
       <c r="K104" s="27"/>
     </row>
     <row r="105" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="96"/>
+      <c r="A105" s="93"/>
       <c r="B105" s="80">
         <v>41109</v>
       </c>
@@ -3351,8 +3360,8 @@
       <c r="K105" s="27"/>
     </row>
     <row r="106" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="96"/>
-      <c r="B106" s="92">
+      <c r="A106" s="93"/>
+      <c r="B106" s="95">
         <v>41110</v>
       </c>
       <c r="C106" s="4">
@@ -3377,8 +3386,8 @@
       <c r="K106" s="27"/>
     </row>
     <row r="107" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="96"/>
-      <c r="B107" s="93"/>
+      <c r="A107" s="93"/>
+      <c r="B107" s="97"/>
       <c r="C107" s="4">
         <v>0.63541666666666663</v>
       </c>
@@ -3399,8 +3408,8 @@
       <c r="K107" s="27"/>
     </row>
     <row r="108" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="96"/>
-      <c r="B108" s="93"/>
+      <c r="A108" s="93"/>
+      <c r="B108" s="97"/>
       <c r="C108" s="4">
         <v>0.67708333333333337</v>
       </c>
@@ -3423,8 +3432,8 @@
       <c r="K108" s="27"/>
     </row>
     <row r="109" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="96"/>
-      <c r="B109" s="94"/>
+      <c r="A109" s="93"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="4">
         <v>0.71875</v>
       </c>
@@ -3447,7 +3456,7 @@
       <c r="K109" s="27"/>
     </row>
     <row r="110" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="96"/>
+      <c r="A110" s="93"/>
       <c r="B110" s="80"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3459,7 +3468,7 @@
       <c r="K110" s="27"/>
     </row>
     <row r="111" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="96"/>
+      <c r="A111" s="93"/>
       <c r="B111" s="80"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3471,7 +3480,7 @@
       <c r="K111" s="27"/>
     </row>
     <row r="112" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="96"/>
+      <c r="A112" s="93"/>
       <c r="B112" s="87"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -3482,7 +3491,7 @@
       <c r="I112" s="79"/>
     </row>
     <row r="113" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="96"/>
+      <c r="A113" s="93"/>
       <c r="B113" s="86"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -3493,7 +3502,7 @@
       <c r="I113" s="79"/>
     </row>
     <row r="114" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="96"/>
+      <c r="A114" s="93"/>
       <c r="B114" s="85"/>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
@@ -3504,7 +3513,7 @@
       <c r="I114" s="79"/>
     </row>
     <row r="115" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="97"/>
+      <c r="A115" s="94"/>
       <c r="B115" s="88"/>
       <c r="C115" s="42"/>
       <c r="D115" s="42"/>
@@ -3637,6 +3646,25 @@
   </sheetData>
   <autoFilter ref="A6:H6"/>
   <mergeCells count="31">
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A103:A115"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A84:A102"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B40"/>
@@ -3649,25 +3677,6 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A103:A115"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A84:A102"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B84:B86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3678,8 +3687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4778,7 +4787,7 @@
     </row>
     <row r="67" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="102"/>
-      <c r="B67" s="89">
+      <c r="B67" s="98">
         <v>41112</v>
       </c>
       <c r="C67" s="65">
@@ -4800,25 +4809,47 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="102"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="65">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D68" s="65">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="E68" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="F68" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>121</v>
+      </c>
       <c r="H68" s="67"/>
     </row>
-    <row r="69" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="102"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="65">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D69" s="65">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E69" s="66">
+        <v>7.25</v>
+      </c>
+      <c r="F69" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="H69" s="67" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="102"/>
@@ -4951,13 +4982,7 @@
       <c r="H81" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A7:A13"/>
+  <mergeCells count="19">
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A77:A81"/>
     <mergeCell ref="A49:A53"/>
@@ -4970,6 +4995,13 @@
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A7:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
